--- a/Automation-UserCMD/TestData/Outputs/ClassOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class" sheetId="1" r:id="R0e921a2149524073"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class" sheetId="1" r:id="R8dd570a38f394542"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -48,13 +48,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B2" t="str">
-        <x:v>b18c78c1-bb95-4790-8ecc-19326af9b4ec</x:v>
+        <x:v>9fac6900-4031-46bb-9f55-367a34f51e44</x:v>
       </x:c>
       <x:c r="C2" t="str">
-        <x:v>CourseELA0101 - Sec0101ELA</x:v>
+        <x:v>CourseELA0505 - Sec0105ELA</x:v>
       </x:c>
       <x:c r="D2" t="str">
-        <x:v>6cb11318-256a-407d-bc51-c59c819b72e2</x:v>
+        <x:v>35602f4a-7e8d-4ed7-a375-04e89d095324</x:v>
       </x:c>
       <x:c r="E2" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -74,13 +74,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B3" t="str">
-        <x:v>b18c78c1-bb95-4790-8ecc-19326af9b4ec</x:v>
+        <x:v>9fac6900-4031-46bb-9f55-367a34f51e44</x:v>
       </x:c>
       <x:c r="C3" t="str">
-        <x:v>CourseELA0101 - Sec0101ELA</x:v>
+        <x:v>CourseELA0505 - Sec0105ELA</x:v>
       </x:c>
       <x:c r="D3" t="str">
-        <x:v>6cb11318-256a-407d-bc51-c59c819b72e2</x:v>
+        <x:v>35602f4a-7e8d-4ed7-a375-04e89d095324</x:v>
       </x:c>
       <x:c r="E3" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -100,13 +100,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B4" t="str">
-        <x:v>3b58d720-811f-4c47-b325-ba8ce5395614</x:v>
+        <x:v>f8b83850-8741-4ce0-9ea0-cfd10e7de9dd</x:v>
       </x:c>
       <x:c r="C4" t="str">
-        <x:v>CourseELA0101 - Sec0201ELA</x:v>
+        <x:v>CourseELA0505 - Sec0205ELA</x:v>
       </x:c>
       <x:c r="D4" t="str">
-        <x:v>3e5c00a0-fe25-43bc-a67e-aaec15d0d347</x:v>
+        <x:v>fe565ef5-410f-4248-935d-bac3b61cc8be</x:v>
       </x:c>
       <x:c r="E4" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -126,13 +126,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B5" t="str">
-        <x:v>3b58d720-811f-4c47-b325-ba8ce5395614</x:v>
+        <x:v>f8b83850-8741-4ce0-9ea0-cfd10e7de9dd</x:v>
       </x:c>
       <x:c r="C5" t="str">
-        <x:v>CourseELA0101 - Sec0201ELA</x:v>
+        <x:v>CourseELA0505 - Sec0205ELA</x:v>
       </x:c>
       <x:c r="D5" t="str">
-        <x:v>3e5c00a0-fe25-43bc-a67e-aaec15d0d347</x:v>
+        <x:v>fe565ef5-410f-4248-935d-bac3b61cc8be</x:v>
       </x:c>
       <x:c r="E5" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -152,13 +152,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B6" t="str">
-        <x:v>7c3648e4-e61d-4a04-a25c-56e7071621fe</x:v>
+        <x:v>8b56d3d0-1b5e-4fc4-b0d5-7d58b8d5b61f</x:v>
       </x:c>
       <x:c r="C6" t="str">
-        <x:v>CourseELA0101 - Sec0301ELA</x:v>
+        <x:v>CourseELA0505 - Sec0305ELA</x:v>
       </x:c>
       <x:c r="D6" t="str">
-        <x:v>207ffc2e-068f-4601-bc04-cfd8e9d2ca0a</x:v>
+        <x:v>eb84854e-cbe6-47ec-b7af-5116e4a9c5a2</x:v>
       </x:c>
       <x:c r="E6" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -178,13 +178,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B7" t="str">
-        <x:v>7c3648e4-e61d-4a04-a25c-56e7071621fe</x:v>
+        <x:v>8b56d3d0-1b5e-4fc4-b0d5-7d58b8d5b61f</x:v>
       </x:c>
       <x:c r="C7" t="str">
-        <x:v>CourseELA0101 - Sec0301ELA</x:v>
+        <x:v>CourseELA0505 - Sec0305ELA</x:v>
       </x:c>
       <x:c r="D7" t="str">
-        <x:v>207ffc2e-068f-4601-bc04-cfd8e9d2ca0a</x:v>
+        <x:v>eb84854e-cbe6-47ec-b7af-5116e4a9c5a2</x:v>
       </x:c>
       <x:c r="E7" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -204,13 +204,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B8" t="str">
-        <x:v>e2a7f837-299e-4a2a-9584-f22ea948ad87</x:v>
+        <x:v>4556ea9b-3661-4118-991f-a2e5ba048861</x:v>
       </x:c>
       <x:c r="C8" t="str">
-        <x:v>CourseELA0101 - Sec0401ELA</x:v>
+        <x:v>CourseELA0505 - Sec0405ELA</x:v>
       </x:c>
       <x:c r="D8" t="str">
-        <x:v>e06e9ee1-20e0-4d7d-b2d2-e99530d0ba4f</x:v>
+        <x:v>48dbbd7e-d499-4a49-a161-7c057c436afa</x:v>
       </x:c>
       <x:c r="E8" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -230,13 +230,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B9" t="str">
-        <x:v>e2a7f837-299e-4a2a-9584-f22ea948ad87</x:v>
+        <x:v>4556ea9b-3661-4118-991f-a2e5ba048861</x:v>
       </x:c>
       <x:c r="C9" t="str">
-        <x:v>CourseELA0101 - Sec0401ELA</x:v>
+        <x:v>CourseELA0505 - Sec0405ELA</x:v>
       </x:c>
       <x:c r="D9" t="str">
-        <x:v>e06e9ee1-20e0-4d7d-b2d2-e99530d0ba4f</x:v>
+        <x:v>48dbbd7e-d499-4a49-a161-7c057c436afa</x:v>
       </x:c>
       <x:c r="E9" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -256,13 +256,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B10" t="str">
-        <x:v>f6bc7cd0-52da-4afd-983c-891d9251801f</x:v>
+        <x:v>72a9ef5c-1a8b-458a-89db-7b0b8c21b4b9</x:v>
       </x:c>
       <x:c r="C10" t="str">
-        <x:v>CourseELA0101 - Sec0501ELA</x:v>
+        <x:v>CourseELA0505 - Sec0505ELA</x:v>
       </x:c>
       <x:c r="D10" t="str">
-        <x:v>97fbd62c-e5a0-42a7-a062-1bc8dd3fa258</x:v>
+        <x:v>67781925-0781-4541-a880-cc7fb60c7eeb</x:v>
       </x:c>
       <x:c r="E10" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -282,13 +282,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B11" t="str">
-        <x:v>f6bc7cd0-52da-4afd-983c-891d9251801f</x:v>
+        <x:v>72a9ef5c-1a8b-458a-89db-7b0b8c21b4b9</x:v>
       </x:c>
       <x:c r="C11" t="str">
-        <x:v>CourseELA0101 - Sec0501ELA</x:v>
+        <x:v>CourseELA0505 - Sec0505ELA</x:v>
       </x:c>
       <x:c r="D11" t="str">
-        <x:v>97fbd62c-e5a0-42a7-a062-1bc8dd3fa258</x:v>
+        <x:v>67781925-0781-4541-a880-cc7fb60c7eeb</x:v>
       </x:c>
       <x:c r="E11" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -308,13 +308,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B12" t="str">
-        <x:v>28903470-be45-4682-a331-dbc61b3d162e</x:v>
+        <x:v>f98e7cb0-c565-497e-bd82-96c58cbfcac6</x:v>
       </x:c>
       <x:c r="C12" t="str">
-        <x:v>CourseELA0101 - Sec0601ELA</x:v>
+        <x:v>CourseELA0505 - Sec0605ELA</x:v>
       </x:c>
       <x:c r="D12" t="str">
-        <x:v>6bce4e85-7e08-41e0-bd9e-ab061423fed8</x:v>
+        <x:v>8162723a-0593-4c37-b852-13ac5ac32d7c</x:v>
       </x:c>
       <x:c r="E12" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -334,13 +334,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B13" t="str">
-        <x:v>28903470-be45-4682-a331-dbc61b3d162e</x:v>
+        <x:v>f98e7cb0-c565-497e-bd82-96c58cbfcac6</x:v>
       </x:c>
       <x:c r="C13" t="str">
-        <x:v>CourseELA0101 - Sec0601ELA</x:v>
+        <x:v>CourseELA0505 - Sec0605ELA</x:v>
       </x:c>
       <x:c r="D13" t="str">
-        <x:v>6bce4e85-7e08-41e0-bd9e-ab061423fed8</x:v>
+        <x:v>8162723a-0593-4c37-b852-13ac5ac32d7c</x:v>
       </x:c>
       <x:c r="E13" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -360,13 +360,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B14" t="str">
-        <x:v>a2e19ac3-0d47-4365-aa62-a55893d07f3f</x:v>
+        <x:v>76705414-4d0b-4fc9-b027-952a4f391995</x:v>
       </x:c>
       <x:c r="C14" t="str">
-        <x:v>CourseELA0101 - Sec0701ELA</x:v>
+        <x:v>CourseELA0505 - Sec0705ELA</x:v>
       </x:c>
       <x:c r="D14" t="str">
-        <x:v>72b6cfcc-fc72-4a25-b7d4-26775d2662c0</x:v>
+        <x:v>c16816a8-68a0-488c-a0eb-381df6e73e4a</x:v>
       </x:c>
       <x:c r="E14" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -386,13 +386,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B15" t="str">
-        <x:v>a2e19ac3-0d47-4365-aa62-a55893d07f3f</x:v>
+        <x:v>76705414-4d0b-4fc9-b027-952a4f391995</x:v>
       </x:c>
       <x:c r="C15" t="str">
-        <x:v>CourseELA0101 - Sec0701ELA</x:v>
+        <x:v>CourseELA0505 - Sec0705ELA</x:v>
       </x:c>
       <x:c r="D15" t="str">
-        <x:v>72b6cfcc-fc72-4a25-b7d4-26775d2662c0</x:v>
+        <x:v>c16816a8-68a0-488c-a0eb-381df6e73e4a</x:v>
       </x:c>
       <x:c r="E15" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -412,13 +412,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B16" t="str">
-        <x:v>c5afc5b2-3b29-4ece-8994-6612265c3b9b</x:v>
+        <x:v>84a78c00-7dbe-4ad6-81ae-b8840956a878</x:v>
       </x:c>
       <x:c r="C16" t="str">
-        <x:v>CourseELA0101 - Sec0801ELA</x:v>
+        <x:v>CourseELA0505 - Sec0805ELA</x:v>
       </x:c>
       <x:c r="D16" t="str">
-        <x:v>f6955424-01cc-4c95-88cc-4446b72af3c8</x:v>
+        <x:v>03e8dc54-1234-44ed-8a85-6d1b729ef0bb</x:v>
       </x:c>
       <x:c r="E16" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -438,13 +438,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B17" t="str">
-        <x:v>c5afc5b2-3b29-4ece-8994-6612265c3b9b</x:v>
+        <x:v>84a78c00-7dbe-4ad6-81ae-b8840956a878</x:v>
       </x:c>
       <x:c r="C17" t="str">
-        <x:v>CourseELA0101 - Sec0801ELA</x:v>
+        <x:v>CourseELA0505 - Sec0805ELA</x:v>
       </x:c>
       <x:c r="D17" t="str">
-        <x:v>f6955424-01cc-4c95-88cc-4446b72af3c8</x:v>
+        <x:v>03e8dc54-1234-44ed-8a85-6d1b729ef0bb</x:v>
       </x:c>
       <x:c r="E17" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -464,13 +464,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B18" t="str">
-        <x:v>846dc3ea-5c6b-495b-b2bb-f411aad4f6d8</x:v>
+        <x:v>c517b5f1-ab24-4df2-8340-9782ab933d02</x:v>
       </x:c>
       <x:c r="C18" t="str">
-        <x:v>CourseELA0101 - Sec0901ELA</x:v>
+        <x:v>CourseELA0505 - Sec0905ELA</x:v>
       </x:c>
       <x:c r="D18" t="str">
-        <x:v>0d68366e-0884-4a78-bd8b-860321ac857b</x:v>
+        <x:v>9be45c84-5f15-4c5c-9fb3-82e3e63b457e</x:v>
       </x:c>
       <x:c r="E18" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -490,13 +490,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B19" t="str">
-        <x:v>846dc3ea-5c6b-495b-b2bb-f411aad4f6d8</x:v>
+        <x:v>c517b5f1-ab24-4df2-8340-9782ab933d02</x:v>
       </x:c>
       <x:c r="C19" t="str">
-        <x:v>CourseELA0101 - Sec0901ELA</x:v>
+        <x:v>CourseELA0505 - Sec0905ELA</x:v>
       </x:c>
       <x:c r="D19" t="str">
-        <x:v>0d68366e-0884-4a78-bd8b-860321ac857b</x:v>
+        <x:v>9be45c84-5f15-4c5c-9fb3-82e3e63b457e</x:v>
       </x:c>
       <x:c r="E19" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -516,13 +516,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B20" t="str">
-        <x:v>5aad8e7a-c4b0-445e-8486-5df6a40dba24</x:v>
+        <x:v>4a3b946b-4fcf-4399-b067-920fc39523be</x:v>
       </x:c>
       <x:c r="C20" t="str">
-        <x:v>CourseELA0101 - Sec10001ELA</x:v>
+        <x:v>CourseELA0505 - Sec10005ELA</x:v>
       </x:c>
       <x:c r="D20" t="str">
-        <x:v>aec9b581-90e3-4fb8-b8e1-a881e95b2cef</x:v>
+        <x:v>8bb942fd-8963-4163-85c0-e4c2d251546e</x:v>
       </x:c>
       <x:c r="E20" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -534,7 +534,7 @@
         <x:v>Learning Analytics</x:v>
       </x:c>
       <x:c r="H20" t="n">
-        <x:v>42328.101400463</x:v>
+        <x:v>42328.101412037</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -542,13 +542,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B21" t="str">
-        <x:v>3a0e5f4b-f615-401e-809d-8db875aa7fa9</x:v>
+        <x:v>7b55c28a-47b9-45b3-9346-5042328e5058</x:v>
       </x:c>
       <x:c r="C21" t="str">
-        <x:v>CourseELA0101 - Sec1001ELA</x:v>
+        <x:v>CourseELA0505 - Sec1005ELA</x:v>
       </x:c>
       <x:c r="D21" t="str">
-        <x:v>d2616d2c-3056-4e62-bcc6-507d4258739d</x:v>
+        <x:v>802261f1-500a-405a-86ff-744cd5e0ed1f</x:v>
       </x:c>
       <x:c r="E21" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -568,13 +568,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B22" t="str">
-        <x:v>3a0e5f4b-f615-401e-809d-8db875aa7fa9</x:v>
+        <x:v>7b55c28a-47b9-45b3-9346-5042328e5058</x:v>
       </x:c>
       <x:c r="C22" t="str">
-        <x:v>CourseELA0101 - Sec1001ELA</x:v>
+        <x:v>CourseELA0505 - Sec1005ELA</x:v>
       </x:c>
       <x:c r="D22" t="str">
-        <x:v>d2616d2c-3056-4e62-bcc6-507d4258739d</x:v>
+        <x:v>802261f1-500a-405a-86ff-744cd5e0ed1f</x:v>
       </x:c>
       <x:c r="E22" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -594,13 +594,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B23" t="str">
-        <x:v>b20684bf-e6a6-4741-bcd8-7d40798221e3</x:v>
+        <x:v>855223a8-6ca6-4cec-847d-70dfeab15364</x:v>
       </x:c>
       <x:c r="C23" t="str">
-        <x:v>CourseELA0101 - Sec1101ELA</x:v>
+        <x:v>CourseELA0505 - Sec1105ELA</x:v>
       </x:c>
       <x:c r="D23" t="str">
-        <x:v>7469322a-5f86-43a9-8e53-eb5073abebc3</x:v>
+        <x:v>eb7a6531-7128-40ea-a50d-a32b91b5448e</x:v>
       </x:c>
       <x:c r="E23" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -620,13 +620,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B24" t="str">
-        <x:v>b20684bf-e6a6-4741-bcd8-7d40798221e3</x:v>
+        <x:v>855223a8-6ca6-4cec-847d-70dfeab15364</x:v>
       </x:c>
       <x:c r="C24" t="str">
-        <x:v>CourseELA0101 - Sec1101ELA</x:v>
+        <x:v>CourseELA0505 - Sec1105ELA</x:v>
       </x:c>
       <x:c r="D24" t="str">
-        <x:v>7469322a-5f86-43a9-8e53-eb5073abebc3</x:v>
+        <x:v>eb7a6531-7128-40ea-a50d-a32b91b5448e</x:v>
       </x:c>
       <x:c r="E24" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -646,13 +646,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B25" t="str">
-        <x:v>520df641-a8b1-4aa0-a261-fda606c7adb4</x:v>
+        <x:v>b5c3c63e-bb0b-4c3c-bc7e-71b22c2693b4</x:v>
       </x:c>
       <x:c r="C25" t="str">
-        <x:v>CourseELA0101 - Sec1201ELA</x:v>
+        <x:v>CourseELA0505 - Sec1205ELA</x:v>
       </x:c>
       <x:c r="D25" t="str">
-        <x:v>a4304d2c-5e1a-4df9-8264-2662322ba825</x:v>
+        <x:v>29d2c375-d8f3-4a37-857e-75e781d30164</x:v>
       </x:c>
       <x:c r="E25" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -672,13 +672,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B26" t="str">
-        <x:v>520df641-a8b1-4aa0-a261-fda606c7adb4</x:v>
+        <x:v>b5c3c63e-bb0b-4c3c-bc7e-71b22c2693b4</x:v>
       </x:c>
       <x:c r="C26" t="str">
-        <x:v>CourseELA0101 - Sec1201ELA</x:v>
+        <x:v>CourseELA0505 - Sec1205ELA</x:v>
       </x:c>
       <x:c r="D26" t="str">
-        <x:v>a4304d2c-5e1a-4df9-8264-2662322ba825</x:v>
+        <x:v>29d2c375-d8f3-4a37-857e-75e781d30164</x:v>
       </x:c>
       <x:c r="E26" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -698,13 +698,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B27" t="str">
-        <x:v>9eedf94d-8ad2-42fe-8087-cfe514acbc8b</x:v>
+        <x:v>9e3d2263-2f26-46e1-b6a0-9baa0cf031a7</x:v>
       </x:c>
       <x:c r="C27" t="str">
-        <x:v>CourseELA0101 - Sec1301ELA</x:v>
+        <x:v>CourseELA0505 - Sec1305ELA</x:v>
       </x:c>
       <x:c r="D27" t="str">
-        <x:v>cbf4a4b9-b9df-4534-a254-5d84cf23928e</x:v>
+        <x:v>9b3bfcce-56bd-4afd-bc60-533d49222444</x:v>
       </x:c>
       <x:c r="E27" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -724,13 +724,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B28" t="str">
-        <x:v>9eedf94d-8ad2-42fe-8087-cfe514acbc8b</x:v>
+        <x:v>9e3d2263-2f26-46e1-b6a0-9baa0cf031a7</x:v>
       </x:c>
       <x:c r="C28" t="str">
-        <x:v>CourseELA0101 - Sec1301ELA</x:v>
+        <x:v>CourseELA0505 - Sec1305ELA</x:v>
       </x:c>
       <x:c r="D28" t="str">
-        <x:v>cbf4a4b9-b9df-4534-a254-5d84cf23928e</x:v>
+        <x:v>9b3bfcce-56bd-4afd-bc60-533d49222444</x:v>
       </x:c>
       <x:c r="E28" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -750,13 +750,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B29" t="str">
-        <x:v>59dc1b9f-6619-475c-8f8f-24f1a1c21ad2</x:v>
+        <x:v>52ef2162-243e-4084-934d-15a7590c429c</x:v>
       </x:c>
       <x:c r="C29" t="str">
-        <x:v>CourseELA0101 - Sec1401ELA</x:v>
+        <x:v>CourseELA0505 - Sec1405ELA</x:v>
       </x:c>
       <x:c r="D29" t="str">
-        <x:v>2f4696a7-a0b5-4a81-bc4f-b74ed74f5233</x:v>
+        <x:v>a2e190e3-524a-4207-a3b7-2883fd056f22</x:v>
       </x:c>
       <x:c r="E29" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -776,13 +776,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B30" t="str">
-        <x:v>59dc1b9f-6619-475c-8f8f-24f1a1c21ad2</x:v>
+        <x:v>52ef2162-243e-4084-934d-15a7590c429c</x:v>
       </x:c>
       <x:c r="C30" t="str">
-        <x:v>CourseELA0101 - Sec1401ELA</x:v>
+        <x:v>CourseELA0505 - Sec1405ELA</x:v>
       </x:c>
       <x:c r="D30" t="str">
-        <x:v>2f4696a7-a0b5-4a81-bc4f-b74ed74f5233</x:v>
+        <x:v>a2e190e3-524a-4207-a3b7-2883fd056f22</x:v>
       </x:c>
       <x:c r="E30" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -802,13 +802,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B31" t="str">
-        <x:v>540836d4-94a2-40b1-8d8d-7249a7e5de97</x:v>
+        <x:v>93cf5b96-4f87-4a2d-9595-6eacfd3a17d3</x:v>
       </x:c>
       <x:c r="C31" t="str">
-        <x:v>CourseELA0101 - Sec1501ELA</x:v>
+        <x:v>CourseELA0505 - Sec1505ELA</x:v>
       </x:c>
       <x:c r="D31" t="str">
-        <x:v>1a494ba2-c202-414f-bd07-0bdd23dde83c</x:v>
+        <x:v>ccae7985-58e3-47a7-98a6-da79a1d2c7c4</x:v>
       </x:c>
       <x:c r="E31" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -828,13 +828,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B32" t="str">
-        <x:v>540836d4-94a2-40b1-8d8d-7249a7e5de97</x:v>
+        <x:v>93cf5b96-4f87-4a2d-9595-6eacfd3a17d3</x:v>
       </x:c>
       <x:c r="C32" t="str">
-        <x:v>CourseELA0101 - Sec1501ELA</x:v>
+        <x:v>CourseELA0505 - Sec1505ELA</x:v>
       </x:c>
       <x:c r="D32" t="str">
-        <x:v>1a494ba2-c202-414f-bd07-0bdd23dde83c</x:v>
+        <x:v>ccae7985-58e3-47a7-98a6-da79a1d2c7c4</x:v>
       </x:c>
       <x:c r="E32" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -854,13 +854,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B33" t="str">
-        <x:v>cbf917de-0e2a-4fec-a7e4-49a04b3a066d</x:v>
+        <x:v>5f6d35cc-d512-439c-8cc0-0938538895fd</x:v>
       </x:c>
       <x:c r="C33" t="str">
-        <x:v>CourseELA0101 - Sec1601ELA</x:v>
+        <x:v>CourseELA0505 - Sec1605ELA</x:v>
       </x:c>
       <x:c r="D33" t="str">
-        <x:v>a67eb3f6-3ef6-4c8e-933c-5ca4ecd8deab</x:v>
+        <x:v>96f09f15-0d3f-48ba-a79b-d0da119bb3fc</x:v>
       </x:c>
       <x:c r="E33" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -880,13 +880,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B34" t="str">
-        <x:v>cbf917de-0e2a-4fec-a7e4-49a04b3a066d</x:v>
+        <x:v>5f6d35cc-d512-439c-8cc0-0938538895fd</x:v>
       </x:c>
       <x:c r="C34" t="str">
-        <x:v>CourseELA0101 - Sec1601ELA</x:v>
+        <x:v>CourseELA0505 - Sec1605ELA</x:v>
       </x:c>
       <x:c r="D34" t="str">
-        <x:v>a67eb3f6-3ef6-4c8e-933c-5ca4ecd8deab</x:v>
+        <x:v>96f09f15-0d3f-48ba-a79b-d0da119bb3fc</x:v>
       </x:c>
       <x:c r="E34" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -906,13 +906,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B35" t="str">
-        <x:v>df8cd8aa-cc5f-4c6c-b373-16bd4cf5eeae</x:v>
+        <x:v>4c0af660-18f4-4b6b-9776-348cdd2b6579</x:v>
       </x:c>
       <x:c r="C35" t="str">
-        <x:v>CourseELA0101 - Sec1701ELA</x:v>
+        <x:v>CourseELA0505 - Sec1705ELA</x:v>
       </x:c>
       <x:c r="D35" t="str">
-        <x:v>42c975b7-6815-47ef-836c-14860b526597</x:v>
+        <x:v>8b484282-b4ba-4922-affe-2a8955df9a7d</x:v>
       </x:c>
       <x:c r="E35" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -932,13 +932,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B36" t="str">
-        <x:v>df8cd8aa-cc5f-4c6c-b373-16bd4cf5eeae</x:v>
+        <x:v>4c0af660-18f4-4b6b-9776-348cdd2b6579</x:v>
       </x:c>
       <x:c r="C36" t="str">
-        <x:v>CourseELA0101 - Sec1701ELA</x:v>
+        <x:v>CourseELA0505 - Sec1705ELA</x:v>
       </x:c>
       <x:c r="D36" t="str">
-        <x:v>42c975b7-6815-47ef-836c-14860b526597</x:v>
+        <x:v>8b484282-b4ba-4922-affe-2a8955df9a7d</x:v>
       </x:c>
       <x:c r="E36" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -958,13 +958,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B37" t="str">
-        <x:v>51cfab76-1b6f-4772-92dc-1ba4ab566d57</x:v>
+        <x:v>de702f72-f7ab-4894-8a66-36ba197f7a06</x:v>
       </x:c>
       <x:c r="C37" t="str">
-        <x:v>CourseELA0101 - Sec1801ELA</x:v>
+        <x:v>CourseELA0505 - Sec1805ELA</x:v>
       </x:c>
       <x:c r="D37" t="str">
-        <x:v>0ff00fd3-de5c-4153-a4c7-e0c3b10b40e3</x:v>
+        <x:v>c07af050-f84b-46f5-b4db-a85ffd94f593</x:v>
       </x:c>
       <x:c r="E37" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -984,13 +984,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B38" t="str">
-        <x:v>51cfab76-1b6f-4772-92dc-1ba4ab566d57</x:v>
+        <x:v>de702f72-f7ab-4894-8a66-36ba197f7a06</x:v>
       </x:c>
       <x:c r="C38" t="str">
-        <x:v>CourseELA0101 - Sec1801ELA</x:v>
+        <x:v>CourseELA0505 - Sec1805ELA</x:v>
       </x:c>
       <x:c r="D38" t="str">
-        <x:v>0ff00fd3-de5c-4153-a4c7-e0c3b10b40e3</x:v>
+        <x:v>c07af050-f84b-46f5-b4db-a85ffd94f593</x:v>
       </x:c>
       <x:c r="E38" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1010,13 +1010,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B39" t="str">
-        <x:v>8b51ca8f-d16e-4478-9c51-34f87f338049</x:v>
+        <x:v>eb0238df-826e-435f-b4e5-a700f4456437</x:v>
       </x:c>
       <x:c r="C39" t="str">
-        <x:v>CourseELA0101 - Sec1901ELA</x:v>
+        <x:v>CourseELA0505 - Sec1905ELA</x:v>
       </x:c>
       <x:c r="D39" t="str">
-        <x:v>2e4f463c-268f-4ee6-86eb-a5d9f357c033</x:v>
+        <x:v>bf299c10-7ebf-4a3a-81e1-5d0339329740</x:v>
       </x:c>
       <x:c r="E39" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1036,13 +1036,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B40" t="str">
-        <x:v>8b51ca8f-d16e-4478-9c51-34f87f338049</x:v>
+        <x:v>eb0238df-826e-435f-b4e5-a700f4456437</x:v>
       </x:c>
       <x:c r="C40" t="str">
-        <x:v>CourseELA0101 - Sec1901ELA</x:v>
+        <x:v>CourseELA0505 - Sec1905ELA</x:v>
       </x:c>
       <x:c r="D40" t="str">
-        <x:v>2e4f463c-268f-4ee6-86eb-a5d9f357c033</x:v>
+        <x:v>bf299c10-7ebf-4a3a-81e1-5d0339329740</x:v>
       </x:c>
       <x:c r="E40" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1062,13 +1062,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B41" t="str">
-        <x:v>bc2a29aa-7fc9-44ad-8fb5-4e147592f20c</x:v>
+        <x:v>baeb0f70-35d3-4d16-9849-a1186ce881c0</x:v>
       </x:c>
       <x:c r="C41" t="str">
-        <x:v>CourseELA0101 - Sec2001ELA</x:v>
+        <x:v>CourseELA0505 - Sec2005ELA</x:v>
       </x:c>
       <x:c r="D41" t="str">
-        <x:v>60ce7b30-2afb-4c5c-9579-477edde73e44</x:v>
+        <x:v>98d0f5f5-a65f-4075-bd6a-2ee93b399b0b</x:v>
       </x:c>
       <x:c r="E41" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1088,13 +1088,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B42" t="str">
-        <x:v>bc2a29aa-7fc9-44ad-8fb5-4e147592f20c</x:v>
+        <x:v>baeb0f70-35d3-4d16-9849-a1186ce881c0</x:v>
       </x:c>
       <x:c r="C42" t="str">
-        <x:v>CourseELA0101 - Sec2001ELA</x:v>
+        <x:v>CourseELA0505 - Sec2005ELA</x:v>
       </x:c>
       <x:c r="D42" t="str">
-        <x:v>60ce7b30-2afb-4c5c-9579-477edde73e44</x:v>
+        <x:v>98d0f5f5-a65f-4075-bd6a-2ee93b399b0b</x:v>
       </x:c>
       <x:c r="E42" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1114,13 +1114,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B43" t="str">
-        <x:v>c39af096-6a5a-499e-9ef7-bff154463fab</x:v>
+        <x:v>7a75d90b-1336-4d5b-8789-672ca4896d24</x:v>
       </x:c>
       <x:c r="C43" t="str">
-        <x:v>CourseELA0101 - Sec2101ELA</x:v>
+        <x:v>CourseELA0505 - Sec2105ELA</x:v>
       </x:c>
       <x:c r="D43" t="str">
-        <x:v>0b7fdbbb-ae6e-449e-b30d-d72d3e6a56cd</x:v>
+        <x:v>25cfd06b-21cc-4a72-a0e2-8ff379083240</x:v>
       </x:c>
       <x:c r="E43" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1140,13 +1140,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B44" t="str">
-        <x:v>c39af096-6a5a-499e-9ef7-bff154463fab</x:v>
+        <x:v>7a75d90b-1336-4d5b-8789-672ca4896d24</x:v>
       </x:c>
       <x:c r="C44" t="str">
-        <x:v>CourseELA0101 - Sec2101ELA</x:v>
+        <x:v>CourseELA0505 - Sec2105ELA</x:v>
       </x:c>
       <x:c r="D44" t="str">
-        <x:v>0b7fdbbb-ae6e-449e-b30d-d72d3e6a56cd</x:v>
+        <x:v>25cfd06b-21cc-4a72-a0e2-8ff379083240</x:v>
       </x:c>
       <x:c r="E44" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1166,13 +1166,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B45" t="str">
-        <x:v>cfd60e47-994c-4f4d-bfc0-f929cfc9d356</x:v>
+        <x:v>82b15f25-16a3-4998-91d9-ebd435226a4b</x:v>
       </x:c>
       <x:c r="C45" t="str">
-        <x:v>CourseELA0101 - Sec2201ELA</x:v>
+        <x:v>CourseELA0505 - Sec2205ELA</x:v>
       </x:c>
       <x:c r="D45" t="str">
-        <x:v>6f040c45-d83f-4031-bdeb-df45d1bb509f</x:v>
+        <x:v>ddd787f6-b48c-466d-9be5-1ab1a39b1f0d</x:v>
       </x:c>
       <x:c r="E45" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1192,13 +1192,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B46" t="str">
-        <x:v>cfd60e47-994c-4f4d-bfc0-f929cfc9d356</x:v>
+        <x:v>82b15f25-16a3-4998-91d9-ebd435226a4b</x:v>
       </x:c>
       <x:c r="C46" t="str">
-        <x:v>CourseELA0101 - Sec2201ELA</x:v>
+        <x:v>CourseELA0505 - Sec2205ELA</x:v>
       </x:c>
       <x:c r="D46" t="str">
-        <x:v>6f040c45-d83f-4031-bdeb-df45d1bb509f</x:v>
+        <x:v>ddd787f6-b48c-466d-9be5-1ab1a39b1f0d</x:v>
       </x:c>
       <x:c r="E46" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1218,13 +1218,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B47" t="str">
-        <x:v>c8c001b6-4494-48e6-96bb-31c92a913743</x:v>
+        <x:v>966a8a9b-0f30-4a28-9573-a9eeef635683</x:v>
       </x:c>
       <x:c r="C47" t="str">
-        <x:v>CourseELA0101 - Sec2301ELA</x:v>
+        <x:v>CourseELA0505 - Sec2305ELA</x:v>
       </x:c>
       <x:c r="D47" t="str">
-        <x:v>8e2ebd16-3928-4e70-88bd-7ad6725f264b</x:v>
+        <x:v>72fed2fe-33ed-4629-8e8e-37d414828bef</x:v>
       </x:c>
       <x:c r="E47" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1244,13 +1244,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B48" t="str">
-        <x:v>c8c001b6-4494-48e6-96bb-31c92a913743</x:v>
+        <x:v>966a8a9b-0f30-4a28-9573-a9eeef635683</x:v>
       </x:c>
       <x:c r="C48" t="str">
-        <x:v>CourseELA0101 - Sec2301ELA</x:v>
+        <x:v>CourseELA0505 - Sec2305ELA</x:v>
       </x:c>
       <x:c r="D48" t="str">
-        <x:v>8e2ebd16-3928-4e70-88bd-7ad6725f264b</x:v>
+        <x:v>72fed2fe-33ed-4629-8e8e-37d414828bef</x:v>
       </x:c>
       <x:c r="E48" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1270,13 +1270,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B49" t="str">
-        <x:v/>
+        <x:v>df060589-4b0d-4a1f-9193-e0c8c97b828b</x:v>
       </x:c>
       <x:c r="C49" t="str">
-        <x:v>CourseELA0101 - Sec2401ELA</x:v>
+        <x:v>CourseELA0505 - Sec2405ELA</x:v>
       </x:c>
       <x:c r="D49" t="str">
-        <x:v>8b8277dc-23ac-4dad-90d9-250907cb7c60</x:v>
+        <x:v>aadb17bc-8ac1-4e8a-9dda-d2da6ff11f62</x:v>
       </x:c>
       <x:c r="E49" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1296,13 +1296,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B50" t="str">
-        <x:v>1f2113be-ba12-489f-a7d1-664a61181065</x:v>
+        <x:v>df060589-4b0d-4a1f-9193-e0c8c97b828b</x:v>
       </x:c>
       <x:c r="C50" t="str">
-        <x:v>CourseELA0101 - Sec2401ELA</x:v>
+        <x:v>CourseELA0505 - Sec2405ELA</x:v>
       </x:c>
       <x:c r="D50" t="str">
-        <x:v>8b8277dc-23ac-4dad-90d9-250907cb7c60</x:v>
+        <x:v>aadb17bc-8ac1-4e8a-9dda-d2da6ff11f62</x:v>
       </x:c>
       <x:c r="E50" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1322,13 +1322,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B51" t="str">
-        <x:v>4923e319-f1f4-4cb7-b967-a60108aa301a</x:v>
+        <x:v>3cce9796-201a-4bbe-b6ac-7f5cbad66ea3</x:v>
       </x:c>
       <x:c r="C51" t="str">
-        <x:v>CourseELA0101 - Sec2501ELA</x:v>
+        <x:v>CourseELA0505 - Sec2505ELA</x:v>
       </x:c>
       <x:c r="D51" t="str">
-        <x:v>da110ef3-a1c3-465c-b654-2948ed1836ab</x:v>
+        <x:v>2388fa74-ecce-4be8-8f91-2ad8a70c74df</x:v>
       </x:c>
       <x:c r="E51" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1348,13 +1348,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B52" t="str">
-        <x:v>4923e319-f1f4-4cb7-b967-a60108aa301a</x:v>
+        <x:v>3cce9796-201a-4bbe-b6ac-7f5cbad66ea3</x:v>
       </x:c>
       <x:c r="C52" t="str">
-        <x:v>CourseELA0101 - Sec2501ELA</x:v>
+        <x:v>CourseELA0505 - Sec2505ELA</x:v>
       </x:c>
       <x:c r="D52" t="str">
-        <x:v>da110ef3-a1c3-465c-b654-2948ed1836ab</x:v>
+        <x:v>2388fa74-ecce-4be8-8f91-2ad8a70c74df</x:v>
       </x:c>
       <x:c r="E52" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1374,13 +1374,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B53" t="str">
-        <x:v>8b0d9ac6-e91b-4570-93c9-1b163fc4fb13</x:v>
+        <x:v>dbe3638d-08df-4057-8bc6-2353eb031c74</x:v>
       </x:c>
       <x:c r="C53" t="str">
-        <x:v>CourseELA0101 - Sec2601ELA</x:v>
+        <x:v>CourseELA0505 - Sec2605ELA</x:v>
       </x:c>
       <x:c r="D53" t="str">
-        <x:v>e01b3dd5-3230-4a2f-a748-f36b4ef5460a</x:v>
+        <x:v>aa8c8e2a-28e5-46f2-b3cc-7873d4f06cc9</x:v>
       </x:c>
       <x:c r="E53" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1400,13 +1400,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B54" t="str">
-        <x:v>8b0d9ac6-e91b-4570-93c9-1b163fc4fb13</x:v>
+        <x:v>dbe3638d-08df-4057-8bc6-2353eb031c74</x:v>
       </x:c>
       <x:c r="C54" t="str">
-        <x:v>CourseELA0101 - Sec2601ELA</x:v>
+        <x:v>CourseELA0505 - Sec2605ELA</x:v>
       </x:c>
       <x:c r="D54" t="str">
-        <x:v>e01b3dd5-3230-4a2f-a748-f36b4ef5460a</x:v>
+        <x:v>aa8c8e2a-28e5-46f2-b3cc-7873d4f06cc9</x:v>
       </x:c>
       <x:c r="E54" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1426,13 +1426,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B55" t="str">
-        <x:v>4f30be92-5b29-402f-be8f-2c54ebf5d6b2</x:v>
+        <x:v>effd7825-57fe-429f-b3f8-697c7dade118</x:v>
       </x:c>
       <x:c r="C55" t="str">
-        <x:v>CourseELA0101 - Sec2701ELA</x:v>
+        <x:v>CourseELA0505 - Sec2705ELA</x:v>
       </x:c>
       <x:c r="D55" t="str">
-        <x:v>17456385-192c-4307-a4db-711cec5f968c</x:v>
+        <x:v>efdb37d5-9c26-4692-ac45-f6eff72e57c4</x:v>
       </x:c>
       <x:c r="E55" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1452,13 +1452,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B56" t="str">
-        <x:v>4f30be92-5b29-402f-be8f-2c54ebf5d6b2</x:v>
+        <x:v>effd7825-57fe-429f-b3f8-697c7dade118</x:v>
       </x:c>
       <x:c r="C56" t="str">
-        <x:v>CourseELA0101 - Sec2701ELA</x:v>
+        <x:v>CourseELA0505 - Sec2705ELA</x:v>
       </x:c>
       <x:c r="D56" t="str">
-        <x:v>17456385-192c-4307-a4db-711cec5f968c</x:v>
+        <x:v>efdb37d5-9c26-4692-ac45-f6eff72e57c4</x:v>
       </x:c>
       <x:c r="E56" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1478,13 +1478,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B57" t="str">
-        <x:v>b76ed508-7ee8-46d6-b0da-2760205437e3</x:v>
+        <x:v>aa80dee6-2d8c-4802-a446-499dcb2dbfd4</x:v>
       </x:c>
       <x:c r="C57" t="str">
-        <x:v>CourseELA0101 - Sec2801ELA</x:v>
+        <x:v>CourseELA0505 - Sec2805ELA</x:v>
       </x:c>
       <x:c r="D57" t="str">
-        <x:v>1ae49dab-08e0-452e-a78a-899754fc2724</x:v>
+        <x:v>dfa5b10b-c063-45a2-883c-89cab8cbd2be</x:v>
       </x:c>
       <x:c r="E57" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1504,13 +1504,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B58" t="str">
-        <x:v>b76ed508-7ee8-46d6-b0da-2760205437e3</x:v>
+        <x:v>aa80dee6-2d8c-4802-a446-499dcb2dbfd4</x:v>
       </x:c>
       <x:c r="C58" t="str">
-        <x:v>CourseELA0101 - Sec2801ELA</x:v>
+        <x:v>CourseELA0505 - Sec2805ELA</x:v>
       </x:c>
       <x:c r="D58" t="str">
-        <x:v>1ae49dab-08e0-452e-a78a-899754fc2724</x:v>
+        <x:v>dfa5b10b-c063-45a2-883c-89cab8cbd2be</x:v>
       </x:c>
       <x:c r="E58" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1530,13 +1530,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B59" t="str">
-        <x:v>ba6795a0-c2bb-4fcb-8f43-104e87d4ba71</x:v>
+        <x:v>1a29d522-ddc5-46f4-993e-f30d3b1ecc0f</x:v>
       </x:c>
       <x:c r="C59" t="str">
-        <x:v>CourseELA0101 - Sec2901ELA</x:v>
+        <x:v>CourseELA0505 - Sec2905ELA</x:v>
       </x:c>
       <x:c r="D59" t="str">
-        <x:v>cc680ccf-35eb-4f24-8bb4-17805d0aa92e</x:v>
+        <x:v>4bcb7536-3126-4ce9-93fc-5805b3178347</x:v>
       </x:c>
       <x:c r="E59" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1556,13 +1556,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B60" t="str">
-        <x:v>ba6795a0-c2bb-4fcb-8f43-104e87d4ba71</x:v>
+        <x:v>1a29d522-ddc5-46f4-993e-f30d3b1ecc0f</x:v>
       </x:c>
       <x:c r="C60" t="str">
-        <x:v>CourseELA0101 - Sec2901ELA</x:v>
+        <x:v>CourseELA0505 - Sec2905ELA</x:v>
       </x:c>
       <x:c r="D60" t="str">
-        <x:v>cc680ccf-35eb-4f24-8bb4-17805d0aa92e</x:v>
+        <x:v>4bcb7536-3126-4ce9-93fc-5805b3178347</x:v>
       </x:c>
       <x:c r="E60" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1582,13 +1582,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B61" t="str">
-        <x:v>32241d17-d790-4882-9c91-9aceaa8b64cd</x:v>
+        <x:v>1dd7c286-5baa-4b73-a908-d906fc7959d4</x:v>
       </x:c>
       <x:c r="C61" t="str">
-        <x:v>CourseELA0101 - Sec3001ELA</x:v>
+        <x:v>CourseELA0505 - Sec3005ELA</x:v>
       </x:c>
       <x:c r="D61" t="str">
-        <x:v>781d1aa3-5c31-4db7-8aca-af4afaeaae38</x:v>
+        <x:v>000b3e6d-8845-4581-9003-95e382a3777b</x:v>
       </x:c>
       <x:c r="E61" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1608,13 +1608,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B62" t="str">
-        <x:v>32241d17-d790-4882-9c91-9aceaa8b64cd</x:v>
+        <x:v>1dd7c286-5baa-4b73-a908-d906fc7959d4</x:v>
       </x:c>
       <x:c r="C62" t="str">
-        <x:v>CourseELA0101 - Sec3001ELA</x:v>
+        <x:v>CourseELA0505 - Sec3005ELA</x:v>
       </x:c>
       <x:c r="D62" t="str">
-        <x:v>781d1aa3-5c31-4db7-8aca-af4afaeaae38</x:v>
+        <x:v>000b3e6d-8845-4581-9003-95e382a3777b</x:v>
       </x:c>
       <x:c r="E62" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1634,13 +1634,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B63" t="str">
-        <x:v>3eed7aca-4a93-483e-89f4-e6be38946340</x:v>
+        <x:v>2d2aee1d-ef54-403a-a6f4-58a50c5d8b77</x:v>
       </x:c>
       <x:c r="C63" t="str">
-        <x:v>CourseELA0101 - Sec3101ELA</x:v>
+        <x:v>CourseELA0505 - Sec3105ELA</x:v>
       </x:c>
       <x:c r="D63" t="str">
-        <x:v>0b0b7148-7881-4471-a19a-aefd44437188</x:v>
+        <x:v>747eca49-4c3c-407d-b32e-a2150b917cd2</x:v>
       </x:c>
       <x:c r="E63" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1660,13 +1660,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B64" t="str">
-        <x:v>3eed7aca-4a93-483e-89f4-e6be38946340</x:v>
+        <x:v>2d2aee1d-ef54-403a-a6f4-58a50c5d8b77</x:v>
       </x:c>
       <x:c r="C64" t="str">
-        <x:v>CourseELA0101 - Sec3101ELA</x:v>
+        <x:v>CourseELA0505 - Sec3105ELA</x:v>
       </x:c>
       <x:c r="D64" t="str">
-        <x:v>0b0b7148-7881-4471-a19a-aefd44437188</x:v>
+        <x:v>747eca49-4c3c-407d-b32e-a2150b917cd2</x:v>
       </x:c>
       <x:c r="E64" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1686,13 +1686,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B65" t="str">
-        <x:v>369e41e7-9e40-4566-b12c-0ecb1231079c</x:v>
+        <x:v>a524879c-cd85-4dbf-b2c1-c3206d8a7a97</x:v>
       </x:c>
       <x:c r="C65" t="str">
-        <x:v>CourseELA0101 - Sec3201ELA</x:v>
+        <x:v>CourseELA0505 - Sec3205ELA</x:v>
       </x:c>
       <x:c r="D65" t="str">
-        <x:v>7e35bfae-a53b-4b6d-a67f-0a29b851c218</x:v>
+        <x:v>15f939ea-ee01-49d8-9a86-996e63b937f0</x:v>
       </x:c>
       <x:c r="E65" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1704,7 +1704,7 @@
         <x:v>Learning Analytics</x:v>
       </x:c>
       <x:c r="H65" t="n">
-        <x:v>42321.2492013889</x:v>
+        <x:v>42321.249212963</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
@@ -1712,13 +1712,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B66" t="str">
-        <x:v>369e41e7-9e40-4566-b12c-0ecb1231079c</x:v>
+        <x:v>a524879c-cd85-4dbf-b2c1-c3206d8a7a97</x:v>
       </x:c>
       <x:c r="C66" t="str">
-        <x:v>CourseELA0101 - Sec3201ELA</x:v>
+        <x:v>CourseELA0505 - Sec3205ELA</x:v>
       </x:c>
       <x:c r="D66" t="str">
-        <x:v>7e35bfae-a53b-4b6d-a67f-0a29b851c218</x:v>
+        <x:v>15f939ea-ee01-49d8-9a86-996e63b937f0</x:v>
       </x:c>
       <x:c r="E66" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1738,13 +1738,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B67" t="str">
-        <x:v>1409e4ca-a698-4c44-9328-7c753b36cd1e</x:v>
+        <x:v>b07a63aa-7277-4b62-a748-2d14df8163f6</x:v>
       </x:c>
       <x:c r="C67" t="str">
-        <x:v>CourseELA0101 - Sec3301ELA</x:v>
+        <x:v>CourseELA0505 - Sec3305ELA</x:v>
       </x:c>
       <x:c r="D67" t="str">
-        <x:v>bed38d3d-e26f-42fc-aab2-87eb297ccf4c</x:v>
+        <x:v>fdf4cbb1-f59a-406a-abe8-92c7a1f4abb6</x:v>
       </x:c>
       <x:c r="E67" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1764,13 +1764,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B68" t="str">
-        <x:v>1409e4ca-a698-4c44-9328-7c753b36cd1e</x:v>
+        <x:v>b07a63aa-7277-4b62-a748-2d14df8163f6</x:v>
       </x:c>
       <x:c r="C68" t="str">
-        <x:v>CourseELA0101 - Sec3301ELA</x:v>
+        <x:v>CourseELA0505 - Sec3305ELA</x:v>
       </x:c>
       <x:c r="D68" t="str">
-        <x:v>bed38d3d-e26f-42fc-aab2-87eb297ccf4c</x:v>
+        <x:v>fdf4cbb1-f59a-406a-abe8-92c7a1f4abb6</x:v>
       </x:c>
       <x:c r="E68" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1790,13 +1790,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B69" t="str">
-        <x:v>881fcd44-7a09-471d-b9cb-fc4112e05776</x:v>
+        <x:v>6994f850-8893-4c0a-90ce-29352fb7ab60</x:v>
       </x:c>
       <x:c r="C69" t="str">
-        <x:v>CourseELA0101 - Sec3401ELA</x:v>
+        <x:v>CourseELA0505 - Sec3405ELA</x:v>
       </x:c>
       <x:c r="D69" t="str">
-        <x:v>05c499d7-033d-4d20-be9f-84802d553445</x:v>
+        <x:v>e851e5e3-2e8b-4f89-afee-86d0113c8c9b</x:v>
       </x:c>
       <x:c r="E69" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1816,13 +1816,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B70" t="str">
-        <x:v>881fcd44-7a09-471d-b9cb-fc4112e05776</x:v>
+        <x:v>6994f850-8893-4c0a-90ce-29352fb7ab60</x:v>
       </x:c>
       <x:c r="C70" t="str">
-        <x:v>CourseELA0101 - Sec3401ELA</x:v>
+        <x:v>CourseELA0505 - Sec3405ELA</x:v>
       </x:c>
       <x:c r="D70" t="str">
-        <x:v>05c499d7-033d-4d20-be9f-84802d553445</x:v>
+        <x:v>e851e5e3-2e8b-4f89-afee-86d0113c8c9b</x:v>
       </x:c>
       <x:c r="E70" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1842,13 +1842,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B71" t="str">
-        <x:v>b872e621-b398-4289-9e4f-fb9b63bd0a5b</x:v>
+        <x:v>63e60f03-3866-498e-8aad-4874620d6aa4</x:v>
       </x:c>
       <x:c r="C71" t="str">
-        <x:v>CourseELA0101 - Sec3501ELA</x:v>
+        <x:v>CourseELA0505 - Sec3505ELA</x:v>
       </x:c>
       <x:c r="D71" t="str">
-        <x:v>caae467c-e59a-483d-83fa-7fb4c984c334</x:v>
+        <x:v>b2d3250b-19f1-4b1c-8b2f-be7d1f334e28</x:v>
       </x:c>
       <x:c r="E71" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1868,13 +1868,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B72" t="str">
-        <x:v>b872e621-b398-4289-9e4f-fb9b63bd0a5b</x:v>
+        <x:v>63e60f03-3866-498e-8aad-4874620d6aa4</x:v>
       </x:c>
       <x:c r="C72" t="str">
-        <x:v>CourseELA0101 - Sec3501ELA</x:v>
+        <x:v>CourseELA0505 - Sec3505ELA</x:v>
       </x:c>
       <x:c r="D72" t="str">
-        <x:v>caae467c-e59a-483d-83fa-7fb4c984c334</x:v>
+        <x:v>b2d3250b-19f1-4b1c-8b2f-be7d1f334e28</x:v>
       </x:c>
       <x:c r="E72" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1894,13 +1894,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B73" t="str">
-        <x:v>75ce2631-11ca-457b-a8b4-f446c41f25b7</x:v>
+        <x:v>887f36c8-c236-43c3-952a-af21e5f07e22</x:v>
       </x:c>
       <x:c r="C73" t="str">
-        <x:v>CourseELA0101 - Sec4101ELA</x:v>
+        <x:v>CourseELA0505 - Sec4105ELA</x:v>
       </x:c>
       <x:c r="D73" t="str">
-        <x:v>9892aa4b-f900-4a8e-8a01-5413e3eef836</x:v>
+        <x:v>cb401127-c8db-4ade-a707-cd930b6a3be6</x:v>
       </x:c>
       <x:c r="E73" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1920,13 +1920,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B74" t="str">
-        <x:v>d7c5849b-4e4f-4380-8761-1fac0e30b8ad</x:v>
+        <x:v>bc8d78cc-9db2-4483-a8a0-14b5718fad0c</x:v>
       </x:c>
       <x:c r="C74" t="str">
-        <x:v>CourseELA0101 - Sec4201ELA</x:v>
+        <x:v>CourseELA0505 - Sec4205ELA</x:v>
       </x:c>
       <x:c r="D74" t="str">
-        <x:v>6360b161-0ff0-4266-a3d5-c4e0c5bbaf5d</x:v>
+        <x:v>02145243-2765-4471-9c4e-7385947f3179</x:v>
       </x:c>
       <x:c r="E74" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1946,13 +1946,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B75" t="str">
-        <x:v>e7a6b8f9-89ad-4416-9420-4a1b4b834ec8</x:v>
+        <x:v>a6ae6093-1189-4d24-9e65-eaf9f66f2fed</x:v>
       </x:c>
       <x:c r="C75" t="str">
-        <x:v>CourseELA0101 - Sec4301ELA</x:v>
+        <x:v>CourseELA0505 - Sec4305ELA</x:v>
       </x:c>
       <x:c r="D75" t="str">
-        <x:v>94f40571-ada9-49e1-ae19-83dd1135438e</x:v>
+        <x:v>8c94dd23-f0cf-4359-9804-be713f02cec7</x:v>
       </x:c>
       <x:c r="E75" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1972,13 +1972,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B76" t="str">
-        <x:v>346eeeb4-0d95-4dc4-8c2a-f5af5d8d8a4a</x:v>
+        <x:v>57beb300-dcaf-498b-876a-e2a8f2b8acda</x:v>
       </x:c>
       <x:c r="C76" t="str">
-        <x:v>CourseELA0101 - Sec4401ELA</x:v>
+        <x:v>CourseELA0505 - Sec4405ELA</x:v>
       </x:c>
       <x:c r="D76" t="str">
-        <x:v>29306534-2a0f-44db-b25f-5f975115bb52</x:v>
+        <x:v>026dd1f8-9fd6-4891-b9c9-406538eab783</x:v>
       </x:c>
       <x:c r="E76" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -1998,13 +1998,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B77" t="str">
-        <x:v>2ef1deb6-1d26-4108-95bb-ed18601fa932</x:v>
+        <x:v>1f670f4a-4ffb-43d5-b055-f774b18a511a</x:v>
       </x:c>
       <x:c r="C77" t="str">
-        <x:v>CourseELA0101 - Sec4501ELA</x:v>
+        <x:v>CourseELA0505 - Sec4505ELA</x:v>
       </x:c>
       <x:c r="D77" t="str">
-        <x:v>89f3d07b-e706-4351-ab62-ed31b2a6f350</x:v>
+        <x:v>3dc749a7-3949-4ca4-b2e2-89df753dea87</x:v>
       </x:c>
       <x:c r="E77" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2024,13 +2024,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B78" t="str">
-        <x:v>9b56de15-bcbb-421c-bdba-f79ba9aa5026</x:v>
+        <x:v>276b7e61-a129-411e-ab37-122a116dd4e8</x:v>
       </x:c>
       <x:c r="C78" t="str">
-        <x:v>CourseELA0101 - Sec4601ELA</x:v>
+        <x:v>CourseELA0505 - Sec4605ELA</x:v>
       </x:c>
       <x:c r="D78" t="str">
-        <x:v>6985d2b4-8ff4-43e5-bd60-0384ed80d4b1</x:v>
+        <x:v>ad039e98-7077-47dc-9dac-df2b94951137</x:v>
       </x:c>
       <x:c r="E78" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2050,13 +2050,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B79" t="str">
-        <x:v>5e8eb97e-2451-488a-a49c-adb9da68461e</x:v>
+        <x:v>dc61b064-664a-4ff6-bf3d-59462a8f627f</x:v>
       </x:c>
       <x:c r="C79" t="str">
-        <x:v>CourseELA0101 - Sec4701ELA</x:v>
+        <x:v>CourseELA0505 - Sec4705ELA</x:v>
       </x:c>
       <x:c r="D79" t="str">
-        <x:v>d5140a6f-51fe-4c28-bb74-150663e34ebd</x:v>
+        <x:v>149a95ad-2c38-4a55-957a-bf8633c4251f</x:v>
       </x:c>
       <x:c r="E79" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2076,13 +2076,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B80" t="str">
-        <x:v>9dc88ece-29cc-4268-aaf1-eb73f3472b38</x:v>
+        <x:v>b39bf641-f1b2-4066-97c4-fef9e7fb1c97</x:v>
       </x:c>
       <x:c r="C80" t="str">
-        <x:v>CourseELA0101 - Sec4801ELA</x:v>
+        <x:v>CourseELA0505 - Sec4805ELA</x:v>
       </x:c>
       <x:c r="D80" t="str">
-        <x:v>411727f6-b8fa-4aa2-aff3-d59f8f2aaf40</x:v>
+        <x:v>87eca55b-b155-47d8-9892-3f7f79fa8ab6</x:v>
       </x:c>
       <x:c r="E80" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2102,13 +2102,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B81" t="str">
-        <x:v>cb130f1c-6f87-4104-9a5d-cacc364d3a1a</x:v>
+        <x:v>a4ae6d49-b9e3-4516-a484-ceaf2c994ba0</x:v>
       </x:c>
       <x:c r="C81" t="str">
-        <x:v>CourseELA0101 - Sec4901ELA</x:v>
+        <x:v>CourseELA0505 - Sec4905ELA</x:v>
       </x:c>
       <x:c r="D81" t="str">
-        <x:v>54c84539-cc8d-470a-9676-f84a9e96d64c</x:v>
+        <x:v>7d80c98e-87fb-4f8f-b74e-da208995379b</x:v>
       </x:c>
       <x:c r="E81" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2128,13 +2128,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B82" t="str">
-        <x:v>a12d7872-198d-4749-ab8a-6ff70ca2ddbb</x:v>
+        <x:v>f29572ae-dfb4-4336-a121-f72474fff0fe</x:v>
       </x:c>
       <x:c r="C82" t="str">
-        <x:v>CourseELA0101 - Sec5001ELA</x:v>
+        <x:v>CourseELA0505 - Sec5005ELA</x:v>
       </x:c>
       <x:c r="D82" t="str">
-        <x:v>fdee50c2-0b88-4010-9a60-195ecc84e67c</x:v>
+        <x:v>e8be276f-a195-4866-9e53-db13dd74487e</x:v>
       </x:c>
       <x:c r="E82" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2154,13 +2154,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B83" t="str">
-        <x:v>b9578645-7eff-4bf2-ba3b-9672abdc414c</x:v>
+        <x:v>8b52f5b5-5137-4fac-8d27-56db0c56b0d8</x:v>
       </x:c>
       <x:c r="C83" t="str">
-        <x:v>CourseELA0101 - Sec5101ELA</x:v>
+        <x:v>CourseELA0505 - Sec5105ELA</x:v>
       </x:c>
       <x:c r="D83" t="str">
-        <x:v>3de06aca-8436-44d6-bfd8-0c83347acdd7</x:v>
+        <x:v>46b06b20-c6f1-4aaf-a8ac-4fed2a56f76b</x:v>
       </x:c>
       <x:c r="E83" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2180,13 +2180,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B84" t="str">
-        <x:v>b9d4a79e-ad2a-42f5-a6ed-f7a93a8d0945</x:v>
+        <x:v>47db23fb-efb5-4e53-b8d7-2cc3e86a1186</x:v>
       </x:c>
       <x:c r="C84" t="str">
-        <x:v>CourseELA0101 - Sec5201ELA</x:v>
+        <x:v>CourseELA0505 - Sec5205ELA</x:v>
       </x:c>
       <x:c r="D84" t="str">
-        <x:v>51729266-743b-40bd-bc50-cf036e554827</x:v>
+        <x:v>0189850a-2bfc-4e46-b916-ba01283ad862</x:v>
       </x:c>
       <x:c r="E84" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2206,13 +2206,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B85" t="str">
-        <x:v>bad9708e-1b67-4ec8-abf7-75635c4382d5</x:v>
+        <x:v>647d63a5-667e-4702-8ff4-6735e7d5bd90</x:v>
       </x:c>
       <x:c r="C85" t="str">
-        <x:v>CourseELA0101 - Sec5301ELA</x:v>
+        <x:v>CourseELA0505 - Sec5305ELA</x:v>
       </x:c>
       <x:c r="D85" t="str">
-        <x:v>bb8fab3f-9591-4580-9c0c-ee87f01349ab</x:v>
+        <x:v>0422317b-73ff-487e-80ed-0f80f2dd5c32</x:v>
       </x:c>
       <x:c r="E85" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2232,13 +2232,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B86" t="str">
-        <x:v>58303aa2-7f47-436a-9596-0abb93bde6b8</x:v>
+        <x:v>a6cb3593-a000-4482-8360-737829109806</x:v>
       </x:c>
       <x:c r="C86" t="str">
-        <x:v>CourseELA0101 - Sec5401ELA</x:v>
+        <x:v>CourseELA0505 - Sec5405ELA</x:v>
       </x:c>
       <x:c r="D86" t="str">
-        <x:v>c7ca74fa-a6f0-4cab-bdca-cc7530150936</x:v>
+        <x:v>20b14816-87fa-448d-957b-b0e4d3893345</x:v>
       </x:c>
       <x:c r="E86" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2258,13 +2258,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B87" t="str">
-        <x:v>915bf3d7-ebab-48a3-b1a1-329b4b7318a7</x:v>
+        <x:v>538779da-6d99-4707-83dd-f7cc12f4d3d6</x:v>
       </x:c>
       <x:c r="C87" t="str">
-        <x:v>CourseELA0101 - Sec5501ELA</x:v>
+        <x:v>CourseELA0505 - Sec5505ELA</x:v>
       </x:c>
       <x:c r="D87" t="str">
-        <x:v>fc39e551-0e4d-457c-bb6f-6f2057166a8a</x:v>
+        <x:v>b78f7868-0c28-4161-919f-2034af169de5</x:v>
       </x:c>
       <x:c r="E87" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2284,13 +2284,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B88" t="str">
-        <x:v>ba97c437-ac70-4f2d-89d6-a0d2549c1764</x:v>
+        <x:v>88d5dcea-90ea-447e-9a55-c03ddbfe0f53</x:v>
       </x:c>
       <x:c r="C88" t="str">
-        <x:v>CourseELA0101 - Sec5601ELA</x:v>
+        <x:v>CourseELA0505 - Sec5605ELA</x:v>
       </x:c>
       <x:c r="D88" t="str">
-        <x:v>f2f9dd70-2f23-47c0-ac9e-5591ffb6921e</x:v>
+        <x:v>61a0c791-f05d-4481-b5e9-94d57d918ce6</x:v>
       </x:c>
       <x:c r="E88" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2310,13 +2310,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B89" t="str">
-        <x:v>2a66bff0-0336-4404-b70b-56783013b52c</x:v>
+        <x:v>0b70ce89-9d9e-4e23-a7ec-bba2bf31c439</x:v>
       </x:c>
       <x:c r="C89" t="str">
-        <x:v>CourseELA0101 - Sec5701ELA</x:v>
+        <x:v>CourseELA0505 - Sec5705ELA</x:v>
       </x:c>
       <x:c r="D89" t="str">
-        <x:v>a2fd3c59-3310-4e22-95e3-4cd1b8d55940</x:v>
+        <x:v>14463b64-be54-4b82-b5e3-ffe67d972808</x:v>
       </x:c>
       <x:c r="E89" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2336,13 +2336,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B90" t="str">
-        <x:v>2f935c01-1baa-42a4-b11a-342ae44d5821</x:v>
+        <x:v>75a60f79-e25e-4d76-b0ca-3c32c895cc9b</x:v>
       </x:c>
       <x:c r="C90" t="str">
-        <x:v>CourseELA0101 - Sec5801ELA</x:v>
+        <x:v>CourseELA0505 - Sec5805ELA</x:v>
       </x:c>
       <x:c r="D90" t="str">
-        <x:v>657aedcb-7387-433b-83c1-bdd2b83c9757</x:v>
+        <x:v>289a6e7b-2aa0-4500-b6e0-acba99ebbdba</x:v>
       </x:c>
       <x:c r="E90" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2362,13 +2362,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B91" t="str">
-        <x:v>0e69a854-57fd-4743-a51b-8bfcd4052ad1</x:v>
+        <x:v>3b95c6f0-42f8-45a3-b743-9eb24d1b839b</x:v>
       </x:c>
       <x:c r="C91" t="str">
-        <x:v>CourseELA0101 - Sec5901ELA</x:v>
+        <x:v>CourseELA0505 - Sec5905ELA</x:v>
       </x:c>
       <x:c r="D91" t="str">
-        <x:v>2db41322-9bdd-44ca-bd1b-0cecf349cae5</x:v>
+        <x:v>fc9c6879-9189-4a48-9692-956b323ee633</x:v>
       </x:c>
       <x:c r="E91" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2388,13 +2388,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B92" t="str">
-        <x:v>f2c1e83c-0e34-473c-be90-e99f030e5d20</x:v>
+        <x:v>53051409-3ae0-41eb-9efb-c2af619b74d9</x:v>
       </x:c>
       <x:c r="C92" t="str">
-        <x:v>CourseELA0101 - Sec6001ELA</x:v>
+        <x:v>CourseELA0505 - Sec6005ELA</x:v>
       </x:c>
       <x:c r="D92" t="str">
-        <x:v>5fe7c599-6feb-4d02-9af3-919750ca5466</x:v>
+        <x:v>2f55c3bd-9ff1-4090-a7e6-43ccf182d526</x:v>
       </x:c>
       <x:c r="E92" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2414,13 +2414,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B93" t="str">
-        <x:v>fb9c5594-e747-4828-a9f4-9309193a66f1</x:v>
+        <x:v>d5ba3639-a730-4e4e-b29d-b7f9e4f63551</x:v>
       </x:c>
       <x:c r="C93" t="str">
-        <x:v>CourseELA0101 - Sec6101ELA</x:v>
+        <x:v>CourseELA0505 - Sec6105ELA</x:v>
       </x:c>
       <x:c r="D93" t="str">
-        <x:v>ee3d03e6-a525-41f9-a441-873a8fcc2f46</x:v>
+        <x:v>1f9b8454-0cf9-48a3-955f-42ace29c4061</x:v>
       </x:c>
       <x:c r="E93" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2440,13 +2440,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B94" t="str">
-        <x:v>94063fe4-5840-4059-ae9c-38ca7f37156f</x:v>
+        <x:v>e844adc0-c26c-4902-8839-f16506774f6d</x:v>
       </x:c>
       <x:c r="C94" t="str">
-        <x:v>CourseELA0101 - Sec6201ELA</x:v>
+        <x:v>CourseELA0505 - Sec6205ELA</x:v>
       </x:c>
       <x:c r="D94" t="str">
-        <x:v>f9a66139-c6c0-4102-aa75-bd4f5aeb7519</x:v>
+        <x:v>a87c5463-6cce-421b-a9da-014681335948</x:v>
       </x:c>
       <x:c r="E94" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2466,13 +2466,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B95" t="str">
-        <x:v>eded250d-8275-4eff-941a-42f095ceec05</x:v>
+        <x:v>45bd38a3-50db-4b42-a77b-8e4bf4520f5e</x:v>
       </x:c>
       <x:c r="C95" t="str">
-        <x:v>CourseELA0101 - Sec6301ELA</x:v>
+        <x:v>CourseELA0505 - Sec6305ELA</x:v>
       </x:c>
       <x:c r="D95" t="str">
-        <x:v>67ad4585-548a-4909-a4cc-76655f63431d</x:v>
+        <x:v>5f755322-98a8-48ce-9ad8-ffa21b08a430</x:v>
       </x:c>
       <x:c r="E95" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2492,13 +2492,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B96" t="str">
-        <x:v>4a3094f4-ea80-44a1-8f15-de2f5751a936</x:v>
+        <x:v>47537c8c-67fe-4f6a-a43d-38d95b4c13e3</x:v>
       </x:c>
       <x:c r="C96" t="str">
-        <x:v>CourseELA0101 - Sec6401ELA</x:v>
+        <x:v>CourseELA0505 - Sec6405ELA</x:v>
       </x:c>
       <x:c r="D96" t="str">
-        <x:v>83fc5dbc-cea9-4c94-be00-f44cbf412e1c</x:v>
+        <x:v>f3e8dc62-0f6d-409b-90ce-4cdf6662a973</x:v>
       </x:c>
       <x:c r="E96" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2518,13 +2518,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B97" t="str">
-        <x:v>99843904-e419-4234-835e-951719190c29</x:v>
+        <x:v>d9eef589-04b8-4ac7-9112-e247d4144240</x:v>
       </x:c>
       <x:c r="C97" t="str">
-        <x:v>CourseELA0101 - Sec6501ELA</x:v>
+        <x:v>CourseELA0505 - Sec6505ELA</x:v>
       </x:c>
       <x:c r="D97" t="str">
-        <x:v>0589c60e-ba26-4e4b-83f8-0081c23f9bbb</x:v>
+        <x:v>e5e8ab4c-a05f-47a6-b20d-4873f044e14c</x:v>
       </x:c>
       <x:c r="E97" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2544,13 +2544,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B98" t="str">
-        <x:v>9001d328-6e2b-44ea-ac8f-595869654197</x:v>
+        <x:v>9155556a-45ab-465d-a19c-160f39e97556</x:v>
       </x:c>
       <x:c r="C98" t="str">
-        <x:v>CourseELA0101 - Sec6601ELA</x:v>
+        <x:v>CourseELA0505 - Sec6605ELA</x:v>
       </x:c>
       <x:c r="D98" t="str">
-        <x:v>1bbd1f64-b383-4644-9e16-80522823caf4</x:v>
+        <x:v>db52370f-db5b-4610-baa1-66a2083fd0a1</x:v>
       </x:c>
       <x:c r="E98" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2570,13 +2570,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B99" t="str">
-        <x:v>75e7851a-38c3-45bf-a929-96c8e6c6c5cd</x:v>
+        <x:v>96c7e5cf-bd0c-4ede-91d2-2998f5e5bf7e</x:v>
       </x:c>
       <x:c r="C99" t="str">
-        <x:v>CourseELA0101 - Sec6701ELA</x:v>
+        <x:v>CourseELA0505 - Sec6705ELA</x:v>
       </x:c>
       <x:c r="D99" t="str">
-        <x:v>edf80a86-cf83-406c-8f67-b5c1ffc49916</x:v>
+        <x:v>6505538b-3a57-4f0d-a3c5-b8e1aede6add</x:v>
       </x:c>
       <x:c r="E99" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2596,13 +2596,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B100" t="str">
-        <x:v>32f8089f-ab0c-4f06-a731-61fc56152fb1</x:v>
+        <x:v>f1b4025e-ca24-43ea-a47e-c1ff1939c9d6</x:v>
       </x:c>
       <x:c r="C100" t="str">
-        <x:v>CourseELA0101 - Sec6801ELA</x:v>
+        <x:v>CourseELA0505 - Sec6805ELA</x:v>
       </x:c>
       <x:c r="D100" t="str">
-        <x:v>a8ea576c-9620-4bc0-be23-39393c7d8e71</x:v>
+        <x:v>914170b5-5ba6-4c89-954f-8538bfbaaca9</x:v>
       </x:c>
       <x:c r="E100" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2622,13 +2622,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B101" t="str">
-        <x:v>909545d3-325a-44e2-99a6-8a1329c2139f</x:v>
+        <x:v>e73fd180-17b0-4b2f-a725-afcdf376641f</x:v>
       </x:c>
       <x:c r="C101" t="str">
-        <x:v>CourseELA0101 - Sec6901ELA</x:v>
+        <x:v>CourseELA0505 - Sec6905ELA</x:v>
       </x:c>
       <x:c r="D101" t="str">
-        <x:v>85ef4fff-7e99-4e81-a143-c054b52f247d</x:v>
+        <x:v>8c38f96c-aebd-4640-8b16-d580a9f4d7ee</x:v>
       </x:c>
       <x:c r="E101" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2648,13 +2648,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B102" t="str">
-        <x:v>1ddf3cfa-bb55-47ab-8e51-adecbbcde714</x:v>
+        <x:v>1e61aa72-b9be-4986-bd7e-2d9536394139</x:v>
       </x:c>
       <x:c r="C102" t="str">
-        <x:v>CourseELA0101 - Sec7001ELA</x:v>
+        <x:v>CourseELA0505 - Sec7005ELA</x:v>
       </x:c>
       <x:c r="D102" t="str">
-        <x:v>d0b21245-1c14-4931-8054-90ddbc3daf11</x:v>
+        <x:v>2f23f50d-57ad-4ba7-8332-cee271c76372</x:v>
       </x:c>
       <x:c r="E102" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2674,13 +2674,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B103" t="str">
-        <x:v>b813b77b-3be7-4279-8a3c-89b903bc285b</x:v>
+        <x:v>45f5b4bf-58c0-42cd-82f0-264f0f67cfd5</x:v>
       </x:c>
       <x:c r="C103" t="str">
-        <x:v>CourseELA0101 - Sec7101ELA</x:v>
+        <x:v>CourseELA0505 - Sec7105ELA</x:v>
       </x:c>
       <x:c r="D103" t="str">
-        <x:v>18a204c8-4aaf-452c-8df2-f306f29bf8f3</x:v>
+        <x:v>d4afff93-7c99-4b36-8eef-d95fc17ca1b3</x:v>
       </x:c>
       <x:c r="E103" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2700,13 +2700,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B104" t="str">
-        <x:v>09a59720-1f57-40ec-8919-0d6775d73a79</x:v>
+        <x:v>34a41442-fead-478a-9f52-514d971dca3c</x:v>
       </x:c>
       <x:c r="C104" t="str">
-        <x:v>CourseELA0101 - Sec7201ELA</x:v>
+        <x:v>CourseELA0505 - Sec7205ELA</x:v>
       </x:c>
       <x:c r="D104" t="str">
-        <x:v>59f4354d-60b5-4068-912f-cf5fb940d8c0</x:v>
+        <x:v>5d594b5c-f15e-41d7-96ff-312730c07bdd</x:v>
       </x:c>
       <x:c r="E104" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2726,13 +2726,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B105" t="str">
-        <x:v>eed72f50-3a01-4cc7-a31e-2e9325632332</x:v>
+        <x:v>2e7b2a47-9814-4e1f-ab7e-8476933092f9</x:v>
       </x:c>
       <x:c r="C105" t="str">
-        <x:v>CourseELA0101 - Sec7301ELA</x:v>
+        <x:v>CourseELA0505 - Sec7305ELA</x:v>
       </x:c>
       <x:c r="D105" t="str">
-        <x:v>590d35a2-a233-4beb-bfd8-801fa6ac64f7</x:v>
+        <x:v>e2eb5027-fe9a-4b80-9947-d31c30964f79</x:v>
       </x:c>
       <x:c r="E105" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2752,13 +2752,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B106" t="str">
-        <x:v>1ed8d523-1c46-461e-8888-7f740f875a53</x:v>
+        <x:v>839d307d-83bc-4634-95fd-4060c248889e</x:v>
       </x:c>
       <x:c r="C106" t="str">
-        <x:v>CourseELA0101 - Sec7401ELA</x:v>
+        <x:v>CourseELA0505 - Sec7405ELA</x:v>
       </x:c>
       <x:c r="D106" t="str">
-        <x:v>ecab8b38-2f06-4372-96a9-fa1da80c6973</x:v>
+        <x:v>75e73257-bb51-466d-a65c-8ce6f4f21d80</x:v>
       </x:c>
       <x:c r="E106" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2778,13 +2778,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B107" t="str">
-        <x:v>f24302eb-11ee-4ea3-8a98-32501d573142</x:v>
+        <x:v>601c13f1-d80b-4ab5-a77b-82a788596147</x:v>
       </x:c>
       <x:c r="C107" t="str">
-        <x:v>CourseELA0101 - Sec7501ELA</x:v>
+        <x:v>CourseELA0505 - Sec7505ELA</x:v>
       </x:c>
       <x:c r="D107" t="str">
-        <x:v>4e103ec4-0f96-43a5-8526-18f748ba0dfb</x:v>
+        <x:v>b4a455f2-d602-4c0e-be16-d06a44ab4352</x:v>
       </x:c>
       <x:c r="E107" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2804,13 +2804,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B108" t="str">
-        <x:v>3168475f-390d-4c26-a778-28f338394577</x:v>
+        <x:v>83eae789-3508-4b3a-8b51-89215c2019b3</x:v>
       </x:c>
       <x:c r="C108" t="str">
-        <x:v>CourseELA0101 - Sec7601ELA</x:v>
+        <x:v>CourseELA0505 - Sec7605ELA</x:v>
       </x:c>
       <x:c r="D108" t="str">
-        <x:v>96728b03-2110-4faa-8d59-04dcbddae40c</x:v>
+        <x:v>e7dceb20-1848-4f3a-ac69-9803caf3506a</x:v>
       </x:c>
       <x:c r="E108" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2830,13 +2830,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B109" t="str">
-        <x:v>17bd7c7a-7f19-4d16-a377-30927de71268</x:v>
+        <x:v>d793e7e6-9dce-414c-a3c3-87b4a21c4f64</x:v>
       </x:c>
       <x:c r="C109" t="str">
-        <x:v>CourseELA0101 - Sec7701ELA</x:v>
+        <x:v>CourseELA0505 - Sec7705ELA</x:v>
       </x:c>
       <x:c r="D109" t="str">
-        <x:v>1f7f3ba8-e3b7-4418-b3d8-cee99acc47f9</x:v>
+        <x:v>d4efd058-c55f-4b29-88e6-d3783b1274f7</x:v>
       </x:c>
       <x:c r="E109" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2856,13 +2856,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B110" t="str">
-        <x:v>622ecb32-7b63-469f-ad8d-e7d303118ff9</x:v>
+        <x:v>7ca9ced1-f67d-4091-b388-e7ca17f0b300</x:v>
       </x:c>
       <x:c r="C110" t="str">
-        <x:v>CourseELA0101 - Sec7801ELA</x:v>
+        <x:v>CourseELA0505 - Sec7805ELA</x:v>
       </x:c>
       <x:c r="D110" t="str">
-        <x:v>4dad2675-119b-4f5e-a8b0-6cc6c110a80f</x:v>
+        <x:v>8da940b8-b7df-418f-a855-c024c5beeac8</x:v>
       </x:c>
       <x:c r="E110" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2882,13 +2882,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B111" t="str">
-        <x:v>a0052a48-5d75-4064-a26e-63ca00f64293</x:v>
+        <x:v>9bbf10e8-c629-414f-b72c-f4ffe34d5104</x:v>
       </x:c>
       <x:c r="C111" t="str">
-        <x:v>CourseELA0101 - Sec7901ELA</x:v>
+        <x:v>CourseELA0505 - Sec7905ELA</x:v>
       </x:c>
       <x:c r="D111" t="str">
-        <x:v>674f6ca1-4161-4ecc-b2c0-fd3bfda24362</x:v>
+        <x:v>e18f150e-4b20-4caf-9554-008e1b3878ea</x:v>
       </x:c>
       <x:c r="E111" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2908,13 +2908,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B112" t="str">
-        <x:v>b90c7bb3-cff8-4a69-a07f-99d04ce96d14</x:v>
+        <x:v>4e42e283-d226-4aed-826e-083c8547dda4</x:v>
       </x:c>
       <x:c r="C112" t="str">
-        <x:v>CourseELA0101 - Sec8001ELA</x:v>
+        <x:v>CourseELA0505 - Sec8005ELA</x:v>
       </x:c>
       <x:c r="D112" t="str">
-        <x:v>2547077b-44f2-461b-aaf8-96c6a8166eab</x:v>
+        <x:v>36d29c1c-b0ed-4f96-9cbb-af72d4a56821</x:v>
       </x:c>
       <x:c r="E112" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2934,13 +2934,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B113" t="str">
-        <x:v>0d8eb15c-ffa5-4bfb-b49b-bada7f82b536</x:v>
+        <x:v>dd7a916b-50f2-4418-b30c-eae55c01d6a7</x:v>
       </x:c>
       <x:c r="C113" t="str">
-        <x:v>CourseELA0101 - Sec8101ELA</x:v>
+        <x:v>CourseELA0505 - Sec8105ELA</x:v>
       </x:c>
       <x:c r="D113" t="str">
-        <x:v>7d1fcde3-a095-49ea-ae12-b209a766a34f</x:v>
+        <x:v>249d4237-9f58-46e1-944a-6676395f94be</x:v>
       </x:c>
       <x:c r="E113" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2960,13 +2960,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B114" t="str">
-        <x:v>3f6cd0d8-f0a9-4ef6-ab87-7720e46b3ba8</x:v>
+        <x:v>f0d55d0b-115a-432e-8122-7f669d17266b</x:v>
       </x:c>
       <x:c r="C114" t="str">
-        <x:v>CourseELA0101 - Sec8201ELA</x:v>
+        <x:v>CourseELA0505 - Sec8205ELA</x:v>
       </x:c>
       <x:c r="D114" t="str">
-        <x:v>e52ac86f-9c5a-48d6-9424-a570d204cb2f</x:v>
+        <x:v>0222711f-5f77-4fd6-95ad-69a7b2342550</x:v>
       </x:c>
       <x:c r="E114" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -2986,13 +2986,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B115" t="str">
-        <x:v>81d957b4-858a-43be-86ea-a8d4bb1dbde8</x:v>
+        <x:v>062d12d8-e6cc-421d-add1-1766bab9a802</x:v>
       </x:c>
       <x:c r="C115" t="str">
-        <x:v>CourseELA0101 - Sec8301ELA</x:v>
+        <x:v>CourseELA0505 - Sec8305ELA</x:v>
       </x:c>
       <x:c r="D115" t="str">
-        <x:v>52b795ad-25d9-461c-b4d0-8ad2222182b9</x:v>
+        <x:v>5e5c973e-f66b-4cc2-a850-2038afe65abb</x:v>
       </x:c>
       <x:c r="E115" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3012,13 +3012,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B116" t="str">
-        <x:v>caef7ffa-d08b-42f7-81f0-391082b2e820</x:v>
+        <x:v>cff56538-ff6c-42cb-9f24-75ccb0cd5f63</x:v>
       </x:c>
       <x:c r="C116" t="str">
-        <x:v>CourseELA0101 - Sec8401ELA</x:v>
+        <x:v>CourseELA0505 - Sec8405ELA</x:v>
       </x:c>
       <x:c r="D116" t="str">
-        <x:v>846b9d95-ac28-457f-a49b-329584b489bb</x:v>
+        <x:v>615c2790-8c9b-4c8b-88aa-63b5a31be87f</x:v>
       </x:c>
       <x:c r="E116" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3038,13 +3038,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B117" t="str">
-        <x:v>43fc62fc-f690-43b5-bc7a-5ee4ca2467d5</x:v>
+        <x:v>650bcefc-8f8d-481d-b5a9-57da3443d7e0</x:v>
       </x:c>
       <x:c r="C117" t="str">
-        <x:v>CourseELA0101 - Sec8501ELA</x:v>
+        <x:v>CourseELA0505 - Sec8505ELA</x:v>
       </x:c>
       <x:c r="D117" t="str">
-        <x:v>d78d5e95-faef-44ac-8561-fa760396f503</x:v>
+        <x:v>55679dc3-df29-4899-bc8b-b86d87d28420</x:v>
       </x:c>
       <x:c r="E117" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3064,13 +3064,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B118" t="str">
-        <x:v>255163de-d8b3-4e13-a27f-1aee9786f3dc</x:v>
+        <x:v>02dd1c8e-cfc0-436b-9b80-eb64466d926d</x:v>
       </x:c>
       <x:c r="C118" t="str">
-        <x:v>CourseELA0101 - Sec8601ELA</x:v>
+        <x:v>CourseELA0505 - Sec8605ELA</x:v>
       </x:c>
       <x:c r="D118" t="str">
-        <x:v>10cda52f-8e7c-42e4-a2b9-6785ce9e12d2</x:v>
+        <x:v>bfdedcef-b151-4542-8d52-4eac788a0add</x:v>
       </x:c>
       <x:c r="E118" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3090,13 +3090,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B119" t="str">
-        <x:v>71ea4020-2365-4910-9351-2eed07c31445</x:v>
+        <x:v>c8780317-f034-41c9-bc15-e1cc096b7a97</x:v>
       </x:c>
       <x:c r="C119" t="str">
-        <x:v>CourseELA0101 - Sec8701ELA</x:v>
+        <x:v>CourseELA0505 - Sec8705ELA</x:v>
       </x:c>
       <x:c r="D119" t="str">
-        <x:v>46151726-c3f7-4ad9-8ead-02d8c04f7b8f</x:v>
+        <x:v>f5ff3b41-4f9e-4998-836b-ae580ad4acea</x:v>
       </x:c>
       <x:c r="E119" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3116,13 +3116,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B120" t="str">
-        <x:v>4119758d-8ba7-4eff-8039-96a9370929bc</x:v>
+        <x:v>c732f4fe-6b12-4796-9a35-60001ffb0559</x:v>
       </x:c>
       <x:c r="C120" t="str">
-        <x:v>CourseELA0101 - Sec8801ELA</x:v>
+        <x:v>CourseELA0505 - Sec8805ELA</x:v>
       </x:c>
       <x:c r="D120" t="str">
-        <x:v>f3c5b50c-d10d-4858-805a-0646fa3e80da</x:v>
+        <x:v>44b713d9-47fa-4b02-a38a-81e708d9c69c</x:v>
       </x:c>
       <x:c r="E120" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3142,13 +3142,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B121" t="str">
-        <x:v>7b424d70-c987-4f58-843f-7631021bf637</x:v>
+        <x:v>a26c4af9-122e-483a-89d2-58791b6aff02</x:v>
       </x:c>
       <x:c r="C121" t="str">
-        <x:v>CourseELA0101 - Sec8901ELA</x:v>
+        <x:v>CourseELA0505 - Sec8905ELA</x:v>
       </x:c>
       <x:c r="D121" t="str">
-        <x:v>40cf82ee-10cd-4f26-a58c-f3223cec2eda</x:v>
+        <x:v>74675d07-9d0f-4a8e-bb30-45c52f42b359</x:v>
       </x:c>
       <x:c r="E121" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3168,13 +3168,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B122" t="str">
-        <x:v>792ad768-49d5-4784-a3c8-52155ac697b2</x:v>
+        <x:v>f2bd0fd8-49b8-4ad3-8038-3ddc4a11313a</x:v>
       </x:c>
       <x:c r="C122" t="str">
-        <x:v>CourseELA0101 - Sec9001ELA</x:v>
+        <x:v>CourseELA0505 - Sec9005ELA</x:v>
       </x:c>
       <x:c r="D122" t="str">
-        <x:v>0037c83a-4623-4a8d-b545-7f3dfd99fe2f</x:v>
+        <x:v>03dfee88-f035-4413-b80d-8edb0d5dba9f</x:v>
       </x:c>
       <x:c r="E122" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3194,13 +3194,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B123" t="str">
-        <x:v>ad5cb510-1014-4ea5-975b-0416cf826a70</x:v>
+        <x:v>247641e2-a674-4bcf-85e4-8b40a654ea89</x:v>
       </x:c>
       <x:c r="C123" t="str">
-        <x:v>CourseELA0101 - Sec9101ELA</x:v>
+        <x:v>CourseELA0505 - Sec9105ELA</x:v>
       </x:c>
       <x:c r="D123" t="str">
-        <x:v>2e6928e4-1682-41ae-8a72-bfc5c55bab97</x:v>
+        <x:v>4f4a1228-b8a0-4e51-b12d-f1d923715887</x:v>
       </x:c>
       <x:c r="E123" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3220,13 +3220,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B124" t="str">
-        <x:v>de9cd114-6e36-43e9-8ccd-30b60ea969a8</x:v>
+        <x:v>89135ffb-4b79-457a-a569-648efcf468ed</x:v>
       </x:c>
       <x:c r="C124" t="str">
-        <x:v>CourseELA0101 - Sec9201ELA</x:v>
+        <x:v>CourseELA0505 - Sec9205ELA</x:v>
       </x:c>
       <x:c r="D124" t="str">
-        <x:v>625925f0-57e6-49ed-87e8-6e65155fa1e9</x:v>
+        <x:v>90b6c45e-4123-4b03-aed6-b8a2ad811101</x:v>
       </x:c>
       <x:c r="E124" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3246,13 +3246,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B125" t="str">
-        <x:v>2494bb83-c104-4690-8a32-e4a2c4e13f1e</x:v>
+        <x:v>8255307a-5e9c-4c18-8408-9cfd0541e4e4</x:v>
       </x:c>
       <x:c r="C125" t="str">
-        <x:v>CourseELA0101 - Sec9301ELA</x:v>
+        <x:v>CourseELA0505 - Sec9305ELA</x:v>
       </x:c>
       <x:c r="D125" t="str">
-        <x:v>701a933f-8ace-4f46-916e-4bb5e35b607a</x:v>
+        <x:v>762c6588-0b9c-4297-82e5-0a9a3d810ead</x:v>
       </x:c>
       <x:c r="E125" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3272,13 +3272,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B126" t="str">
-        <x:v>2eaab655-4447-4833-9e1c-c54c061ea4c6</x:v>
+        <x:v>5068a9d8-5c48-4eb2-adfb-95c3857fb274</x:v>
       </x:c>
       <x:c r="C126" t="str">
-        <x:v>CourseELA0101 - Sec9401ELA</x:v>
+        <x:v>CourseELA0505 - Sec9405ELA</x:v>
       </x:c>
       <x:c r="D126" t="str">
-        <x:v>31ccfd64-c4b0-4d42-a0e4-5ad459356151</x:v>
+        <x:v>5c30aad3-bcdc-48c1-82c3-3ecc751ddb24</x:v>
       </x:c>
       <x:c r="E126" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3298,13 +3298,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B127" t="str">
-        <x:v>51622f67-fb32-45f3-a1e7-c9a6fe411c30</x:v>
+        <x:v>f59ceb93-c6f9-4885-8893-299534138e62</x:v>
       </x:c>
       <x:c r="C127" t="str">
-        <x:v>CourseELA0101 - Sec9501ELA</x:v>
+        <x:v>CourseELA0505 - Sec9505ELA</x:v>
       </x:c>
       <x:c r="D127" t="str">
-        <x:v>736c29de-fb77-4d11-97d7-84583c758f63</x:v>
+        <x:v>a4915b5c-e5d7-4930-86b0-8b88b9ed1862</x:v>
       </x:c>
       <x:c r="E127" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3324,13 +3324,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B128" t="str">
-        <x:v>039a8d12-d383-4ad7-ae1c-f2b2558cb307</x:v>
+        <x:v>1d9a315f-fbd3-4a9b-b3dd-b320848885c6</x:v>
       </x:c>
       <x:c r="C128" t="str">
-        <x:v>CourseELA0101 - Sec9601ELA</x:v>
+        <x:v>CourseELA0505 - Sec9605ELA</x:v>
       </x:c>
       <x:c r="D128" t="str">
-        <x:v>7ada04b7-55ba-4534-bdb4-9b70df51a8d3</x:v>
+        <x:v>7dd74ac0-0102-4799-9e52-fc3e5bbf91e1</x:v>
       </x:c>
       <x:c r="E128" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3350,13 +3350,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B129" t="str">
-        <x:v>4bff8bb2-27fc-4cbd-bd2f-3dca803a20d1</x:v>
+        <x:v>b8b3b291-581b-410a-bcdf-79b3e3fb89d6</x:v>
       </x:c>
       <x:c r="C129" t="str">
-        <x:v>CourseELA0101 - Sec9701ELA</x:v>
+        <x:v>CourseELA0505 - Sec9705ELA</x:v>
       </x:c>
       <x:c r="D129" t="str">
-        <x:v>c5fe22cd-0cdf-46b6-88cf-ae6d0cff383d</x:v>
+        <x:v>f663a638-383f-4806-baee-a3cd886035d8</x:v>
       </x:c>
       <x:c r="E129" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3376,13 +3376,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B130" t="str">
-        <x:v>6f10bdb2-117d-4f0f-83ef-97deedb560c2</x:v>
+        <x:v>8950f20b-0db8-40c5-9241-4edf0df4708c</x:v>
       </x:c>
       <x:c r="C130" t="str">
-        <x:v>CourseELA0101 - Sec9801ELA</x:v>
+        <x:v>CourseELA0505 - Sec9805ELA</x:v>
       </x:c>
       <x:c r="D130" t="str">
-        <x:v>341a0dd7-f64c-4900-bc9b-14a1fecc4a1d</x:v>
+        <x:v>3e9bcb08-8fab-43d3-9d96-3604aae8c60f</x:v>
       </x:c>
       <x:c r="E130" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3402,13 +3402,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B131" t="str">
-        <x:v>9e874bda-9ec5-4c41-b031-b4371d8a1d43</x:v>
+        <x:v>9c54902f-81d2-433c-9332-3b2cf7bde1f7</x:v>
       </x:c>
       <x:c r="C131" t="str">
-        <x:v>CourseELA0101 - Sec9901ELA</x:v>
+        <x:v>CourseELA0505 - Sec9905ELA</x:v>
       </x:c>
       <x:c r="D131" t="str">
-        <x:v>5342cfbb-ac61-4661-9297-fd4532295e13</x:v>
+        <x:v>2102318c-732a-4758-bed4-f8eef2afc663</x:v>
       </x:c>
       <x:c r="E131" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3428,13 +3428,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B132" t="str">
-        <x:v>5aad8e7a-c4b0-445e-8486-5df6a40dba24</x:v>
+        <x:v>4a3b946b-4fcf-4399-b067-920fc39523be</x:v>
       </x:c>
       <x:c r="C132" t="str">
-        <x:v>CourseELA0101 - TEMsec100grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec100grd05L</x:v>
       </x:c>
       <x:c r="D132" t="str">
-        <x:v>aec9b581-90e3-4fb8-b8e1-a881e95b2cef</x:v>
+        <x:v>8bb942fd-8963-4163-85c0-e4c2d251546e</x:v>
       </x:c>
       <x:c r="E132" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3454,13 +3454,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B133" t="str">
-        <x:v>75ce2631-11ca-457b-a8b4-f446c41f25b7</x:v>
+        <x:v>887f36c8-c236-43c3-952a-af21e5f07e22</x:v>
       </x:c>
       <x:c r="C133" t="str">
-        <x:v>CourseELA0101 - TEMSec41grd01L</x:v>
+        <x:v>CourseELA0505 - TEMSec41grd05L</x:v>
       </x:c>
       <x:c r="D133" t="str">
-        <x:v>9892aa4b-f900-4a8e-8a01-5413e3eef836</x:v>
+        <x:v>cb401127-c8db-4ade-a707-cd930b6a3be6</x:v>
       </x:c>
       <x:c r="E133" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3480,13 +3480,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B134" t="str">
-        <x:v>d7c5849b-4e4f-4380-8761-1fac0e30b8ad</x:v>
+        <x:v>bc8d78cc-9db2-4483-a8a0-14b5718fad0c</x:v>
       </x:c>
       <x:c r="C134" t="str">
-        <x:v>CourseELA0101 - TEMsec42grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec42grd05L</x:v>
       </x:c>
       <x:c r="D134" t="str">
-        <x:v>6360b161-0ff0-4266-a3d5-c4e0c5bbaf5d</x:v>
+        <x:v>02145243-2765-4471-9c4e-7385947f3179</x:v>
       </x:c>
       <x:c r="E134" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3506,13 +3506,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B135" t="str">
-        <x:v>e7a6b8f9-89ad-4416-9420-4a1b4b834ec8</x:v>
+        <x:v>a6ae6093-1189-4d24-9e65-eaf9f66f2fed</x:v>
       </x:c>
       <x:c r="C135" t="str">
-        <x:v>CourseELA0101 - TEMsec43grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec43grd05L</x:v>
       </x:c>
       <x:c r="D135" t="str">
-        <x:v>94f40571-ada9-49e1-ae19-83dd1135438e</x:v>
+        <x:v>8c94dd23-f0cf-4359-9804-be713f02cec7</x:v>
       </x:c>
       <x:c r="E135" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3532,13 +3532,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B136" t="str">
-        <x:v>346eeeb4-0d95-4dc4-8c2a-f5af5d8d8a4a</x:v>
+        <x:v>57beb300-dcaf-498b-876a-e2a8f2b8acda</x:v>
       </x:c>
       <x:c r="C136" t="str">
-        <x:v>CourseELA0101 - TEMsec44grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec44grd05L</x:v>
       </x:c>
       <x:c r="D136" t="str">
-        <x:v>29306534-2a0f-44db-b25f-5f975115bb52</x:v>
+        <x:v>026dd1f8-9fd6-4891-b9c9-406538eab783</x:v>
       </x:c>
       <x:c r="E136" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3558,13 +3558,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B137" t="str">
-        <x:v>2ef1deb6-1d26-4108-95bb-ed18601fa932</x:v>
+        <x:v>1f670f4a-4ffb-43d5-b055-f774b18a511a</x:v>
       </x:c>
       <x:c r="C137" t="str">
-        <x:v>CourseELA0101 - TEMsec45grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec45grd05L</x:v>
       </x:c>
       <x:c r="D137" t="str">
-        <x:v>89f3d07b-e706-4351-ab62-ed31b2a6f350</x:v>
+        <x:v>3dc749a7-3949-4ca4-b2e2-89df753dea87</x:v>
       </x:c>
       <x:c r="E137" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3584,13 +3584,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B138" t="str">
-        <x:v>9b56de15-bcbb-421c-bdba-f79ba9aa5026</x:v>
+        <x:v>276b7e61-a129-411e-ab37-122a116dd4e8</x:v>
       </x:c>
       <x:c r="C138" t="str">
-        <x:v>CourseELA0101 - TEMsec46grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec46grd05L</x:v>
       </x:c>
       <x:c r="D138" t="str">
-        <x:v>6985d2b4-8ff4-43e5-bd60-0384ed80d4b1</x:v>
+        <x:v>ad039e98-7077-47dc-9dac-df2b94951137</x:v>
       </x:c>
       <x:c r="E138" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3610,13 +3610,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B139" t="str">
-        <x:v>5e8eb97e-2451-488a-a49c-adb9da68461e</x:v>
+        <x:v>dc61b064-664a-4ff6-bf3d-59462a8f627f</x:v>
       </x:c>
       <x:c r="C139" t="str">
-        <x:v>CourseELA0101 - TEMsec47grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec47grd05L</x:v>
       </x:c>
       <x:c r="D139" t="str">
-        <x:v>d5140a6f-51fe-4c28-bb74-150663e34ebd</x:v>
+        <x:v>149a95ad-2c38-4a55-957a-bf8633c4251f</x:v>
       </x:c>
       <x:c r="E139" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3636,13 +3636,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B140" t="str">
-        <x:v>9dc88ece-29cc-4268-aaf1-eb73f3472b38</x:v>
+        <x:v>b39bf641-f1b2-4066-97c4-fef9e7fb1c97</x:v>
       </x:c>
       <x:c r="C140" t="str">
-        <x:v>CourseELA0101 - TEMsec48grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec48grd05L</x:v>
       </x:c>
       <x:c r="D140" t="str">
-        <x:v>411727f6-b8fa-4aa2-aff3-d59f8f2aaf40</x:v>
+        <x:v>87eca55b-b155-47d8-9892-3f7f79fa8ab6</x:v>
       </x:c>
       <x:c r="E140" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3662,13 +3662,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B141" t="str">
-        <x:v>cb130f1c-6f87-4104-9a5d-cacc364d3a1a</x:v>
+        <x:v>a4ae6d49-b9e3-4516-a484-ceaf2c994ba0</x:v>
       </x:c>
       <x:c r="C141" t="str">
-        <x:v>CourseELA0101 - TEMsec49grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec49grd05L</x:v>
       </x:c>
       <x:c r="D141" t="str">
-        <x:v>54c84539-cc8d-470a-9676-f84a9e96d64c</x:v>
+        <x:v>7d80c98e-87fb-4f8f-b74e-da208995379b</x:v>
       </x:c>
       <x:c r="E141" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3688,13 +3688,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B142" t="str">
-        <x:v>a12d7872-198d-4749-ab8a-6ff70ca2ddbb</x:v>
+        <x:v>f29572ae-dfb4-4336-a121-f72474fff0fe</x:v>
       </x:c>
       <x:c r="C142" t="str">
-        <x:v>CourseELA0101 - TEMsec50grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec50grd05L</x:v>
       </x:c>
       <x:c r="D142" t="str">
-        <x:v>fdee50c2-0b88-4010-9a60-195ecc84e67c</x:v>
+        <x:v>e8be276f-a195-4866-9e53-db13dd74487e</x:v>
       </x:c>
       <x:c r="E142" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3714,13 +3714,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B143" t="str">
-        <x:v>b9578645-7eff-4bf2-ba3b-9672abdc414c</x:v>
+        <x:v>8b52f5b5-5137-4fac-8d27-56db0c56b0d8</x:v>
       </x:c>
       <x:c r="C143" t="str">
-        <x:v>CourseELA0101 - TEMsec51grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec51grd05L</x:v>
       </x:c>
       <x:c r="D143" t="str">
-        <x:v>3de06aca-8436-44d6-bfd8-0c83347acdd7</x:v>
+        <x:v>46b06b20-c6f1-4aaf-a8ac-4fed2a56f76b</x:v>
       </x:c>
       <x:c r="E143" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3740,13 +3740,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B144" t="str">
-        <x:v>b9d4a79e-ad2a-42f5-a6ed-f7a93a8d0945</x:v>
+        <x:v>47db23fb-efb5-4e53-b8d7-2cc3e86a1186</x:v>
       </x:c>
       <x:c r="C144" t="str">
-        <x:v>CourseELA0101 - TEMsec52grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec52grd05L</x:v>
       </x:c>
       <x:c r="D144" t="str">
-        <x:v>51729266-743b-40bd-bc50-cf036e554827</x:v>
+        <x:v>0189850a-2bfc-4e46-b916-ba01283ad862</x:v>
       </x:c>
       <x:c r="E144" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3766,13 +3766,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B145" t="str">
-        <x:v>bad9708e-1b67-4ec8-abf7-75635c4382d5</x:v>
+        <x:v>647d63a5-667e-4702-8ff4-6735e7d5bd90</x:v>
       </x:c>
       <x:c r="C145" t="str">
-        <x:v>CourseELA0101 - TEMsec53grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec53grd05L</x:v>
       </x:c>
       <x:c r="D145" t="str">
-        <x:v>bb8fab3f-9591-4580-9c0c-ee87f01349ab</x:v>
+        <x:v>0422317b-73ff-487e-80ed-0f80f2dd5c32</x:v>
       </x:c>
       <x:c r="E145" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3792,13 +3792,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B146" t="str">
-        <x:v>58303aa2-7f47-436a-9596-0abb93bde6b8</x:v>
+        <x:v>a6cb3593-a000-4482-8360-737829109806</x:v>
       </x:c>
       <x:c r="C146" t="str">
-        <x:v>CourseELA0101 - TEMsec54grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec54grd05L</x:v>
       </x:c>
       <x:c r="D146" t="str">
-        <x:v>c7ca74fa-a6f0-4cab-bdca-cc7530150936</x:v>
+        <x:v>20b14816-87fa-448d-957b-b0e4d3893345</x:v>
       </x:c>
       <x:c r="E146" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3818,13 +3818,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B147" t="str">
-        <x:v>915bf3d7-ebab-48a3-b1a1-329b4b7318a7</x:v>
+        <x:v>538779da-6d99-4707-83dd-f7cc12f4d3d6</x:v>
       </x:c>
       <x:c r="C147" t="str">
-        <x:v>CourseELA0101 - TEMsec55grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec55grd05L</x:v>
       </x:c>
       <x:c r="D147" t="str">
-        <x:v>fc39e551-0e4d-457c-bb6f-6f2057166a8a</x:v>
+        <x:v>b78f7868-0c28-4161-919f-2034af169de5</x:v>
       </x:c>
       <x:c r="E147" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3844,13 +3844,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B148" t="str">
-        <x:v>ba97c437-ac70-4f2d-89d6-a0d2549c1764</x:v>
+        <x:v>88d5dcea-90ea-447e-9a55-c03ddbfe0f53</x:v>
       </x:c>
       <x:c r="C148" t="str">
-        <x:v>CourseELA0101 - TEMsec56grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec56grd05L</x:v>
       </x:c>
       <x:c r="D148" t="str">
-        <x:v>f2f9dd70-2f23-47c0-ac9e-5591ffb6921e</x:v>
+        <x:v>61a0c791-f05d-4481-b5e9-94d57d918ce6</x:v>
       </x:c>
       <x:c r="E148" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3870,13 +3870,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B149" t="str">
-        <x:v>2a66bff0-0336-4404-b70b-56783013b52c</x:v>
+        <x:v>0b70ce89-9d9e-4e23-a7ec-bba2bf31c439</x:v>
       </x:c>
       <x:c r="C149" t="str">
-        <x:v>CourseELA0101 - TEMsec57grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec57grd05L</x:v>
       </x:c>
       <x:c r="D149" t="str">
-        <x:v>a2fd3c59-3310-4e22-95e3-4cd1b8d55940</x:v>
+        <x:v>14463b64-be54-4b82-b5e3-ffe67d972808</x:v>
       </x:c>
       <x:c r="E149" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3896,13 +3896,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B150" t="str">
-        <x:v>2f935c01-1baa-42a4-b11a-342ae44d5821</x:v>
+        <x:v>75a60f79-e25e-4d76-b0ca-3c32c895cc9b</x:v>
       </x:c>
       <x:c r="C150" t="str">
-        <x:v>CourseELA0101 - TEMsec58grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec58grd05L</x:v>
       </x:c>
       <x:c r="D150" t="str">
-        <x:v>657aedcb-7387-433b-83c1-bdd2b83c9757</x:v>
+        <x:v>289a6e7b-2aa0-4500-b6e0-acba99ebbdba</x:v>
       </x:c>
       <x:c r="E150" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3922,13 +3922,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B151" t="str">
-        <x:v>0e69a854-57fd-4743-a51b-8bfcd4052ad1</x:v>
+        <x:v>3b95c6f0-42f8-45a3-b743-9eb24d1b839b</x:v>
       </x:c>
       <x:c r="C151" t="str">
-        <x:v>CourseELA0101 - TEMsec59grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec59grd05L</x:v>
       </x:c>
       <x:c r="D151" t="str">
-        <x:v>2db41322-9bdd-44ca-bd1b-0cecf349cae5</x:v>
+        <x:v>fc9c6879-9189-4a48-9692-956b323ee633</x:v>
       </x:c>
       <x:c r="E151" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3948,13 +3948,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B152" t="str">
-        <x:v>f2c1e83c-0e34-473c-be90-e99f030e5d20</x:v>
+        <x:v>53051409-3ae0-41eb-9efb-c2af619b74d9</x:v>
       </x:c>
       <x:c r="C152" t="str">
-        <x:v>CourseELA0101 - TEMsec60grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec60grd05L</x:v>
       </x:c>
       <x:c r="D152" t="str">
-        <x:v>5fe7c599-6feb-4d02-9af3-919750ca5466</x:v>
+        <x:v>2f55c3bd-9ff1-4090-a7e6-43ccf182d526</x:v>
       </x:c>
       <x:c r="E152" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -3974,13 +3974,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B153" t="str">
-        <x:v>fb9c5594-e747-4828-a9f4-9309193a66f1</x:v>
+        <x:v>d5ba3639-a730-4e4e-b29d-b7f9e4f63551</x:v>
       </x:c>
       <x:c r="C153" t="str">
-        <x:v>CourseELA0101 - TEMsec61grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec61grd05L</x:v>
       </x:c>
       <x:c r="D153" t="str">
-        <x:v>ee3d03e6-a525-41f9-a441-873a8fcc2f46</x:v>
+        <x:v>1f9b8454-0cf9-48a3-955f-42ace29c4061</x:v>
       </x:c>
       <x:c r="E153" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4000,13 +4000,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B154" t="str">
-        <x:v>94063fe4-5840-4059-ae9c-38ca7f37156f</x:v>
+        <x:v>e844adc0-c26c-4902-8839-f16506774f6d</x:v>
       </x:c>
       <x:c r="C154" t="str">
-        <x:v>CourseELA0101 - TEMsec62grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec62grd05L</x:v>
       </x:c>
       <x:c r="D154" t="str">
-        <x:v>f9a66139-c6c0-4102-aa75-bd4f5aeb7519</x:v>
+        <x:v>a87c5463-6cce-421b-a9da-014681335948</x:v>
       </x:c>
       <x:c r="E154" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4026,13 +4026,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B155" t="str">
-        <x:v>eded250d-8275-4eff-941a-42f095ceec05</x:v>
+        <x:v>45bd38a3-50db-4b42-a77b-8e4bf4520f5e</x:v>
       </x:c>
       <x:c r="C155" t="str">
-        <x:v>CourseELA0101 - TEMsec63grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec63grd05L</x:v>
       </x:c>
       <x:c r="D155" t="str">
-        <x:v>67ad4585-548a-4909-a4cc-76655f63431d</x:v>
+        <x:v>5f755322-98a8-48ce-9ad8-ffa21b08a430</x:v>
       </x:c>
       <x:c r="E155" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4052,13 +4052,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B156" t="str">
-        <x:v>4a3094f4-ea80-44a1-8f15-de2f5751a936</x:v>
+        <x:v>47537c8c-67fe-4f6a-a43d-38d95b4c13e3</x:v>
       </x:c>
       <x:c r="C156" t="str">
-        <x:v>CourseELA0101 - TEMsec64grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec64grd05L</x:v>
       </x:c>
       <x:c r="D156" t="str">
-        <x:v>83fc5dbc-cea9-4c94-be00-f44cbf412e1c</x:v>
+        <x:v>f3e8dc62-0f6d-409b-90ce-4cdf6662a973</x:v>
       </x:c>
       <x:c r="E156" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4078,13 +4078,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B157" t="str">
-        <x:v>99843904-e419-4234-835e-951719190c29</x:v>
+        <x:v>d9eef589-04b8-4ac7-9112-e247d4144240</x:v>
       </x:c>
       <x:c r="C157" t="str">
-        <x:v>CourseELA0101 - TEMsec65grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec65grd05L</x:v>
       </x:c>
       <x:c r="D157" t="str">
-        <x:v>0589c60e-ba26-4e4b-83f8-0081c23f9bbb</x:v>
+        <x:v>e5e8ab4c-a05f-47a6-b20d-4873f044e14c</x:v>
       </x:c>
       <x:c r="E157" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4104,13 +4104,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B158" t="str">
-        <x:v>9001d328-6e2b-44ea-ac8f-595869654197</x:v>
+        <x:v>9155556a-45ab-465d-a19c-160f39e97556</x:v>
       </x:c>
       <x:c r="C158" t="str">
-        <x:v>CourseELA0101 - TEMsec66grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec66grd05L</x:v>
       </x:c>
       <x:c r="D158" t="str">
-        <x:v>1bbd1f64-b383-4644-9e16-80522823caf4</x:v>
+        <x:v>db52370f-db5b-4610-baa1-66a2083fd0a1</x:v>
       </x:c>
       <x:c r="E158" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4130,13 +4130,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B159" t="str">
-        <x:v>75e7851a-38c3-45bf-a929-96c8e6c6c5cd</x:v>
+        <x:v>96c7e5cf-bd0c-4ede-91d2-2998f5e5bf7e</x:v>
       </x:c>
       <x:c r="C159" t="str">
-        <x:v>CourseELA0101 - TEMsec67grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec67grd05L</x:v>
       </x:c>
       <x:c r="D159" t="str">
-        <x:v>edf80a86-cf83-406c-8f67-b5c1ffc49916</x:v>
+        <x:v>6505538b-3a57-4f0d-a3c5-b8e1aede6add</x:v>
       </x:c>
       <x:c r="E159" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4156,13 +4156,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B160" t="str">
-        <x:v>32f8089f-ab0c-4f06-a731-61fc56152fb1</x:v>
+        <x:v>f1b4025e-ca24-43ea-a47e-c1ff1939c9d6</x:v>
       </x:c>
       <x:c r="C160" t="str">
-        <x:v>CourseELA0101 - TEMsec68grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec68grd05L</x:v>
       </x:c>
       <x:c r="D160" t="str">
-        <x:v>a8ea576c-9620-4bc0-be23-39393c7d8e71</x:v>
+        <x:v>914170b5-5ba6-4c89-954f-8538bfbaaca9</x:v>
       </x:c>
       <x:c r="E160" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4182,13 +4182,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B161" t="str">
-        <x:v>909545d3-325a-44e2-99a6-8a1329c2139f</x:v>
+        <x:v>e73fd180-17b0-4b2f-a725-afcdf376641f</x:v>
       </x:c>
       <x:c r="C161" t="str">
-        <x:v>CourseELA0101 - TEMsec69grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec69grd05L</x:v>
       </x:c>
       <x:c r="D161" t="str">
-        <x:v>85ef4fff-7e99-4e81-a143-c054b52f247d</x:v>
+        <x:v>8c38f96c-aebd-4640-8b16-d580a9f4d7ee</x:v>
       </x:c>
       <x:c r="E161" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4208,13 +4208,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B162" t="str">
-        <x:v>1ddf3cfa-bb55-47ab-8e51-adecbbcde714</x:v>
+        <x:v>1e61aa72-b9be-4986-bd7e-2d9536394139</x:v>
       </x:c>
       <x:c r="C162" t="str">
-        <x:v>CourseELA0101 - TEMsec70grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec70grd05L</x:v>
       </x:c>
       <x:c r="D162" t="str">
-        <x:v>d0b21245-1c14-4931-8054-90ddbc3daf11</x:v>
+        <x:v>2f23f50d-57ad-4ba7-8332-cee271c76372</x:v>
       </x:c>
       <x:c r="E162" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4234,13 +4234,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B163" t="str">
-        <x:v>b813b77b-3be7-4279-8a3c-89b903bc285b</x:v>
+        <x:v>45f5b4bf-58c0-42cd-82f0-264f0f67cfd5</x:v>
       </x:c>
       <x:c r="C163" t="str">
-        <x:v>CourseELA0101 - TEMsec71grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec71grd05L</x:v>
       </x:c>
       <x:c r="D163" t="str">
-        <x:v>18a204c8-4aaf-452c-8df2-f306f29bf8f3</x:v>
+        <x:v>d4afff93-7c99-4b36-8eef-d95fc17ca1b3</x:v>
       </x:c>
       <x:c r="E163" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4260,13 +4260,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B164" t="str">
-        <x:v>09a59720-1f57-40ec-8919-0d6775d73a79</x:v>
+        <x:v>34a41442-fead-478a-9f52-514d971dca3c</x:v>
       </x:c>
       <x:c r="C164" t="str">
-        <x:v>CourseELA0101 - TEMsec72grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec72grd05L</x:v>
       </x:c>
       <x:c r="D164" t="str">
-        <x:v>59f4354d-60b5-4068-912f-cf5fb940d8c0</x:v>
+        <x:v>5d594b5c-f15e-41d7-96ff-312730c07bdd</x:v>
       </x:c>
       <x:c r="E164" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4286,13 +4286,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B165" t="str">
-        <x:v>eed72f50-3a01-4cc7-a31e-2e9325632332</x:v>
+        <x:v>2e7b2a47-9814-4e1f-ab7e-8476933092f9</x:v>
       </x:c>
       <x:c r="C165" t="str">
-        <x:v>CourseELA0101 - TEMsec73grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec73grd05L</x:v>
       </x:c>
       <x:c r="D165" t="str">
-        <x:v>590d35a2-a233-4beb-bfd8-801fa6ac64f7</x:v>
+        <x:v>e2eb5027-fe9a-4b80-9947-d31c30964f79</x:v>
       </x:c>
       <x:c r="E165" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4312,13 +4312,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B166" t="str">
-        <x:v>1ed8d523-1c46-461e-8888-7f740f875a53</x:v>
+        <x:v>839d307d-83bc-4634-95fd-4060c248889e</x:v>
       </x:c>
       <x:c r="C166" t="str">
-        <x:v>CourseELA0101 - TEMsec74grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec74grd05L</x:v>
       </x:c>
       <x:c r="D166" t="str">
-        <x:v>ecab8b38-2f06-4372-96a9-fa1da80c6973</x:v>
+        <x:v>75e73257-bb51-466d-a65c-8ce6f4f21d80</x:v>
       </x:c>
       <x:c r="E166" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4338,13 +4338,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B167" t="str">
-        <x:v>f24302eb-11ee-4ea3-8a98-32501d573142</x:v>
+        <x:v>601c13f1-d80b-4ab5-a77b-82a788596147</x:v>
       </x:c>
       <x:c r="C167" t="str">
-        <x:v>CourseELA0101 - TEMsec75grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec75grd05L</x:v>
       </x:c>
       <x:c r="D167" t="str">
-        <x:v>4e103ec4-0f96-43a5-8526-18f748ba0dfb</x:v>
+        <x:v>b4a455f2-d602-4c0e-be16-d06a44ab4352</x:v>
       </x:c>
       <x:c r="E167" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4364,13 +4364,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B168" t="str">
-        <x:v>3168475f-390d-4c26-a778-28f338394577</x:v>
+        <x:v>83eae789-3508-4b3a-8b51-89215c2019b3</x:v>
       </x:c>
       <x:c r="C168" t="str">
-        <x:v>CourseELA0101 - TEMsec76grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec76grd05L</x:v>
       </x:c>
       <x:c r="D168" t="str">
-        <x:v>96728b03-2110-4faa-8d59-04dcbddae40c</x:v>
+        <x:v>e7dceb20-1848-4f3a-ac69-9803caf3506a</x:v>
       </x:c>
       <x:c r="E168" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4390,13 +4390,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B169" t="str">
-        <x:v>17bd7c7a-7f19-4d16-a377-30927de71268</x:v>
+        <x:v>d793e7e6-9dce-414c-a3c3-87b4a21c4f64</x:v>
       </x:c>
       <x:c r="C169" t="str">
-        <x:v>CourseELA0101 - TEMsec77grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec77grd05L</x:v>
       </x:c>
       <x:c r="D169" t="str">
-        <x:v>1f7f3ba8-e3b7-4418-b3d8-cee99acc47f9</x:v>
+        <x:v>d4efd058-c55f-4b29-88e6-d3783b1274f7</x:v>
       </x:c>
       <x:c r="E169" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4416,13 +4416,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B170" t="str">
-        <x:v>622ecb32-7b63-469f-ad8d-e7d303118ff9</x:v>
+        <x:v>7ca9ced1-f67d-4091-b388-e7ca17f0b300</x:v>
       </x:c>
       <x:c r="C170" t="str">
-        <x:v>CourseELA0101 - TEMsec78grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec78grd05L</x:v>
       </x:c>
       <x:c r="D170" t="str">
-        <x:v>4dad2675-119b-4f5e-a8b0-6cc6c110a80f</x:v>
+        <x:v>8da940b8-b7df-418f-a855-c024c5beeac8</x:v>
       </x:c>
       <x:c r="E170" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4442,13 +4442,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B171" t="str">
-        <x:v>a0052a48-5d75-4064-a26e-63ca00f64293</x:v>
+        <x:v>9bbf10e8-c629-414f-b72c-f4ffe34d5104</x:v>
       </x:c>
       <x:c r="C171" t="str">
-        <x:v>CourseELA0101 - TEMsec79grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec79grd05L</x:v>
       </x:c>
       <x:c r="D171" t="str">
-        <x:v>674f6ca1-4161-4ecc-b2c0-fd3bfda24362</x:v>
+        <x:v>e18f150e-4b20-4caf-9554-008e1b3878ea</x:v>
       </x:c>
       <x:c r="E171" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4468,13 +4468,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B172" t="str">
-        <x:v>b90c7bb3-cff8-4a69-a07f-99d04ce96d14</x:v>
+        <x:v>4e42e283-d226-4aed-826e-083c8547dda4</x:v>
       </x:c>
       <x:c r="C172" t="str">
-        <x:v>CourseELA0101 - TEMsec80grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec80grd05L</x:v>
       </x:c>
       <x:c r="D172" t="str">
-        <x:v>2547077b-44f2-461b-aaf8-96c6a8166eab</x:v>
+        <x:v>36d29c1c-b0ed-4f96-9cbb-af72d4a56821</x:v>
       </x:c>
       <x:c r="E172" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4494,13 +4494,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B173" t="str">
-        <x:v>0d8eb15c-ffa5-4bfb-b49b-bada7f82b536</x:v>
+        <x:v>dd7a916b-50f2-4418-b30c-eae55c01d6a7</x:v>
       </x:c>
       <x:c r="C173" t="str">
-        <x:v>CourseELA0101 - TEMsec81grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec81grd05L</x:v>
       </x:c>
       <x:c r="D173" t="str">
-        <x:v>7d1fcde3-a095-49ea-ae12-b209a766a34f</x:v>
+        <x:v>249d4237-9f58-46e1-944a-6676395f94be</x:v>
       </x:c>
       <x:c r="E173" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4520,13 +4520,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B174" t="str">
-        <x:v>3f6cd0d8-f0a9-4ef6-ab87-7720e46b3ba8</x:v>
+        <x:v>f0d55d0b-115a-432e-8122-7f669d17266b</x:v>
       </x:c>
       <x:c r="C174" t="str">
-        <x:v>CourseELA0101 - TEMsec82grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec82grd05L</x:v>
       </x:c>
       <x:c r="D174" t="str">
-        <x:v>e52ac86f-9c5a-48d6-9424-a570d204cb2f</x:v>
+        <x:v>0222711f-5f77-4fd6-95ad-69a7b2342550</x:v>
       </x:c>
       <x:c r="E174" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4546,13 +4546,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B175" t="str">
-        <x:v>81d957b4-858a-43be-86ea-a8d4bb1dbde8</x:v>
+        <x:v>062d12d8-e6cc-421d-add1-1766bab9a802</x:v>
       </x:c>
       <x:c r="C175" t="str">
-        <x:v>CourseELA0101 - TEMsec83grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec83grd05L</x:v>
       </x:c>
       <x:c r="D175" t="str">
-        <x:v>52b795ad-25d9-461c-b4d0-8ad2222182b9</x:v>
+        <x:v>5e5c973e-f66b-4cc2-a850-2038afe65abb</x:v>
       </x:c>
       <x:c r="E175" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4572,13 +4572,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B176" t="str">
-        <x:v>caef7ffa-d08b-42f7-81f0-391082b2e820</x:v>
+        <x:v>cff56538-ff6c-42cb-9f24-75ccb0cd5f63</x:v>
       </x:c>
       <x:c r="C176" t="str">
-        <x:v>CourseELA0101 - TEMsec84grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec84grd05L</x:v>
       </x:c>
       <x:c r="D176" t="str">
-        <x:v>846b9d95-ac28-457f-a49b-329584b489bb</x:v>
+        <x:v>615c2790-8c9b-4c8b-88aa-63b5a31be87f</x:v>
       </x:c>
       <x:c r="E176" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4598,13 +4598,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B177" t="str">
-        <x:v>43fc62fc-f690-43b5-bc7a-5ee4ca2467d5</x:v>
+        <x:v>650bcefc-8f8d-481d-b5a9-57da3443d7e0</x:v>
       </x:c>
       <x:c r="C177" t="str">
-        <x:v>CourseELA0101 - TEMsec85grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec85grd05L</x:v>
       </x:c>
       <x:c r="D177" t="str">
-        <x:v>d78d5e95-faef-44ac-8561-fa760396f503</x:v>
+        <x:v>55679dc3-df29-4899-bc8b-b86d87d28420</x:v>
       </x:c>
       <x:c r="E177" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4624,13 +4624,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B178" t="str">
-        <x:v>255163de-d8b3-4e13-a27f-1aee9786f3dc</x:v>
+        <x:v>02dd1c8e-cfc0-436b-9b80-eb64466d926d</x:v>
       </x:c>
       <x:c r="C178" t="str">
-        <x:v>CourseELA0101 - TEMsec86grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec86grd05L</x:v>
       </x:c>
       <x:c r="D178" t="str">
-        <x:v>10cda52f-8e7c-42e4-a2b9-6785ce9e12d2</x:v>
+        <x:v>bfdedcef-b151-4542-8d52-4eac788a0add</x:v>
       </x:c>
       <x:c r="E178" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4650,13 +4650,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B179" t="str">
-        <x:v>71ea4020-2365-4910-9351-2eed07c31445</x:v>
+        <x:v>c8780317-f034-41c9-bc15-e1cc096b7a97</x:v>
       </x:c>
       <x:c r="C179" t="str">
-        <x:v>CourseELA0101 - TEMsec87grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec87grd05L</x:v>
       </x:c>
       <x:c r="D179" t="str">
-        <x:v>46151726-c3f7-4ad9-8ead-02d8c04f7b8f</x:v>
+        <x:v>f5ff3b41-4f9e-4998-836b-ae580ad4acea</x:v>
       </x:c>
       <x:c r="E179" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4676,13 +4676,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B180" t="str">
-        <x:v>4119758d-8ba7-4eff-8039-96a9370929bc</x:v>
+        <x:v>c732f4fe-6b12-4796-9a35-60001ffb0559</x:v>
       </x:c>
       <x:c r="C180" t="str">
-        <x:v>CourseELA0101 - TEMsec88grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec88grd05L</x:v>
       </x:c>
       <x:c r="D180" t="str">
-        <x:v>f3c5b50c-d10d-4858-805a-0646fa3e80da</x:v>
+        <x:v>44b713d9-47fa-4b02-a38a-81e708d9c69c</x:v>
       </x:c>
       <x:c r="E180" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4702,13 +4702,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B181" t="str">
-        <x:v>7b424d70-c987-4f58-843f-7631021bf637</x:v>
+        <x:v>a26c4af9-122e-483a-89d2-58791b6aff02</x:v>
       </x:c>
       <x:c r="C181" t="str">
-        <x:v>CourseELA0101 - TEMsec89grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec89grd05L</x:v>
       </x:c>
       <x:c r="D181" t="str">
-        <x:v>40cf82ee-10cd-4f26-a58c-f3223cec2eda</x:v>
+        <x:v>74675d07-9d0f-4a8e-bb30-45c52f42b359</x:v>
       </x:c>
       <x:c r="E181" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4728,13 +4728,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B182" t="str">
-        <x:v>792ad768-49d5-4784-a3c8-52155ac697b2</x:v>
+        <x:v>f2bd0fd8-49b8-4ad3-8038-3ddc4a11313a</x:v>
       </x:c>
       <x:c r="C182" t="str">
-        <x:v>CourseELA0101 - TEMsec90grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec90grd05L</x:v>
       </x:c>
       <x:c r="D182" t="str">
-        <x:v>0037c83a-4623-4a8d-b545-7f3dfd99fe2f</x:v>
+        <x:v>03dfee88-f035-4413-b80d-8edb0d5dba9f</x:v>
       </x:c>
       <x:c r="E182" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4754,13 +4754,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B183" t="str">
-        <x:v>ad5cb510-1014-4ea5-975b-0416cf826a70</x:v>
+        <x:v>247641e2-a674-4bcf-85e4-8b40a654ea89</x:v>
       </x:c>
       <x:c r="C183" t="str">
-        <x:v>CourseELA0101 - TEMsec91grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec91grd05L</x:v>
       </x:c>
       <x:c r="D183" t="str">
-        <x:v>2e6928e4-1682-41ae-8a72-bfc5c55bab97</x:v>
+        <x:v>4f4a1228-b8a0-4e51-b12d-f1d923715887</x:v>
       </x:c>
       <x:c r="E183" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4780,13 +4780,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B184" t="str">
-        <x:v>de9cd114-6e36-43e9-8ccd-30b60ea969a8</x:v>
+        <x:v>89135ffb-4b79-457a-a569-648efcf468ed</x:v>
       </x:c>
       <x:c r="C184" t="str">
-        <x:v>CourseELA0101 - TEMsec92grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec92grd05L</x:v>
       </x:c>
       <x:c r="D184" t="str">
-        <x:v>625925f0-57e6-49ed-87e8-6e65155fa1e9</x:v>
+        <x:v>90b6c45e-4123-4b03-aed6-b8a2ad811101</x:v>
       </x:c>
       <x:c r="E184" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4806,13 +4806,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B185" t="str">
-        <x:v>2494bb83-c104-4690-8a32-e4a2c4e13f1e</x:v>
+        <x:v>8255307a-5e9c-4c18-8408-9cfd0541e4e4</x:v>
       </x:c>
       <x:c r="C185" t="str">
-        <x:v>CourseELA0101 - TEMsec93grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec93grd05L</x:v>
       </x:c>
       <x:c r="D185" t="str">
-        <x:v>701a933f-8ace-4f46-916e-4bb5e35b607a</x:v>
+        <x:v>762c6588-0b9c-4297-82e5-0a9a3d810ead</x:v>
       </x:c>
       <x:c r="E185" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4832,13 +4832,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B186" t="str">
-        <x:v>2eaab655-4447-4833-9e1c-c54c061ea4c6</x:v>
+        <x:v>5068a9d8-5c48-4eb2-adfb-95c3857fb274</x:v>
       </x:c>
       <x:c r="C186" t="str">
-        <x:v>CourseELA0101 - TEMsec94grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec94grd05L</x:v>
       </x:c>
       <x:c r="D186" t="str">
-        <x:v>31ccfd64-c4b0-4d42-a0e4-5ad459356151</x:v>
+        <x:v>5c30aad3-bcdc-48c1-82c3-3ecc751ddb24</x:v>
       </x:c>
       <x:c r="E186" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4858,13 +4858,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B187" t="str">
-        <x:v>51622f67-fb32-45f3-a1e7-c9a6fe411c30</x:v>
+        <x:v>f59ceb93-c6f9-4885-8893-299534138e62</x:v>
       </x:c>
       <x:c r="C187" t="str">
-        <x:v>CourseELA0101 - TEMsec95grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec95grd05L</x:v>
       </x:c>
       <x:c r="D187" t="str">
-        <x:v>736c29de-fb77-4d11-97d7-84583c758f63</x:v>
+        <x:v>a4915b5c-e5d7-4930-86b0-8b88b9ed1862</x:v>
       </x:c>
       <x:c r="E187" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4884,13 +4884,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B188" t="str">
-        <x:v>039a8d12-d383-4ad7-ae1c-f2b2558cb307</x:v>
+        <x:v>1d9a315f-fbd3-4a9b-b3dd-b320848885c6</x:v>
       </x:c>
       <x:c r="C188" t="str">
-        <x:v>CourseELA0101 - TEMsec96grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec96grd05L</x:v>
       </x:c>
       <x:c r="D188" t="str">
-        <x:v>7ada04b7-55ba-4534-bdb4-9b70df51a8d3</x:v>
+        <x:v>7dd74ac0-0102-4799-9e52-fc3e5bbf91e1</x:v>
       </x:c>
       <x:c r="E188" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4910,13 +4910,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B189" t="str">
-        <x:v>4bff8bb2-27fc-4cbd-bd2f-3dca803a20d1</x:v>
+        <x:v>b8b3b291-581b-410a-bcdf-79b3e3fb89d6</x:v>
       </x:c>
       <x:c r="C189" t="str">
-        <x:v>CourseELA0101 - TEMsec97grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec97grd05L</x:v>
       </x:c>
       <x:c r="D189" t="str">
-        <x:v>c5fe22cd-0cdf-46b6-88cf-ae6d0cff383d</x:v>
+        <x:v>f663a638-383f-4806-baee-a3cd886035d8</x:v>
       </x:c>
       <x:c r="E189" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4936,13 +4936,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B190" t="str">
-        <x:v>6f10bdb2-117d-4f0f-83ef-97deedb560c2</x:v>
+        <x:v>8950f20b-0db8-40c5-9241-4edf0df4708c</x:v>
       </x:c>
       <x:c r="C190" t="str">
-        <x:v>CourseELA0101 - TEMsec98grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec98grd05L</x:v>
       </x:c>
       <x:c r="D190" t="str">
-        <x:v>341a0dd7-f64c-4900-bc9b-14a1fecc4a1d</x:v>
+        <x:v>3e9bcb08-8fab-43d3-9d96-3604aae8c60f</x:v>
       </x:c>
       <x:c r="E190" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4962,13 +4962,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B191" t="str">
-        <x:v>9e874bda-9ec5-4c41-b031-b4371d8a1d43</x:v>
+        <x:v>9c54902f-81d2-433c-9332-3b2cf7bde1f7</x:v>
       </x:c>
       <x:c r="C191" t="str">
-        <x:v>CourseELA0101 - TEMsec99grd01L</x:v>
+        <x:v>CourseELA0505 - TEMsec99grd05L</x:v>
       </x:c>
       <x:c r="D191" t="str">
-        <x:v>5342cfbb-ac61-4661-9297-fd4532295e13</x:v>
+        <x:v>2102318c-732a-4758-bed4-f8eef2afc663</x:v>
       </x:c>
       <x:c r="E191" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -4988,13 +4988,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B192" t="str">
-        <x:v>a1a0747b-870d-46e1-a4fc-68c214c46d0f</x:v>
+        <x:v>e711dcc2-7046-4f2e-af08-776a26778647</x:v>
       </x:c>
       <x:c r="C192" t="str">
-        <x:v>CourseMath0101 - Sec0101Math</x:v>
+        <x:v>CourseMath0505 - Sec0105Math</x:v>
       </x:c>
       <x:c r="D192" t="str">
-        <x:v>2695e196-5e1a-4b2b-bb07-ef2cbe0dfd2a</x:v>
+        <x:v>c37be920-21ef-44a4-a5a6-3a5e86d1cf3a</x:v>
       </x:c>
       <x:c r="E192" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5014,13 +5014,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B193" t="str">
-        <x:v>a1a0747b-870d-46e1-a4fc-68c214c46d0f</x:v>
+        <x:v>e711dcc2-7046-4f2e-af08-776a26778647</x:v>
       </x:c>
       <x:c r="C193" t="str">
-        <x:v>CourseMath0101 - Sec0101Math</x:v>
+        <x:v>CourseMath0505 - Sec0105Math</x:v>
       </x:c>
       <x:c r="D193" t="str">
-        <x:v>2695e196-5e1a-4b2b-bb07-ef2cbe0dfd2a</x:v>
+        <x:v>c37be920-21ef-44a4-a5a6-3a5e86d1cf3a</x:v>
       </x:c>
       <x:c r="E193" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5040,13 +5040,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B194" t="str">
-        <x:v>8f465839-4ea1-498b-8492-4a107eb4d443</x:v>
+        <x:v>4a4cd4b1-fe54-42e6-9f0b-04488066e254</x:v>
       </x:c>
       <x:c r="C194" t="str">
-        <x:v>CourseMath0101 - Sec0201Math</x:v>
+        <x:v>CourseMath0505 - Sec0205Math</x:v>
       </x:c>
       <x:c r="D194" t="str">
-        <x:v>dd61ccd6-57ba-4e0d-91d7-96e3c9cb09ed</x:v>
+        <x:v>a3a2e702-e254-40e1-98c8-1ad4024aea9b</x:v>
       </x:c>
       <x:c r="E194" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5066,13 +5066,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B195" t="str">
-        <x:v>8f465839-4ea1-498b-8492-4a107eb4d443</x:v>
+        <x:v>4a4cd4b1-fe54-42e6-9f0b-04488066e254</x:v>
       </x:c>
       <x:c r="C195" t="str">
-        <x:v>CourseMath0101 - Sec0201Math</x:v>
+        <x:v>CourseMath0505 - Sec0205Math</x:v>
       </x:c>
       <x:c r="D195" t="str">
-        <x:v>dd61ccd6-57ba-4e0d-91d7-96e3c9cb09ed</x:v>
+        <x:v>a3a2e702-e254-40e1-98c8-1ad4024aea9b</x:v>
       </x:c>
       <x:c r="E195" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5092,13 +5092,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B196" t="str">
-        <x:v>792f102b-581c-4094-82f7-c21069c92eb7</x:v>
+        <x:v>9cfea00b-80d6-4761-8ce5-b2c060ef3ca2</x:v>
       </x:c>
       <x:c r="C196" t="str">
-        <x:v>CourseMath0101 - Sec0301Math</x:v>
+        <x:v>CourseMath0505 - Sec0305Math</x:v>
       </x:c>
       <x:c r="D196" t="str">
-        <x:v>9bc87c55-86a8-490b-ae15-4b63e5730c18</x:v>
+        <x:v>64428228-85d2-4946-b823-0c10c9679344</x:v>
       </x:c>
       <x:c r="E196" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5118,13 +5118,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B197" t="str">
-        <x:v>792f102b-581c-4094-82f7-c21069c92eb7</x:v>
+        <x:v>9cfea00b-80d6-4761-8ce5-b2c060ef3ca2</x:v>
       </x:c>
       <x:c r="C197" t="str">
-        <x:v>CourseMath0101 - Sec0301Math</x:v>
+        <x:v>CourseMath0505 - Sec0305Math</x:v>
       </x:c>
       <x:c r="D197" t="str">
-        <x:v>9bc87c55-86a8-490b-ae15-4b63e5730c18</x:v>
+        <x:v>64428228-85d2-4946-b823-0c10c9679344</x:v>
       </x:c>
       <x:c r="E197" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5144,13 +5144,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B198" t="str">
-        <x:v>90e5b0a7-cc53-4fd3-8283-6a27315ae9af</x:v>
+        <x:v>115c1d12-252c-4e69-8100-6b8a3b69a49b</x:v>
       </x:c>
       <x:c r="C198" t="str">
-        <x:v>CourseMath0101 - Sec0401Math</x:v>
+        <x:v>CourseMath0505 - Sec0405Math</x:v>
       </x:c>
       <x:c r="D198" t="str">
-        <x:v>f7fd0858-f112-4d0d-ad74-01e476cc6ea3</x:v>
+        <x:v>b8e4df9b-31a0-4a3b-9af1-66ec912a3fef</x:v>
       </x:c>
       <x:c r="E198" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5170,13 +5170,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B199" t="str">
-        <x:v>90e5b0a7-cc53-4fd3-8283-6a27315ae9af</x:v>
+        <x:v>115c1d12-252c-4e69-8100-6b8a3b69a49b</x:v>
       </x:c>
       <x:c r="C199" t="str">
-        <x:v>CourseMath0101 - Sec0401Math</x:v>
+        <x:v>CourseMath0505 - Sec0405Math</x:v>
       </x:c>
       <x:c r="D199" t="str">
-        <x:v>f7fd0858-f112-4d0d-ad74-01e476cc6ea3</x:v>
+        <x:v>b8e4df9b-31a0-4a3b-9af1-66ec912a3fef</x:v>
       </x:c>
       <x:c r="E199" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5196,13 +5196,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B200" t="str">
-        <x:v>9481af72-0266-4bb1-a9a5-470d7c26eb27</x:v>
+        <x:v>a601040e-fa30-4063-b57a-21912ced9f3e</x:v>
       </x:c>
       <x:c r="C200" t="str">
-        <x:v>CourseMath0101 - Sec0501Math</x:v>
+        <x:v>CourseMath0505 - Sec0505Math</x:v>
       </x:c>
       <x:c r="D200" t="str">
-        <x:v>f69410ab-8a91-4cc0-8740-18973e874d1e</x:v>
+        <x:v>b65431b4-9e5e-4169-a62f-7e95e080751e</x:v>
       </x:c>
       <x:c r="E200" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5222,13 +5222,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B201" t="str">
-        <x:v>9481af72-0266-4bb1-a9a5-470d7c26eb27</x:v>
+        <x:v>a601040e-fa30-4063-b57a-21912ced9f3e</x:v>
       </x:c>
       <x:c r="C201" t="str">
-        <x:v>CourseMath0101 - Sec0501Math</x:v>
+        <x:v>CourseMath0505 - Sec0505Math</x:v>
       </x:c>
       <x:c r="D201" t="str">
-        <x:v>f69410ab-8a91-4cc0-8740-18973e874d1e</x:v>
+        <x:v>b65431b4-9e5e-4169-a62f-7e95e080751e</x:v>
       </x:c>
       <x:c r="E201" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5248,13 +5248,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B202" t="str">
-        <x:v>17d43705-818a-4d03-874c-7eaefb275fa9</x:v>
+        <x:v>9e7ad668-e2db-4074-9835-a324003640a1</x:v>
       </x:c>
       <x:c r="C202" t="str">
-        <x:v>CourseMath0101 - Sec0601Math</x:v>
+        <x:v>CourseMath0505 - Sec0605Math</x:v>
       </x:c>
       <x:c r="D202" t="str">
-        <x:v>437d8182-af96-4539-a072-88286da1b39f</x:v>
+        <x:v>8299637d-3d5f-4e2f-8191-c66a532f8d92</x:v>
       </x:c>
       <x:c r="E202" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5274,13 +5274,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B203" t="str">
-        <x:v>17d43705-818a-4d03-874c-7eaefb275fa9</x:v>
+        <x:v>9e7ad668-e2db-4074-9835-a324003640a1</x:v>
       </x:c>
       <x:c r="C203" t="str">
-        <x:v>CourseMath0101 - Sec0601Math</x:v>
+        <x:v>CourseMath0505 - Sec0605Math</x:v>
       </x:c>
       <x:c r="D203" t="str">
-        <x:v>437d8182-af96-4539-a072-88286da1b39f</x:v>
+        <x:v>8299637d-3d5f-4e2f-8191-c66a532f8d92</x:v>
       </x:c>
       <x:c r="E203" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5300,13 +5300,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B204" t="str">
-        <x:v>e14eb2b1-8c96-41cb-8f0a-49d5c50a9665</x:v>
+        <x:v>d99876c1-6fe5-4d35-8276-0444d139ab03</x:v>
       </x:c>
       <x:c r="C204" t="str">
-        <x:v>CourseMath0101 - Sec0701Math</x:v>
+        <x:v>CourseMath0505 - Sec0705Math</x:v>
       </x:c>
       <x:c r="D204" t="str">
-        <x:v>88c98ff3-051b-47be-a272-9d4ae344a5b3</x:v>
+        <x:v>1774420d-020e-48ce-9d08-b28696229b5f</x:v>
       </x:c>
       <x:c r="E204" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5326,13 +5326,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B205" t="str">
-        <x:v>e14eb2b1-8c96-41cb-8f0a-49d5c50a9665</x:v>
+        <x:v>d99876c1-6fe5-4d35-8276-0444d139ab03</x:v>
       </x:c>
       <x:c r="C205" t="str">
-        <x:v>CourseMath0101 - Sec0701Math</x:v>
+        <x:v>CourseMath0505 - Sec0705Math</x:v>
       </x:c>
       <x:c r="D205" t="str">
-        <x:v>88c98ff3-051b-47be-a272-9d4ae344a5b3</x:v>
+        <x:v>1774420d-020e-48ce-9d08-b28696229b5f</x:v>
       </x:c>
       <x:c r="E205" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5352,13 +5352,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B206" t="str">
-        <x:v>60bd714d-b010-4cf1-9abf-4918591b321c</x:v>
+        <x:v>a03f7109-4879-4e20-814e-43767547834b</x:v>
       </x:c>
       <x:c r="C206" t="str">
-        <x:v>CourseMath0101 - Sec0801Math</x:v>
+        <x:v>CourseMath0505 - Sec0805Math</x:v>
       </x:c>
       <x:c r="D206" t="str">
-        <x:v>ecc5cf5a-8104-40f8-bd36-43f4f2e69151</x:v>
+        <x:v>82862d9a-3fd5-4573-8c08-228841dbdfb5</x:v>
       </x:c>
       <x:c r="E206" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5378,13 +5378,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B207" t="str">
-        <x:v>60bd714d-b010-4cf1-9abf-4918591b321c</x:v>
+        <x:v>a03f7109-4879-4e20-814e-43767547834b</x:v>
       </x:c>
       <x:c r="C207" t="str">
-        <x:v>CourseMath0101 - Sec0801Math</x:v>
+        <x:v>CourseMath0505 - Sec0805Math</x:v>
       </x:c>
       <x:c r="D207" t="str">
-        <x:v>ecc5cf5a-8104-40f8-bd36-43f4f2e69151</x:v>
+        <x:v>82862d9a-3fd5-4573-8c08-228841dbdfb5</x:v>
       </x:c>
       <x:c r="E207" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5404,13 +5404,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B208" t="str">
-        <x:v>d98ceca7-354f-411e-8c54-66993d1cdb1e</x:v>
+        <x:v>8a09275d-ea91-4b59-bbcc-1169ceb59116</x:v>
       </x:c>
       <x:c r="C208" t="str">
-        <x:v>CourseMath0101 - Sec0901Math</x:v>
+        <x:v>CourseMath0505 - Sec0905Math</x:v>
       </x:c>
       <x:c r="D208" t="str">
-        <x:v>13ffab8f-4d77-4e71-b8ea-635a7be598f5</x:v>
+        <x:v>da86988e-05bd-47e8-8395-517ff704e0b4</x:v>
       </x:c>
       <x:c r="E208" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5430,13 +5430,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B209" t="str">
-        <x:v>d98ceca7-354f-411e-8c54-66993d1cdb1e</x:v>
+        <x:v>8a09275d-ea91-4b59-bbcc-1169ceb59116</x:v>
       </x:c>
       <x:c r="C209" t="str">
-        <x:v>CourseMath0101 - Sec0901Math</x:v>
+        <x:v>CourseMath0505 - Sec0905Math</x:v>
       </x:c>
       <x:c r="D209" t="str">
-        <x:v>13ffab8f-4d77-4e71-b8ea-635a7be598f5</x:v>
+        <x:v>da86988e-05bd-47e8-8395-517ff704e0b4</x:v>
       </x:c>
       <x:c r="E209" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5456,13 +5456,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B210" t="str">
-        <x:v>9cb1e048-ef2c-4978-ac38-c130b35ced81</x:v>
+        <x:v>2c782ae6-f92e-449c-9138-414bf5cbb034</x:v>
       </x:c>
       <x:c r="C210" t="str">
-        <x:v>CourseMath0101 - Sec10001MATH</x:v>
+        <x:v>CourseMath0505 - Sec10005MATH</x:v>
       </x:c>
       <x:c r="D210" t="str">
-        <x:v>aec9b581-90e3-4fb8-b8e1-a881e95b2cef</x:v>
+        <x:v>8bb942fd-8963-4163-85c0-e4c2d251546e</x:v>
       </x:c>
       <x:c r="E210" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5482,13 +5482,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B211" t="str">
-        <x:v>2c5fd630-5712-4f30-9f56-3c70161baf18</x:v>
+        <x:v>b219e881-7fa3-4981-98cf-326f07219b0e</x:v>
       </x:c>
       <x:c r="C211" t="str">
-        <x:v>CourseMath0101 - Sec1001Math</x:v>
+        <x:v>CourseMath0505 - Sec1005Math</x:v>
       </x:c>
       <x:c r="D211" t="str">
-        <x:v>f344f253-2427-4173-bb8f-e1db30881532</x:v>
+        <x:v>51459bbe-ca90-4e76-bb8a-90bd43c53df6</x:v>
       </x:c>
       <x:c r="E211" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5508,13 +5508,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B212" t="str">
-        <x:v>2c5fd630-5712-4f30-9f56-3c70161baf18</x:v>
+        <x:v>b219e881-7fa3-4981-98cf-326f07219b0e</x:v>
       </x:c>
       <x:c r="C212" t="str">
-        <x:v>CourseMath0101 - Sec1001Math</x:v>
+        <x:v>CourseMath0505 - Sec1005Math</x:v>
       </x:c>
       <x:c r="D212" t="str">
-        <x:v>f344f253-2427-4173-bb8f-e1db30881532</x:v>
+        <x:v>51459bbe-ca90-4e76-bb8a-90bd43c53df6</x:v>
       </x:c>
       <x:c r="E212" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5534,13 +5534,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B213" t="str">
-        <x:v>f9357bf0-f025-44fc-94b7-69aeae0b1e8b</x:v>
+        <x:v>de70d73f-418a-4f25-a219-37e41938244f</x:v>
       </x:c>
       <x:c r="C213" t="str">
-        <x:v>CourseMath0101 - Sec1101Math</x:v>
+        <x:v>CourseMath0505 - Sec1105Math</x:v>
       </x:c>
       <x:c r="D213" t="str">
-        <x:v>d7326347-ddcd-4252-9b2c-b341405244b3</x:v>
+        <x:v>3d3f0b6b-f031-4436-8a72-ecc94a799823</x:v>
       </x:c>
       <x:c r="E213" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5560,13 +5560,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B214" t="str">
-        <x:v>f9357bf0-f025-44fc-94b7-69aeae0b1e8b</x:v>
+        <x:v>de70d73f-418a-4f25-a219-37e41938244f</x:v>
       </x:c>
       <x:c r="C214" t="str">
-        <x:v>CourseMath0101 - Sec1101Math</x:v>
+        <x:v>CourseMath0505 - Sec1105Math</x:v>
       </x:c>
       <x:c r="D214" t="str">
-        <x:v>d7326347-ddcd-4252-9b2c-b341405244b3</x:v>
+        <x:v>3d3f0b6b-f031-4436-8a72-ecc94a799823</x:v>
       </x:c>
       <x:c r="E214" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5586,13 +5586,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B215" t="str">
-        <x:v>39679ce6-e102-4089-982b-5dd455717ff9</x:v>
+        <x:v>bd6e987e-ba56-45b4-a41f-7d4e55757f0b</x:v>
       </x:c>
       <x:c r="C215" t="str">
-        <x:v>CourseMath0101 - Sec1201Math</x:v>
+        <x:v>CourseMath0505 - Sec1205Math</x:v>
       </x:c>
       <x:c r="D215" t="str">
-        <x:v>69497e69-445c-46f0-92f1-a634dbe5e4aa</x:v>
+        <x:v>6a09b23e-fee1-4b8e-89ff-4c1480048a78</x:v>
       </x:c>
       <x:c r="E215" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5612,13 +5612,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B216" t="str">
-        <x:v>39679ce6-e102-4089-982b-5dd455717ff9</x:v>
+        <x:v>bd6e987e-ba56-45b4-a41f-7d4e55757f0b</x:v>
       </x:c>
       <x:c r="C216" t="str">
-        <x:v>CourseMath0101 - Sec1201Math</x:v>
+        <x:v>CourseMath0505 - Sec1205Math</x:v>
       </x:c>
       <x:c r="D216" t="str">
-        <x:v>69497e69-445c-46f0-92f1-a634dbe5e4aa</x:v>
+        <x:v>6a09b23e-fee1-4b8e-89ff-4c1480048a78</x:v>
       </x:c>
       <x:c r="E216" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5638,13 +5638,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B217" t="str">
-        <x:v>82e30d13-c311-4109-a243-52b759ba0008</x:v>
+        <x:v>c27f4000-9475-4960-b74f-444928c923aa</x:v>
       </x:c>
       <x:c r="C217" t="str">
-        <x:v>CourseMath0101 - Sec1301Math</x:v>
+        <x:v>CourseMath0505 - Sec1305Math</x:v>
       </x:c>
       <x:c r="D217" t="str">
-        <x:v>c016f6b7-7f8e-4836-be9c-0a7efb75507c</x:v>
+        <x:v>e8b4e2ba-f460-458f-8752-02c1ede85089</x:v>
       </x:c>
       <x:c r="E217" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5664,13 +5664,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B218" t="str">
-        <x:v>82e30d13-c311-4109-a243-52b759ba0008</x:v>
+        <x:v>c27f4000-9475-4960-b74f-444928c923aa</x:v>
       </x:c>
       <x:c r="C218" t="str">
-        <x:v>CourseMath0101 - Sec1301Math</x:v>
+        <x:v>CourseMath0505 - Sec1305Math</x:v>
       </x:c>
       <x:c r="D218" t="str">
-        <x:v>c016f6b7-7f8e-4836-be9c-0a7efb75507c</x:v>
+        <x:v>e8b4e2ba-f460-458f-8752-02c1ede85089</x:v>
       </x:c>
       <x:c r="E218" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5690,13 +5690,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B219" t="str">
-        <x:v>3ccbd7d1-8c7b-4fed-908f-fca015272de8</x:v>
+        <x:v>f8f01479-4425-4451-a27c-8a1cb715e85b</x:v>
       </x:c>
       <x:c r="C219" t="str">
-        <x:v>CourseMath0101 - Sec1401Math</x:v>
+        <x:v>CourseMath0505 - Sec1405Math</x:v>
       </x:c>
       <x:c r="D219" t="str">
-        <x:v>39500970-2495-4e31-b831-c761c324ae16</x:v>
+        <x:v>f7d4c1ad-77f2-4495-af10-e07593bb3173</x:v>
       </x:c>
       <x:c r="E219" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5716,13 +5716,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B220" t="str">
-        <x:v>3ccbd7d1-8c7b-4fed-908f-fca015272de8</x:v>
+        <x:v>f8f01479-4425-4451-a27c-8a1cb715e85b</x:v>
       </x:c>
       <x:c r="C220" t="str">
-        <x:v>CourseMath0101 - Sec1401Math</x:v>
+        <x:v>CourseMath0505 - Sec1405Math</x:v>
       </x:c>
       <x:c r="D220" t="str">
-        <x:v>39500970-2495-4e31-b831-c761c324ae16</x:v>
+        <x:v>f7d4c1ad-77f2-4495-af10-e07593bb3173</x:v>
       </x:c>
       <x:c r="E220" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5742,13 +5742,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B221" t="str">
-        <x:v>5a42b2d0-1cfd-44a7-a4ef-5dfa064b5f75</x:v>
+        <x:v>c90d2e9d-1cd6-402f-ac38-fa0cd016f48d</x:v>
       </x:c>
       <x:c r="C221" t="str">
-        <x:v>CourseMath0101 - Sec1501Math</x:v>
+        <x:v>CourseMath0505 - Sec1505Math</x:v>
       </x:c>
       <x:c r="D221" t="str">
-        <x:v>a1581254-0910-47ff-8010-1476ee6ff71a</x:v>
+        <x:v>af70eeae-441d-492b-b885-e2c51714a167</x:v>
       </x:c>
       <x:c r="E221" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5768,13 +5768,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B222" t="str">
-        <x:v>5a42b2d0-1cfd-44a7-a4ef-5dfa064b5f75</x:v>
+        <x:v>c90d2e9d-1cd6-402f-ac38-fa0cd016f48d</x:v>
       </x:c>
       <x:c r="C222" t="str">
-        <x:v>CourseMath0101 - Sec1501Math</x:v>
+        <x:v>CourseMath0505 - Sec1505Math</x:v>
       </x:c>
       <x:c r="D222" t="str">
-        <x:v>a1581254-0910-47ff-8010-1476ee6ff71a</x:v>
+        <x:v>af70eeae-441d-492b-b885-e2c51714a167</x:v>
       </x:c>
       <x:c r="E222" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5794,13 +5794,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B223" t="str">
-        <x:v/>
+        <x:v>41c46d5c-8a12-479c-98c9-1cdce2e7b1d2</x:v>
       </x:c>
       <x:c r="C223" t="str">
-        <x:v>CourseMath0101 - Sec1601Math</x:v>
+        <x:v>CourseMath0505 - Sec1605Math</x:v>
       </x:c>
       <x:c r="D223" t="str">
-        <x:v>3c975ce7-d94c-4f88-b651-be164a27d8ef</x:v>
+        <x:v>7f93416a-2559-489f-84da-08c568baca49</x:v>
       </x:c>
       <x:c r="E223" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5820,13 +5820,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B224" t="str">
-        <x:v>1533019b-9bf3-4529-85e8-52bbf7fc4f01</x:v>
+        <x:v>41c46d5c-8a12-479c-98c9-1cdce2e7b1d2</x:v>
       </x:c>
       <x:c r="C224" t="str">
-        <x:v>CourseMath0101 - Sec1601Math</x:v>
+        <x:v>CourseMath0505 - Sec1605Math</x:v>
       </x:c>
       <x:c r="D224" t="str">
-        <x:v>3c975ce7-d94c-4f88-b651-be164a27d8ef</x:v>
+        <x:v>7f93416a-2559-489f-84da-08c568baca49</x:v>
       </x:c>
       <x:c r="E224" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5846,13 +5846,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B225" t="str">
-        <x:v>c85da821-76ed-4957-9f76-822fbf311bf4</x:v>
+        <x:v>ff2f0d82-d537-45c5-a26a-bcfcc7ead61a</x:v>
       </x:c>
       <x:c r="C225" t="str">
-        <x:v>CourseMath0101 - Sec1701Math</x:v>
+        <x:v>CourseMath0505 - Sec1705Math</x:v>
       </x:c>
       <x:c r="D225" t="str">
-        <x:v>4e5822a6-7a26-44c0-bb07-0269b12fcb9b</x:v>
+        <x:v>7b1cef35-897e-4b8b-8912-34f18451eaea</x:v>
       </x:c>
       <x:c r="E225" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5872,13 +5872,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B226" t="str">
-        <x:v>c85da821-76ed-4957-9f76-822fbf311bf4</x:v>
+        <x:v>ff2f0d82-d537-45c5-a26a-bcfcc7ead61a</x:v>
       </x:c>
       <x:c r="C226" t="str">
-        <x:v>CourseMath0101 - Sec1701Math</x:v>
+        <x:v>CourseMath0505 - Sec1705Math</x:v>
       </x:c>
       <x:c r="D226" t="str">
-        <x:v>4e5822a6-7a26-44c0-bb07-0269b12fcb9b</x:v>
+        <x:v>7b1cef35-897e-4b8b-8912-34f18451eaea</x:v>
       </x:c>
       <x:c r="E226" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5898,13 +5898,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B227" t="str">
-        <x:v>e1d3512a-c2c9-474f-902c-06e8ba72b48a</x:v>
+        <x:v>bff073e1-5564-48e0-8d33-bab998730fd2</x:v>
       </x:c>
       <x:c r="C227" t="str">
-        <x:v>CourseMath0101 - Sec1801Math</x:v>
+        <x:v>CourseMath0505 - Sec1805Math</x:v>
       </x:c>
       <x:c r="D227" t="str">
-        <x:v>d7148445-853a-4196-985b-099d95acda88</x:v>
+        <x:v>9be30f4a-ee4e-4d6c-8504-3662b9fedb64</x:v>
       </x:c>
       <x:c r="E227" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5924,13 +5924,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B228" t="str">
-        <x:v>e1d3512a-c2c9-474f-902c-06e8ba72b48a</x:v>
+        <x:v>bff073e1-5564-48e0-8d33-bab998730fd2</x:v>
       </x:c>
       <x:c r="C228" t="str">
-        <x:v>CourseMath0101 - Sec1801Math</x:v>
+        <x:v>CourseMath0505 - Sec1805Math</x:v>
       </x:c>
       <x:c r="D228" t="str">
-        <x:v>d7148445-853a-4196-985b-099d95acda88</x:v>
+        <x:v>9be30f4a-ee4e-4d6c-8504-3662b9fedb64</x:v>
       </x:c>
       <x:c r="E228" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5950,13 +5950,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B229" t="str">
-        <x:v>8adfd36e-e7a0-41cf-b1bc-a423b68bdc09</x:v>
+        <x:v>06b8f224-0276-46de-a392-05dd7d7957b7</x:v>
       </x:c>
       <x:c r="C229" t="str">
-        <x:v>CourseMath0101 - Sec1901Math</x:v>
+        <x:v>CourseMath0505 - Sec1905Math</x:v>
       </x:c>
       <x:c r="D229" t="str">
-        <x:v>b7b0b4c5-6e47-4c86-be08-af0f4972f574</x:v>
+        <x:v>f50eeb93-a981-488c-95bf-ff30887e4fa4</x:v>
       </x:c>
       <x:c r="E229" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -5976,13 +5976,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B230" t="str">
-        <x:v>8adfd36e-e7a0-41cf-b1bc-a423b68bdc09</x:v>
+        <x:v>06b8f224-0276-46de-a392-05dd7d7957b7</x:v>
       </x:c>
       <x:c r="C230" t="str">
-        <x:v>CourseMath0101 - Sec1901Math</x:v>
+        <x:v>CourseMath0505 - Sec1905Math</x:v>
       </x:c>
       <x:c r="D230" t="str">
-        <x:v>b7b0b4c5-6e47-4c86-be08-af0f4972f574</x:v>
+        <x:v>f50eeb93-a981-488c-95bf-ff30887e4fa4</x:v>
       </x:c>
       <x:c r="E230" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6002,13 +6002,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B231" t="str">
-        <x:v>d9b44531-2e0f-419b-b414-4d98b18ddaba</x:v>
+        <x:v>943de8f1-b534-497f-8d76-a76767044e74</x:v>
       </x:c>
       <x:c r="C231" t="str">
-        <x:v>CourseMath0101 - Sec2001Math</x:v>
+        <x:v>CourseMath0505 - Sec2005Math</x:v>
       </x:c>
       <x:c r="D231" t="str">
-        <x:v>0f6646f9-052e-439c-b3df-fb3d32b34ad7</x:v>
+        <x:v>4f8cd703-0282-47cb-ac91-ef9afa9bc4c3</x:v>
       </x:c>
       <x:c r="E231" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6028,13 +6028,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B232" t="str">
-        <x:v>d9b44531-2e0f-419b-b414-4d98b18ddaba</x:v>
+        <x:v>943de8f1-b534-497f-8d76-a76767044e74</x:v>
       </x:c>
       <x:c r="C232" t="str">
-        <x:v>CourseMath0101 - Sec2001Math</x:v>
+        <x:v>CourseMath0505 - Sec2005Math</x:v>
       </x:c>
       <x:c r="D232" t="str">
-        <x:v>0f6646f9-052e-439c-b3df-fb3d32b34ad7</x:v>
+        <x:v>4f8cd703-0282-47cb-ac91-ef9afa9bc4c3</x:v>
       </x:c>
       <x:c r="E232" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6054,13 +6054,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B233" t="str">
-        <x:v>88a0116f-ff9d-4eff-938e-d0ebe0cd64c2</x:v>
+        <x:v>02d63fe1-410e-4dc5-9b32-c03dcc71d7b2</x:v>
       </x:c>
       <x:c r="C233" t="str">
-        <x:v>CourseMath0101 - Sec2101Math</x:v>
+        <x:v>CourseMath0505 - Sec2105Math</x:v>
       </x:c>
       <x:c r="D233" t="str">
-        <x:v>0b7fdbbb-ae6e-449e-b30d-d72d3e6a56cd</x:v>
+        <x:v>25cfd06b-21cc-4a72-a0e2-8ff379083240</x:v>
       </x:c>
       <x:c r="E233" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6080,13 +6080,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B234" t="str">
-        <x:v>88a0116f-ff9d-4eff-938e-d0ebe0cd64c2</x:v>
+        <x:v>02d63fe1-410e-4dc5-9b32-c03dcc71d7b2</x:v>
       </x:c>
       <x:c r="C234" t="str">
-        <x:v>CourseMath0101 - Sec2101Math</x:v>
+        <x:v>CourseMath0505 - Sec2105Math</x:v>
       </x:c>
       <x:c r="D234" t="str">
-        <x:v>0b7fdbbb-ae6e-449e-b30d-d72d3e6a56cd</x:v>
+        <x:v>25cfd06b-21cc-4a72-a0e2-8ff379083240</x:v>
       </x:c>
       <x:c r="E234" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6106,13 +6106,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B235" t="str">
-        <x:v>80bfd982-fdc8-4999-ac51-b3b0621eace3</x:v>
+        <x:v>41381c2f-9969-42fb-b147-ca19882e8406</x:v>
       </x:c>
       <x:c r="C235" t="str">
-        <x:v>CourseMath0101 - Sec2201Math</x:v>
+        <x:v>CourseMath0505 - Sec2205Math</x:v>
       </x:c>
       <x:c r="D235" t="str">
-        <x:v>6f040c45-d83f-4031-bdeb-df45d1bb509f</x:v>
+        <x:v>ddd787f6-b48c-466d-9be5-1ab1a39b1f0d</x:v>
       </x:c>
       <x:c r="E235" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6132,13 +6132,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B236" t="str">
-        <x:v>80bfd982-fdc8-4999-ac51-b3b0621eace3</x:v>
+        <x:v>41381c2f-9969-42fb-b147-ca19882e8406</x:v>
       </x:c>
       <x:c r="C236" t="str">
-        <x:v>CourseMath0101 - Sec2201Math</x:v>
+        <x:v>CourseMath0505 - Sec2205Math</x:v>
       </x:c>
       <x:c r="D236" t="str">
-        <x:v>6f040c45-d83f-4031-bdeb-df45d1bb509f</x:v>
+        <x:v>ddd787f6-b48c-466d-9be5-1ab1a39b1f0d</x:v>
       </x:c>
       <x:c r="E236" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6158,13 +6158,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B237" t="str">
-        <x:v>984d21ba-f76c-49ab-9129-1b4aa7ee7564</x:v>
+        <x:v>76f097da-f571-4ad3-a663-78248ca535ad</x:v>
       </x:c>
       <x:c r="C237" t="str">
-        <x:v>CourseMath0101 - Sec2301Math</x:v>
+        <x:v>CourseMath0505 - Sec2305Math</x:v>
       </x:c>
       <x:c r="D237" t="str">
-        <x:v>8e2ebd16-3928-4e70-88bd-7ad6725f264b</x:v>
+        <x:v>72fed2fe-33ed-4629-8e8e-37d414828bef</x:v>
       </x:c>
       <x:c r="E237" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6184,13 +6184,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B238" t="str">
-        <x:v>984d21ba-f76c-49ab-9129-1b4aa7ee7564</x:v>
+        <x:v>76f097da-f571-4ad3-a663-78248ca535ad</x:v>
       </x:c>
       <x:c r="C238" t="str">
-        <x:v>CourseMath0101 - Sec2301Math</x:v>
+        <x:v>CourseMath0505 - Sec2305Math</x:v>
       </x:c>
       <x:c r="D238" t="str">
-        <x:v>8e2ebd16-3928-4e70-88bd-7ad6725f264b</x:v>
+        <x:v>72fed2fe-33ed-4629-8e8e-37d414828bef</x:v>
       </x:c>
       <x:c r="E238" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6210,13 +6210,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B239" t="str">
-        <x:v>454105f8-4454-4f9d-b442-861471d8b61d</x:v>
+        <x:v>928d5f81-66cf-45b8-8f14-377e5e143e78</x:v>
       </x:c>
       <x:c r="C239" t="str">
-        <x:v>CourseMath0101 - Sec2401Math</x:v>
+        <x:v>CourseMath0505 - Sec2405Math</x:v>
       </x:c>
       <x:c r="D239" t="str">
-        <x:v>8b8277dc-23ac-4dad-90d9-250907cb7c60</x:v>
+        <x:v>aadb17bc-8ac1-4e8a-9dda-d2da6ff11f62</x:v>
       </x:c>
       <x:c r="E239" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6236,13 +6236,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B240" t="str">
-        <x:v>454105f8-4454-4f9d-b442-861471d8b61d</x:v>
+        <x:v>928d5f81-66cf-45b8-8f14-377e5e143e78</x:v>
       </x:c>
       <x:c r="C240" t="str">
-        <x:v>CourseMath0101 - Sec2401Math</x:v>
+        <x:v>CourseMath0505 - Sec2405Math</x:v>
       </x:c>
       <x:c r="D240" t="str">
-        <x:v>8b8277dc-23ac-4dad-90d9-250907cb7c60</x:v>
+        <x:v>aadb17bc-8ac1-4e8a-9dda-d2da6ff11f62</x:v>
       </x:c>
       <x:c r="E240" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6262,13 +6262,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B241" t="str">
-        <x:v>918bf577-c5e0-4688-8820-d82a7ef9ebae</x:v>
+        <x:v>f1eb8a81-99fa-4716-858f-a22ac2488626</x:v>
       </x:c>
       <x:c r="C241" t="str">
-        <x:v>CourseMath0101 - Sec2501Math</x:v>
+        <x:v>CourseMath0505 - Sec2505Math</x:v>
       </x:c>
       <x:c r="D241" t="str">
-        <x:v>da110ef3-a1c3-465c-b654-2948ed1836ab</x:v>
+        <x:v>2388fa74-ecce-4be8-8f91-2ad8a70c74df</x:v>
       </x:c>
       <x:c r="E241" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6288,13 +6288,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B242" t="str">
-        <x:v>918bf577-c5e0-4688-8820-d82a7ef9ebae</x:v>
+        <x:v>f1eb8a81-99fa-4716-858f-a22ac2488626</x:v>
       </x:c>
       <x:c r="C242" t="str">
-        <x:v>CourseMath0101 - Sec2501Math</x:v>
+        <x:v>CourseMath0505 - Sec2505Math</x:v>
       </x:c>
       <x:c r="D242" t="str">
-        <x:v>da110ef3-a1c3-465c-b654-2948ed1836ab</x:v>
+        <x:v>2388fa74-ecce-4be8-8f91-2ad8a70c74df</x:v>
       </x:c>
       <x:c r="E242" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6314,13 +6314,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B243" t="str">
-        <x:v>1235b90e-c236-4830-a82a-93f03cd18e2c</x:v>
+        <x:v>8b3a933a-bd3d-4357-92d2-9cd91dd37c7a</x:v>
       </x:c>
       <x:c r="C243" t="str">
-        <x:v>CourseMath0101 - Sec2601Math</x:v>
+        <x:v>CourseMath0505 - Sec2605Math</x:v>
       </x:c>
       <x:c r="D243" t="str">
-        <x:v>e01b3dd5-3230-4a2f-a748-f36b4ef5460a</x:v>
+        <x:v>aa8c8e2a-28e5-46f2-b3cc-7873d4f06cc9</x:v>
       </x:c>
       <x:c r="E243" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6340,13 +6340,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B244" t="str">
-        <x:v>1235b90e-c236-4830-a82a-93f03cd18e2c</x:v>
+        <x:v>8b3a933a-bd3d-4357-92d2-9cd91dd37c7a</x:v>
       </x:c>
       <x:c r="C244" t="str">
-        <x:v>CourseMath0101 - Sec2601Math</x:v>
+        <x:v>CourseMath0505 - Sec2605Math</x:v>
       </x:c>
       <x:c r="D244" t="str">
-        <x:v>e01b3dd5-3230-4a2f-a748-f36b4ef5460a</x:v>
+        <x:v>aa8c8e2a-28e5-46f2-b3cc-7873d4f06cc9</x:v>
       </x:c>
       <x:c r="E244" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6366,13 +6366,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B245" t="str">
-        <x:v>2a79229b-8058-40de-b7a5-0ece04844335</x:v>
+        <x:v>d9ab339c-a646-49c1-aa06-ed87b8c8551d</x:v>
       </x:c>
       <x:c r="C245" t="str">
-        <x:v>CourseMath0101 - Sec2701Math</x:v>
+        <x:v>CourseMath0505 - Sec2705Math</x:v>
       </x:c>
       <x:c r="D245" t="str">
-        <x:v>17456385-192c-4307-a4db-711cec5f968c</x:v>
+        <x:v>efdb37d5-9c26-4692-ac45-f6eff72e57c4</x:v>
       </x:c>
       <x:c r="E245" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6392,13 +6392,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B246" t="str">
-        <x:v>2a79229b-8058-40de-b7a5-0ece04844335</x:v>
+        <x:v>d9ab339c-a646-49c1-aa06-ed87b8c8551d</x:v>
       </x:c>
       <x:c r="C246" t="str">
-        <x:v>CourseMath0101 - Sec2701Math</x:v>
+        <x:v>CourseMath0505 - Sec2705Math</x:v>
       </x:c>
       <x:c r="D246" t="str">
-        <x:v>17456385-192c-4307-a4db-711cec5f968c</x:v>
+        <x:v>efdb37d5-9c26-4692-ac45-f6eff72e57c4</x:v>
       </x:c>
       <x:c r="E246" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6418,13 +6418,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B247" t="str">
-        <x:v>3e090e1c-ec68-46ac-8921-ee118dd2afee</x:v>
+        <x:v>08c8017c-3c93-49af-bc8e-023335aedce8</x:v>
       </x:c>
       <x:c r="C247" t="str">
-        <x:v>CourseMath0101 - Sec2801Math</x:v>
+        <x:v>CourseMath0505 - Sec2805Math</x:v>
       </x:c>
       <x:c r="D247" t="str">
-        <x:v>1ae49dab-08e0-452e-a78a-899754fc2724</x:v>
+        <x:v>dfa5b10b-c063-45a2-883c-89cab8cbd2be</x:v>
       </x:c>
       <x:c r="E247" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6444,13 +6444,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B248" t="str">
-        <x:v>3e090e1c-ec68-46ac-8921-ee118dd2afee</x:v>
+        <x:v>08c8017c-3c93-49af-bc8e-023335aedce8</x:v>
       </x:c>
       <x:c r="C248" t="str">
-        <x:v>CourseMath0101 - Sec2801Math</x:v>
+        <x:v>CourseMath0505 - Sec2805Math</x:v>
       </x:c>
       <x:c r="D248" t="str">
-        <x:v>1ae49dab-08e0-452e-a78a-899754fc2724</x:v>
+        <x:v>dfa5b10b-c063-45a2-883c-89cab8cbd2be</x:v>
       </x:c>
       <x:c r="E248" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6470,13 +6470,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B249" t="str">
-        <x:v>c1bd8a47-7467-459e-a566-c76cbcf3c4ea</x:v>
+        <x:v>8dee835a-e981-4bce-b490-85e971cb2873</x:v>
       </x:c>
       <x:c r="C249" t="str">
-        <x:v>CourseMath0101 - Sec2901Math</x:v>
+        <x:v>CourseMath0505 - Sec2905Math</x:v>
       </x:c>
       <x:c r="D249" t="str">
-        <x:v>cc680ccf-35eb-4f24-8bb4-17805d0aa92e</x:v>
+        <x:v>4bcb7536-3126-4ce9-93fc-5805b3178347</x:v>
       </x:c>
       <x:c r="E249" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6496,13 +6496,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B250" t="str">
-        <x:v>c1bd8a47-7467-459e-a566-c76cbcf3c4ea</x:v>
+        <x:v>8dee835a-e981-4bce-b490-85e971cb2873</x:v>
       </x:c>
       <x:c r="C250" t="str">
-        <x:v>CourseMath0101 - Sec2901Math</x:v>
+        <x:v>CourseMath0505 - Sec2905Math</x:v>
       </x:c>
       <x:c r="D250" t="str">
-        <x:v>cc680ccf-35eb-4f24-8bb4-17805d0aa92e</x:v>
+        <x:v>4bcb7536-3126-4ce9-93fc-5805b3178347</x:v>
       </x:c>
       <x:c r="E250" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6522,13 +6522,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B251" t="str">
-        <x:v>3ac03fcf-946c-4a8b-a3d4-5f613566481f</x:v>
+        <x:v>a1c95018-1a14-480e-95d9-8eeedc7f6489</x:v>
       </x:c>
       <x:c r="C251" t="str">
-        <x:v>CourseMath0101 - Sec3001Math</x:v>
+        <x:v>CourseMath0505 - Sec3005Math</x:v>
       </x:c>
       <x:c r="D251" t="str">
-        <x:v>781d1aa3-5c31-4db7-8aca-af4afaeaae38</x:v>
+        <x:v>000b3e6d-8845-4581-9003-95e382a3777b</x:v>
       </x:c>
       <x:c r="E251" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6548,13 +6548,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B252" t="str">
-        <x:v>3ac03fcf-946c-4a8b-a3d4-5f613566481f</x:v>
+        <x:v>a1c95018-1a14-480e-95d9-8eeedc7f6489</x:v>
       </x:c>
       <x:c r="C252" t="str">
-        <x:v>CourseMath0101 - Sec3001Math</x:v>
+        <x:v>CourseMath0505 - Sec3005Math</x:v>
       </x:c>
       <x:c r="D252" t="str">
-        <x:v>781d1aa3-5c31-4db7-8aca-af4afaeaae38</x:v>
+        <x:v>000b3e6d-8845-4581-9003-95e382a3777b</x:v>
       </x:c>
       <x:c r="E252" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6574,13 +6574,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B253" t="str">
-        <x:v>f557f4cb-f8b1-480f-9d69-e447e3d41515</x:v>
+        <x:v>04d2eb7d-10b8-4dfa-a0d9-4d008a64ea64</x:v>
       </x:c>
       <x:c r="C253" t="str">
-        <x:v>CourseMath0101 - Sec3101Math</x:v>
+        <x:v>CourseMath0505 - Sec3105Math</x:v>
       </x:c>
       <x:c r="D253" t="str">
-        <x:v>c87ea4db-9f2a-4adf-ae2f-18ce22884356</x:v>
+        <x:v>e6e3fb16-3279-4137-984a-72a5ed179e41</x:v>
       </x:c>
       <x:c r="E253" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6600,13 +6600,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B254" t="str">
-        <x:v>f557f4cb-f8b1-480f-9d69-e447e3d41515</x:v>
+        <x:v>04d2eb7d-10b8-4dfa-a0d9-4d008a64ea64</x:v>
       </x:c>
       <x:c r="C254" t="str">
-        <x:v>CourseMath0101 - Sec3101Math</x:v>
+        <x:v>CourseMath0505 - Sec3105Math</x:v>
       </x:c>
       <x:c r="D254" t="str">
-        <x:v>c87ea4db-9f2a-4adf-ae2f-18ce22884356</x:v>
+        <x:v>e6e3fb16-3279-4137-984a-72a5ed179e41</x:v>
       </x:c>
       <x:c r="E254" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6626,13 +6626,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B255" t="str">
-        <x:v>7060c51c-5ac1-4222-b94d-8c2426833aa0</x:v>
+        <x:v>802cf360-9241-4cbd-aa4f-fb94dad133d4</x:v>
       </x:c>
       <x:c r="C255" t="str">
-        <x:v>CourseMath0101 - Sec3201Math</x:v>
+        <x:v>CourseMath0505 - Sec3205Math</x:v>
       </x:c>
       <x:c r="D255" t="str">
-        <x:v>fb480bc5-7379-4ce8-80d5-1b0326cd69ad</x:v>
+        <x:v>3b9646f4-54d2-44db-97b4-690ad85199f4</x:v>
       </x:c>
       <x:c r="E255" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6644,7 +6644,7 @@
         <x:v>Learning Analytics</x:v>
       </x:c>
       <x:c r="H255" t="n">
-        <x:v>42321.2492013889</x:v>
+        <x:v>42321.249212963</x:v>
       </x:c>
     </x:row>
     <x:row r="256">
@@ -6652,13 +6652,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B256" t="str">
-        <x:v>7060c51c-5ac1-4222-b94d-8c2426833aa0</x:v>
+        <x:v>802cf360-9241-4cbd-aa4f-fb94dad133d4</x:v>
       </x:c>
       <x:c r="C256" t="str">
-        <x:v>CourseMath0101 - Sec3201Math</x:v>
+        <x:v>CourseMath0505 - Sec3205Math</x:v>
       </x:c>
       <x:c r="D256" t="str">
-        <x:v>fb480bc5-7379-4ce8-80d5-1b0326cd69ad</x:v>
+        <x:v>3b9646f4-54d2-44db-97b4-690ad85199f4</x:v>
       </x:c>
       <x:c r="E256" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6678,13 +6678,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B257" t="str">
-        <x:v>cb3d01ec-394a-415f-8103-57dab3701bf2</x:v>
+        <x:v>42b6e553-3b9b-48d5-aafa-403da0c28923</x:v>
       </x:c>
       <x:c r="C257" t="str">
-        <x:v>CourseMath0101 - Sec3301Math</x:v>
+        <x:v>CourseMath0505 - Sec3305Math</x:v>
       </x:c>
       <x:c r="D257" t="str">
-        <x:v>b0d8f190-ea47-4d88-92e5-2be080bb082e</x:v>
+        <x:v>2d2a5d22-3012-429e-ad88-390d3e6f2a59</x:v>
       </x:c>
       <x:c r="E257" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6704,13 +6704,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B258" t="str">
-        <x:v>cb3d01ec-394a-415f-8103-57dab3701bf2</x:v>
+        <x:v>42b6e553-3b9b-48d5-aafa-403da0c28923</x:v>
       </x:c>
       <x:c r="C258" t="str">
-        <x:v>CourseMath0101 - Sec3301Math</x:v>
+        <x:v>CourseMath0505 - Sec3305Math</x:v>
       </x:c>
       <x:c r="D258" t="str">
-        <x:v>b0d8f190-ea47-4d88-92e5-2be080bb082e</x:v>
+        <x:v>2d2a5d22-3012-429e-ad88-390d3e6f2a59</x:v>
       </x:c>
       <x:c r="E258" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6730,13 +6730,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B259" t="str">
-        <x:v>08f6f48a-2ed4-49dd-bbe8-cb325861a605</x:v>
+        <x:v>d05c2fbc-7b0a-4a3d-a7c0-e3ea5d93388c</x:v>
       </x:c>
       <x:c r="C259" t="str">
-        <x:v>CourseMath0101 - Sec3401Math</x:v>
+        <x:v>CourseMath0505 - Sec3405Math</x:v>
       </x:c>
       <x:c r="D259" t="str">
-        <x:v>ba06f839-a300-47c7-a062-289abca4d1d6</x:v>
+        <x:v>88d4510b-6858-4c88-9f52-ebfa648094a4</x:v>
       </x:c>
       <x:c r="E259" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6756,13 +6756,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B260" t="str">
-        <x:v>08f6f48a-2ed4-49dd-bbe8-cb325861a605</x:v>
+        <x:v>d05c2fbc-7b0a-4a3d-a7c0-e3ea5d93388c</x:v>
       </x:c>
       <x:c r="C260" t="str">
-        <x:v>CourseMath0101 - Sec3401Math</x:v>
+        <x:v>CourseMath0505 - Sec3405Math</x:v>
       </x:c>
       <x:c r="D260" t="str">
-        <x:v>ba06f839-a300-47c7-a062-289abca4d1d6</x:v>
+        <x:v>88d4510b-6858-4c88-9f52-ebfa648094a4</x:v>
       </x:c>
       <x:c r="E260" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6782,13 +6782,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B261" t="str">
-        <x:v>431381d7-c7eb-4f62-a6bf-59a724bc9bde</x:v>
+        <x:v>ca01372a-8f97-4d8e-9ce9-a75f06b9eb92</x:v>
       </x:c>
       <x:c r="C261" t="str">
-        <x:v>CourseMath0101 - Sec3501Math</x:v>
+        <x:v>CourseMath0505 - Sec3505Math</x:v>
       </x:c>
       <x:c r="D261" t="str">
-        <x:v>6f88594b-5a07-4a7c-a0ce-55d651d37da0</x:v>
+        <x:v>04075f5d-d8e2-402e-8c20-289f098524e4</x:v>
       </x:c>
       <x:c r="E261" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6808,13 +6808,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B262" t="str">
-        <x:v>431381d7-c7eb-4f62-a6bf-59a724bc9bde</x:v>
+        <x:v>ca01372a-8f97-4d8e-9ce9-a75f06b9eb92</x:v>
       </x:c>
       <x:c r="C262" t="str">
-        <x:v>CourseMath0101 - Sec3501Math</x:v>
+        <x:v>CourseMath0505 - Sec3505Math</x:v>
       </x:c>
       <x:c r="D262" t="str">
-        <x:v>6f88594b-5a07-4a7c-a0ce-55d651d37da0</x:v>
+        <x:v>04075f5d-d8e2-402e-8c20-289f098524e4</x:v>
       </x:c>
       <x:c r="E262" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6834,13 +6834,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B263" t="str">
-        <x:v>61d9f60f-60f5-40d8-9f61-48c676eb442f</x:v>
+        <x:v>9ab5047a-65ff-4961-a6dc-c705ff635a43</x:v>
       </x:c>
       <x:c r="C263" t="str">
-        <x:v>CourseMath0101 - Sec4101MATH</x:v>
+        <x:v>CourseMath0505 - Sec4105MATH</x:v>
       </x:c>
       <x:c r="D263" t="str">
-        <x:v>9892aa4b-f900-4a8e-8a01-5413e3eef836</x:v>
+        <x:v>cb401127-c8db-4ade-a707-cd930b6a3be6</x:v>
       </x:c>
       <x:c r="E263" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6860,13 +6860,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B264" t="str">
-        <x:v>730d59a4-a32c-4ad3-a4f4-41e609e2d033</x:v>
+        <x:v>3c7f6ae6-83aa-4661-858f-f007dcc80c7b</x:v>
       </x:c>
       <x:c r="C264" t="str">
-        <x:v>CourseMath0101 - Sec4201MATH</x:v>
+        <x:v>CourseMath0505 - Sec4205MATH</x:v>
       </x:c>
       <x:c r="D264" t="str">
-        <x:v>6360b161-0ff0-4266-a3d5-c4e0c5bbaf5d</x:v>
+        <x:v>02145243-2765-4471-9c4e-7385947f3179</x:v>
       </x:c>
       <x:c r="E264" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6886,13 +6886,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B265" t="str">
-        <x:v>08b44c72-42f4-4bfb-a2de-a76cc601590e</x:v>
+        <x:v>7549ab79-a85f-449b-8c02-d1cd48fcc9b7</x:v>
       </x:c>
       <x:c r="C265" t="str">
-        <x:v>CourseMath0101 - Sec4301MATH</x:v>
+        <x:v>CourseMath0505 - Sec4305MATH</x:v>
       </x:c>
       <x:c r="D265" t="str">
-        <x:v>94f40571-ada9-49e1-ae19-83dd1135438e</x:v>
+        <x:v>8c94dd23-f0cf-4359-9804-be713f02cec7</x:v>
       </x:c>
       <x:c r="E265" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6912,13 +6912,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B266" t="str">
-        <x:v>822c1caa-8afb-4d05-ae09-06105e8adea3</x:v>
+        <x:v>2c40b370-4198-41cc-b30f-2c8707486550</x:v>
       </x:c>
       <x:c r="C266" t="str">
-        <x:v>CourseMath0101 - Sec4401MATH</x:v>
+        <x:v>CourseMath0505 - Sec4405MATH</x:v>
       </x:c>
       <x:c r="D266" t="str">
-        <x:v>29306534-2a0f-44db-b25f-5f975115bb52</x:v>
+        <x:v>026dd1f8-9fd6-4891-b9c9-406538eab783</x:v>
       </x:c>
       <x:c r="E266" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6938,13 +6938,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B267" t="str">
-        <x:v>77131a50-d257-4207-a585-050f374d2d78</x:v>
+        <x:v>691dfe75-3582-45ca-b983-40ca64baada8</x:v>
       </x:c>
       <x:c r="C267" t="str">
-        <x:v>CourseMath0101 - Sec4501MATH</x:v>
+        <x:v>CourseMath0505 - Sec4505MATH</x:v>
       </x:c>
       <x:c r="D267" t="str">
-        <x:v>89f3d07b-e706-4351-ab62-ed31b2a6f350</x:v>
+        <x:v>3dc749a7-3949-4ca4-b2e2-89df753dea87</x:v>
       </x:c>
       <x:c r="E267" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6964,13 +6964,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B268" t="str">
-        <x:v>e59c072f-096d-4cfc-8105-ee52016deee5</x:v>
+        <x:v>fb41e353-0d31-4f2f-b216-9746d6a14979</x:v>
       </x:c>
       <x:c r="C268" t="str">
-        <x:v>CourseMath0101 - Sec4601MATH</x:v>
+        <x:v>CourseMath0505 - Sec4605MATH</x:v>
       </x:c>
       <x:c r="D268" t="str">
-        <x:v>6985d2b4-8ff4-43e5-bd60-0384ed80d4b1</x:v>
+        <x:v>ad039e98-7077-47dc-9dac-df2b94951137</x:v>
       </x:c>
       <x:c r="E268" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -6990,13 +6990,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B269" t="str">
-        <x:v>53c0ff21-259e-4337-bd59-db7738cd75d4</x:v>
+        <x:v>45d8ee9b-e263-4117-9437-262ea675edc3</x:v>
       </x:c>
       <x:c r="C269" t="str">
-        <x:v>CourseMath0101 - Sec4701MATH</x:v>
+        <x:v>CourseMath0505 - Sec4705MATH</x:v>
       </x:c>
       <x:c r="D269" t="str">
-        <x:v>d5140a6f-51fe-4c28-bb74-150663e34ebd</x:v>
+        <x:v>149a95ad-2c38-4a55-957a-bf8633c4251f</x:v>
       </x:c>
       <x:c r="E269" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7016,13 +7016,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B270" t="str">
-        <x:v>706e9a95-adf6-4292-9755-4fbc37f6f0d4</x:v>
+        <x:v>5d9ca52c-73cb-4239-a465-06e1fcf89d0b</x:v>
       </x:c>
       <x:c r="C270" t="str">
-        <x:v>CourseMath0101 - Sec4801MATH</x:v>
+        <x:v>CourseMath0505 - Sec4805MATH</x:v>
       </x:c>
       <x:c r="D270" t="str">
-        <x:v>411727f6-b8fa-4aa2-aff3-d59f8f2aaf40</x:v>
+        <x:v>87eca55b-b155-47d8-9892-3f7f79fa8ab6</x:v>
       </x:c>
       <x:c r="E270" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7042,13 +7042,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B271" t="str">
-        <x:v>2b73b27e-2148-4e43-a704-bc54898aecb9</x:v>
+        <x:v>1554cd9e-8421-4511-88db-12b39332690f</x:v>
       </x:c>
       <x:c r="C271" t="str">
-        <x:v>CourseMath0101 - Sec4901MATH</x:v>
+        <x:v>CourseMath0505 - Sec4905MATH</x:v>
       </x:c>
       <x:c r="D271" t="str">
-        <x:v>54c84539-cc8d-470a-9676-f84a9e96d64c</x:v>
+        <x:v>7d80c98e-87fb-4f8f-b74e-da208995379b</x:v>
       </x:c>
       <x:c r="E271" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7068,13 +7068,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B272" t="str">
-        <x:v>03d61f24-796b-43ba-a3dc-48a178154c80</x:v>
+        <x:v>1d95efbd-e4b5-4520-82a6-44c0b7c9d23a</x:v>
       </x:c>
       <x:c r="C272" t="str">
-        <x:v>CourseMath0101 - Sec5001MATH</x:v>
+        <x:v>CourseMath0505 - Sec5005MATH</x:v>
       </x:c>
       <x:c r="D272" t="str">
-        <x:v>fdee50c2-0b88-4010-9a60-195ecc84e67c</x:v>
+        <x:v>e8be276f-a195-4866-9e53-db13dd74487e</x:v>
       </x:c>
       <x:c r="E272" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7094,13 +7094,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B273" t="str">
-        <x:v>908ebc26-902a-44e1-af7f-be171537c923</x:v>
+        <x:v>4cb4f72f-75ee-45fb-9cd4-540f1641cc52</x:v>
       </x:c>
       <x:c r="C273" t="str">
-        <x:v>CourseMath0101 - Sec5101MATH</x:v>
+        <x:v>CourseMath0505 - Sec5105MATH</x:v>
       </x:c>
       <x:c r="D273" t="str">
-        <x:v>3de06aca-8436-44d6-bfd8-0c83347acdd7</x:v>
+        <x:v>46b06b20-c6f1-4aaf-a8ac-4fed2a56f76b</x:v>
       </x:c>
       <x:c r="E273" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7120,13 +7120,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B274" t="str">
-        <x:v>aa2a13fd-a90a-4d46-aa78-8599b7c8147e</x:v>
+        <x:v>a65cf486-37d6-4b07-bac6-fbbe1dd6e56e</x:v>
       </x:c>
       <x:c r="C274" t="str">
-        <x:v>CourseMath0101 - Sec5201MATH</x:v>
+        <x:v>CourseMath0505 - Sec5205MATH</x:v>
       </x:c>
       <x:c r="D274" t="str">
-        <x:v>51729266-743b-40bd-bc50-cf036e554827</x:v>
+        <x:v>0189850a-2bfc-4e46-b916-ba01283ad862</x:v>
       </x:c>
       <x:c r="E274" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7146,13 +7146,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B275" t="str">
-        <x:v>b3506df5-bdf5-467c-9ec0-021615ab2b04</x:v>
+        <x:v>281e68f8-9a57-4ef3-9685-f2300603713e</x:v>
       </x:c>
       <x:c r="C275" t="str">
-        <x:v>CourseMath0101 - Sec5301MATH</x:v>
+        <x:v>CourseMath0505 - Sec5305MATH</x:v>
       </x:c>
       <x:c r="D275" t="str">
-        <x:v>bb8fab3f-9591-4580-9c0c-ee87f01349ab</x:v>
+        <x:v>0422317b-73ff-487e-80ed-0f80f2dd5c32</x:v>
       </x:c>
       <x:c r="E275" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7172,13 +7172,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B276" t="str">
-        <x:v>a34edbf0-4e0d-4e97-ad74-1e32e57526b1</x:v>
+        <x:v>da61a1ec-65ab-4819-8e27-13d8454dec08</x:v>
       </x:c>
       <x:c r="C276" t="str">
-        <x:v>CourseMath0101 - Sec5401MATH</x:v>
+        <x:v>CourseMath0505 - Sec5405MATH</x:v>
       </x:c>
       <x:c r="D276" t="str">
-        <x:v>c7ca74fa-a6f0-4cab-bdca-cc7530150936</x:v>
+        <x:v>20b14816-87fa-448d-957b-b0e4d3893345</x:v>
       </x:c>
       <x:c r="E276" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7198,13 +7198,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B277" t="str">
-        <x:v>08dd6c02-50f3-4684-ab41-f8227ed3038b</x:v>
+        <x:v>4717722b-51ae-4ba5-938e-fe44bd8aaf12</x:v>
       </x:c>
       <x:c r="C277" t="str">
-        <x:v>CourseMath0101 - Sec5501MATH</x:v>
+        <x:v>CourseMath0505 - Sec5505MATH</x:v>
       </x:c>
       <x:c r="D277" t="str">
-        <x:v>fc39e551-0e4d-457c-bb6f-6f2057166a8a</x:v>
+        <x:v>b78f7868-0c28-4161-919f-2034af169de5</x:v>
       </x:c>
       <x:c r="E277" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7224,13 +7224,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B278" t="str">
-        <x:v>d4443fc7-0006-4976-a66b-3c3d664b1142</x:v>
+        <x:v>ea2ae80b-b019-4c95-8692-88e7d897aca0</x:v>
       </x:c>
       <x:c r="C278" t="str">
-        <x:v>CourseMath0101 - Sec5601MATH</x:v>
+        <x:v>CourseMath0505 - Sec5605MATH</x:v>
       </x:c>
       <x:c r="D278" t="str">
-        <x:v>f2f9dd70-2f23-47c0-ac9e-5591ffb6921e</x:v>
+        <x:v>61a0c791-f05d-4481-b5e9-94d57d918ce6</x:v>
       </x:c>
       <x:c r="E278" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7250,13 +7250,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B279" t="str">
-        <x:v>79ae5e99-d584-456d-8f1c-ac3f49df1810</x:v>
+        <x:v>9b5b351a-7cda-4eac-941b-714726c70293</x:v>
       </x:c>
       <x:c r="C279" t="str">
-        <x:v>CourseMath0101 - Sec5701MATH</x:v>
+        <x:v>CourseMath0505 - Sec5705MATH</x:v>
       </x:c>
       <x:c r="D279" t="str">
-        <x:v>a2fd3c59-3310-4e22-95e3-4cd1b8d55940</x:v>
+        <x:v>14463b64-be54-4b82-b5e3-ffe67d972808</x:v>
       </x:c>
       <x:c r="E279" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7276,13 +7276,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B280" t="str">
-        <x:v>2916174f-4142-47f9-8082-66566444f75c</x:v>
+        <x:v>4921b134-122d-47ee-bacb-8d92b0c4117a</x:v>
       </x:c>
       <x:c r="C280" t="str">
-        <x:v>CourseMath0101 - Sec5801MATH</x:v>
+        <x:v>CourseMath0505 - Sec5805MATH</x:v>
       </x:c>
       <x:c r="D280" t="str">
-        <x:v>657aedcb-7387-433b-83c1-bdd2b83c9757</x:v>
+        <x:v>289a6e7b-2aa0-4500-b6e0-acba99ebbdba</x:v>
       </x:c>
       <x:c r="E280" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7302,13 +7302,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B281" t="str">
-        <x:v>8c85307b-7e40-4675-8b3d-ce9bb47e8f1c</x:v>
+        <x:v>92ad33c7-5dcc-4aae-85a5-b564df20057d</x:v>
       </x:c>
       <x:c r="C281" t="str">
-        <x:v>CourseMath0101 - Sec5901MATH</x:v>
+        <x:v>CourseMath0505 - Sec5905MATH</x:v>
       </x:c>
       <x:c r="D281" t="str">
-        <x:v>2db41322-9bdd-44ca-bd1b-0cecf349cae5</x:v>
+        <x:v>fc9c6879-9189-4a48-9692-956b323ee633</x:v>
       </x:c>
       <x:c r="E281" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7328,13 +7328,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B282" t="str">
-        <x:v>b9c8f821-5710-4113-a6fc-ac141adee01c</x:v>
+        <x:v>dd2668c2-5d23-4e19-a4b0-fd1d0f603dee</x:v>
       </x:c>
       <x:c r="C282" t="str">
-        <x:v>CourseMath0101 - Sec6001MATH</x:v>
+        <x:v>CourseMath0505 - Sec6005MATH</x:v>
       </x:c>
       <x:c r="D282" t="str">
-        <x:v>5fe7c599-6feb-4d02-9af3-919750ca5466</x:v>
+        <x:v>2f55c3bd-9ff1-4090-a7e6-43ccf182d526</x:v>
       </x:c>
       <x:c r="E282" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7354,13 +7354,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B283" t="str">
-        <x:v>4833359f-914f-4b20-b2f3-eecbd6a17c2e</x:v>
+        <x:v>ea73ef60-d0fe-4b5f-a63c-96f082eba12c</x:v>
       </x:c>
       <x:c r="C283" t="str">
-        <x:v>CourseMath0101 - Sec6101MATH</x:v>
+        <x:v>CourseMath0505 - Sec6105MATH</x:v>
       </x:c>
       <x:c r="D283" t="str">
-        <x:v>ee3d03e6-a525-41f9-a441-873a8fcc2f46</x:v>
+        <x:v>1f9b8454-0cf9-48a3-955f-42ace29c4061</x:v>
       </x:c>
       <x:c r="E283" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7380,13 +7380,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B284" t="str">
-        <x:v>08eb0f54-54d5-49a2-a1a8-f68238e118f0</x:v>
+        <x:v>db2e64f3-56c2-44cb-ad02-b8bebc12499b</x:v>
       </x:c>
       <x:c r="C284" t="str">
-        <x:v>CourseMath0101 - Sec6201MATH</x:v>
+        <x:v>CourseMath0505 - Sec6205MATH</x:v>
       </x:c>
       <x:c r="D284" t="str">
-        <x:v>f9a66139-c6c0-4102-aa75-bd4f5aeb7519</x:v>
+        <x:v>a87c5463-6cce-421b-a9da-014681335948</x:v>
       </x:c>
       <x:c r="E284" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7406,13 +7406,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B285" t="str">
-        <x:v>322ccdf5-b061-4a30-a74e-5573c9d6c7f5</x:v>
+        <x:v>7943780c-7ccd-4037-bb8a-3b19cd8f691a</x:v>
       </x:c>
       <x:c r="C285" t="str">
-        <x:v>CourseMath0101 - Sec6301MATH</x:v>
+        <x:v>CourseMath0505 - Sec6305MATH</x:v>
       </x:c>
       <x:c r="D285" t="str">
-        <x:v>67ad4585-548a-4909-a4cc-76655f63431d</x:v>
+        <x:v>5f755322-98a8-48ce-9ad8-ffa21b08a430</x:v>
       </x:c>
       <x:c r="E285" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7432,13 +7432,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B286" t="str">
-        <x:v>0293da28-ed19-4039-a269-bd81eff8cf96</x:v>
+        <x:v>a12d1c75-f6d6-44e0-81cd-b090dbc5b4a6</x:v>
       </x:c>
       <x:c r="C286" t="str">
-        <x:v>CourseMath0101 - Sec6401MATH</x:v>
+        <x:v>CourseMath0505 - Sec6405MATH</x:v>
       </x:c>
       <x:c r="D286" t="str">
-        <x:v>83fc5dbc-cea9-4c94-be00-f44cbf412e1c</x:v>
+        <x:v>f3e8dc62-0f6d-409b-90ce-4cdf6662a973</x:v>
       </x:c>
       <x:c r="E286" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7458,13 +7458,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B287" t="str">
-        <x:v>ba38bd72-41b7-4aea-839d-a878b3c94b70</x:v>
+        <x:v>0d151e31-59c3-4503-84be-81c8af26441c</x:v>
       </x:c>
       <x:c r="C287" t="str">
-        <x:v>CourseMath0101 - Sec6501MATH</x:v>
+        <x:v>CourseMath0505 - Sec6505MATH</x:v>
       </x:c>
       <x:c r="D287" t="str">
-        <x:v>0589c60e-ba26-4e4b-83f8-0081c23f9bbb</x:v>
+        <x:v>e5e8ab4c-a05f-47a6-b20d-4873f044e14c</x:v>
       </x:c>
       <x:c r="E287" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7484,13 +7484,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B288" t="str">
-        <x:v>26b567a2-00f4-44e7-b23b-5181288f6a1f</x:v>
+        <x:v>d4b90a64-8945-4ac5-9b59-91cc015e66db</x:v>
       </x:c>
       <x:c r="C288" t="str">
-        <x:v>CourseMath0101 - Sec6601MATH</x:v>
+        <x:v>CourseMath0505 - Sec6605MATH</x:v>
       </x:c>
       <x:c r="D288" t="str">
-        <x:v>1bbd1f64-b383-4644-9e16-80522823caf4</x:v>
+        <x:v>db52370f-db5b-4610-baa1-66a2083fd0a1</x:v>
       </x:c>
       <x:c r="E288" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7510,13 +7510,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B289" t="str">
-        <x:v>ce17fd3f-118c-40cb-9562-dba5e696153f</x:v>
+        <x:v>de4d8bd9-675d-4974-8ea2-d87b785e8d1f</x:v>
       </x:c>
       <x:c r="C289" t="str">
-        <x:v>CourseMath0101 - Sec6701MATH</x:v>
+        <x:v>CourseMath0505 - Sec6705MATH</x:v>
       </x:c>
       <x:c r="D289" t="str">
-        <x:v>edf80a86-cf83-406c-8f67-b5c1ffc49916</x:v>
+        <x:v>6505538b-3a57-4f0d-a3c5-b8e1aede6add</x:v>
       </x:c>
       <x:c r="E289" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7536,13 +7536,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B290" t="str">
-        <x:v>5dd5f71b-5b8c-4234-a467-945d3a6fc3b6</x:v>
+        <x:v>90103a4e-c8ca-47b3-927e-788abc2f8b2d</x:v>
       </x:c>
       <x:c r="C290" t="str">
-        <x:v>CourseMath0101 - Sec6801MATH</x:v>
+        <x:v>CourseMath0505 - Sec6805MATH</x:v>
       </x:c>
       <x:c r="D290" t="str">
-        <x:v>a8ea576c-9620-4bc0-be23-39393c7d8e71</x:v>
+        <x:v>914170b5-5ba6-4c89-954f-8538bfbaaca9</x:v>
       </x:c>
       <x:c r="E290" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7562,13 +7562,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B291" t="str">
-        <x:v>c4291c53-3ea2-433f-95a0-0444beb83a50</x:v>
+        <x:v>e4900267-724f-492f-bef9-07ad380161ca</x:v>
       </x:c>
       <x:c r="C291" t="str">
-        <x:v>CourseMath0101 - Sec6901MATH</x:v>
+        <x:v>CourseMath0505 - Sec6905MATH</x:v>
       </x:c>
       <x:c r="D291" t="str">
-        <x:v>85ef4fff-7e99-4e81-a143-c054b52f247d</x:v>
+        <x:v>8c38f96c-aebd-4640-8b16-d580a9f4d7ee</x:v>
       </x:c>
       <x:c r="E291" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7588,13 +7588,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B292" t="str">
-        <x:v>2406cfb5-b13b-4f93-858c-cf29d6b117d8</x:v>
+        <x:v>d3138cb2-b29d-4586-a15d-1eca2b9285b7</x:v>
       </x:c>
       <x:c r="C292" t="str">
-        <x:v>CourseMath0101 - Sec7001MATH</x:v>
+        <x:v>CourseMath0505 - Sec7005MATH</x:v>
       </x:c>
       <x:c r="D292" t="str">
-        <x:v>d0b21245-1c14-4931-8054-90ddbc3daf11</x:v>
+        <x:v>2f23f50d-57ad-4ba7-8332-cee271c76372</x:v>
       </x:c>
       <x:c r="E292" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7614,13 +7614,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B293" t="str">
-        <x:v>4e1342c6-1655-42eb-b646-8324ffe7c716</x:v>
+        <x:v>a0b9f28e-31bf-44fd-8f5c-6b90dfad2891</x:v>
       </x:c>
       <x:c r="C293" t="str">
-        <x:v>CourseMath0101 - Sec7101MATH</x:v>
+        <x:v>CourseMath0505 - Sec7105MATH</x:v>
       </x:c>
       <x:c r="D293" t="str">
-        <x:v>18a204c8-4aaf-452c-8df2-f306f29bf8f3</x:v>
+        <x:v>d4afff93-7c99-4b36-8eef-d95fc17ca1b3</x:v>
       </x:c>
       <x:c r="E293" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7640,13 +7640,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B294" t="str">
-        <x:v>48372716-88cb-4fdc-98e9-c479154bdc91</x:v>
+        <x:v>c6f1f561-26fb-4dca-902b-5d07b25ba5cb</x:v>
       </x:c>
       <x:c r="C294" t="str">
-        <x:v>CourseMath0101 - Sec7201MATH</x:v>
+        <x:v>CourseMath0505 - Sec7205MATH</x:v>
       </x:c>
       <x:c r="D294" t="str">
-        <x:v>59f4354d-60b5-4068-912f-cf5fb940d8c0</x:v>
+        <x:v>5d594b5c-f15e-41d7-96ff-312730c07bdd</x:v>
       </x:c>
       <x:c r="E294" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7666,13 +7666,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B295" t="str">
-        <x:v>110556fd-3a19-42fc-af7b-a0332fd4308e</x:v>
+        <x:v>b8c87e71-3be4-480d-83f3-2a73cc075e55</x:v>
       </x:c>
       <x:c r="C295" t="str">
-        <x:v>CourseMath0101 - Sec7301MATH</x:v>
+        <x:v>CourseMath0505 - Sec7305MATH</x:v>
       </x:c>
       <x:c r="D295" t="str">
-        <x:v>590d35a2-a233-4beb-bfd8-801fa6ac64f7</x:v>
+        <x:v>e2eb5027-fe9a-4b80-9947-d31c30964f79</x:v>
       </x:c>
       <x:c r="E295" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7692,13 +7692,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B296" t="str">
-        <x:v>e561108e-225e-42cf-b48c-f347a9945515</x:v>
+        <x:v>e6b8ebcf-043a-463e-b0f6-c0249200c2d0</x:v>
       </x:c>
       <x:c r="C296" t="str">
-        <x:v>CourseMath0101 - Sec7401MATH</x:v>
+        <x:v>CourseMath0505 - Sec7405MATH</x:v>
       </x:c>
       <x:c r="D296" t="str">
-        <x:v>ecab8b38-2f06-4372-96a9-fa1da80c6973</x:v>
+        <x:v>75e73257-bb51-466d-a65c-8ce6f4f21d80</x:v>
       </x:c>
       <x:c r="E296" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7718,13 +7718,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B297" t="str">
-        <x:v>c813e1eb-0f41-4625-a07f-9653639a6483</x:v>
+        <x:v>44c91dac-dd16-4763-8868-8af45fe0c7ca</x:v>
       </x:c>
       <x:c r="C297" t="str">
-        <x:v>CourseMath0101 - Sec7501MATH</x:v>
+        <x:v>CourseMath0505 - Sec7505MATH</x:v>
       </x:c>
       <x:c r="D297" t="str">
-        <x:v>4e103ec4-0f96-43a5-8526-18f748ba0dfb</x:v>
+        <x:v>b4a455f2-d602-4c0e-be16-d06a44ab4352</x:v>
       </x:c>
       <x:c r="E297" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7744,13 +7744,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B298" t="str">
-        <x:v>40beef7f-5c48-469d-9410-f647f7ea895d</x:v>
+        <x:v>d1a791e3-c621-42c0-a10e-dccd5eb583d9</x:v>
       </x:c>
       <x:c r="C298" t="str">
-        <x:v>CourseMath0101 - Sec7601MATH</x:v>
+        <x:v>CourseMath0505 - Sec7605MATH</x:v>
       </x:c>
       <x:c r="D298" t="str">
-        <x:v>96728b03-2110-4faa-8d59-04dcbddae40c</x:v>
+        <x:v>e7dceb20-1848-4f3a-ac69-9803caf3506a</x:v>
       </x:c>
       <x:c r="E298" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7770,13 +7770,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B299" t="str">
-        <x:v>e2e77450-2c49-4b77-bafd-4d63a9918917</x:v>
+        <x:v>a4a3869e-0847-48b1-a1a6-ee31454673c1</x:v>
       </x:c>
       <x:c r="C299" t="str">
-        <x:v>CourseMath0101 - Sec7701MATH</x:v>
+        <x:v>CourseMath0505 - Sec7705MATH</x:v>
       </x:c>
       <x:c r="D299" t="str">
-        <x:v>1f7f3ba8-e3b7-4418-b3d8-cee99acc47f9</x:v>
+        <x:v>d4efd058-c55f-4b29-88e6-d3783b1274f7</x:v>
       </x:c>
       <x:c r="E299" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7796,13 +7796,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B300" t="str">
-        <x:v>f79818bf-8899-4220-9ebc-f33332e0bcb7</x:v>
+        <x:v>8b1195d1-936c-4ebf-a095-b95c94532848</x:v>
       </x:c>
       <x:c r="C300" t="str">
-        <x:v>CourseMath0101 - Sec7801MATH</x:v>
+        <x:v>CourseMath0505 - Sec7805MATH</x:v>
       </x:c>
       <x:c r="D300" t="str">
-        <x:v>4dad2675-119b-4f5e-a8b0-6cc6c110a80f</x:v>
+        <x:v>8da940b8-b7df-418f-a855-c024c5beeac8</x:v>
       </x:c>
       <x:c r="E300" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7822,13 +7822,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B301" t="str">
-        <x:v>36d6b92d-2659-46fe-9649-f631f7e36dde</x:v>
+        <x:v>0ef3153f-faa0-4c93-acc8-59ff2aafeff3</x:v>
       </x:c>
       <x:c r="C301" t="str">
-        <x:v>CourseMath0101 - Sec7901MATH</x:v>
+        <x:v>CourseMath0505 - Sec7905MATH</x:v>
       </x:c>
       <x:c r="D301" t="str">
-        <x:v>674f6ca1-4161-4ecc-b2c0-fd3bfda24362</x:v>
+        <x:v>e18f150e-4b20-4caf-9554-008e1b3878ea</x:v>
       </x:c>
       <x:c r="E301" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7848,13 +7848,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B302" t="str">
-        <x:v>5216e5d7-3004-4a21-968d-3e8010e69ec5</x:v>
+        <x:v>0e6b9159-63bb-4e9a-bf28-33ab5c7f683c</x:v>
       </x:c>
       <x:c r="C302" t="str">
-        <x:v>CourseMath0101 - Sec8001MATH</x:v>
+        <x:v>CourseMath0505 - Sec8005MATH</x:v>
       </x:c>
       <x:c r="D302" t="str">
-        <x:v>2547077b-44f2-461b-aaf8-96c6a8166eab</x:v>
+        <x:v>36d29c1c-b0ed-4f96-9cbb-af72d4a56821</x:v>
       </x:c>
       <x:c r="E302" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7874,13 +7874,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B303" t="str">
-        <x:v>b0f09dd9-e376-4fde-9d62-439d9f4cccb7</x:v>
+        <x:v>0ce48c46-0dd7-4380-a063-61ee510d7de1</x:v>
       </x:c>
       <x:c r="C303" t="str">
-        <x:v>CourseMath0101 - Sec8101MATH</x:v>
+        <x:v>CourseMath0505 - Sec8105MATH</x:v>
       </x:c>
       <x:c r="D303" t="str">
-        <x:v>7d1fcde3-a095-49ea-ae12-b209a766a34f</x:v>
+        <x:v>249d4237-9f58-46e1-944a-6676395f94be</x:v>
       </x:c>
       <x:c r="E303" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7900,13 +7900,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B304" t="str">
-        <x:v>a7a9a606-448e-4d54-b077-e8d4eeb9618f</x:v>
+        <x:v>5056a60a-09a7-4fe3-b259-39bb8515f9fa</x:v>
       </x:c>
       <x:c r="C304" t="str">
-        <x:v>CourseMath0101 - Sec8201MATH</x:v>
+        <x:v>CourseMath0505 - Sec8205MATH</x:v>
       </x:c>
       <x:c r="D304" t="str">
-        <x:v>e52ac86f-9c5a-48d6-9424-a570d204cb2f</x:v>
+        <x:v>0222711f-5f77-4fd6-95ad-69a7b2342550</x:v>
       </x:c>
       <x:c r="E304" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7926,13 +7926,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B305" t="str">
-        <x:v>c537c08e-188e-4788-9f04-4c3c8b53d7a0</x:v>
+        <x:v>12851b07-97d5-4659-babf-c28922e47e51</x:v>
       </x:c>
       <x:c r="C305" t="str">
-        <x:v>CourseMath0101 - Sec8301MATH</x:v>
+        <x:v>CourseMath0505 - Sec8305MATH</x:v>
       </x:c>
       <x:c r="D305" t="str">
-        <x:v>52b795ad-25d9-461c-b4d0-8ad2222182b9</x:v>
+        <x:v>5e5c973e-f66b-4cc2-a850-2038afe65abb</x:v>
       </x:c>
       <x:c r="E305" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7952,13 +7952,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B306" t="str">
-        <x:v>2692b665-9280-40b8-9846-85ea4d63d9d4</x:v>
+        <x:v>eed35a67-3d04-4254-aa6b-48d362b29ab4</x:v>
       </x:c>
       <x:c r="C306" t="str">
-        <x:v>CourseMath0101 - Sec8401MATH</x:v>
+        <x:v>CourseMath0505 - Sec8405MATH</x:v>
       </x:c>
       <x:c r="D306" t="str">
-        <x:v>846b9d95-ac28-457f-a49b-329584b489bb</x:v>
+        <x:v>615c2790-8c9b-4c8b-88aa-63b5a31be87f</x:v>
       </x:c>
       <x:c r="E306" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -7978,13 +7978,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B307" t="str">
-        <x:v>698ebcfa-8394-4275-aadd-82f0e7abfe2f</x:v>
+        <x:v>03c97ca4-3df6-4a4e-956e-9f8ea0c86e3b</x:v>
       </x:c>
       <x:c r="C307" t="str">
-        <x:v>CourseMath0101 - Sec8501MATH</x:v>
+        <x:v>CourseMath0505 - Sec8505MATH</x:v>
       </x:c>
       <x:c r="D307" t="str">
-        <x:v>d78d5e95-faef-44ac-8561-fa760396f503</x:v>
+        <x:v>55679dc3-df29-4899-bc8b-b86d87d28420</x:v>
       </x:c>
       <x:c r="E307" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8004,13 +8004,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B308" t="str">
-        <x:v>87fa533b-5887-483d-8cad-cd372a04ab2a</x:v>
+        <x:v>bc96c2f7-4fb9-4fb9-bd0a-0fb85980f0bc</x:v>
       </x:c>
       <x:c r="C308" t="str">
-        <x:v>CourseMath0101 - Sec8601MATH</x:v>
+        <x:v>CourseMath0505 - Sec8605MATH</x:v>
       </x:c>
       <x:c r="D308" t="str">
-        <x:v>10cda52f-8e7c-42e4-a2b9-6785ce9e12d2</x:v>
+        <x:v>bfdedcef-b151-4542-8d52-4eac788a0add</x:v>
       </x:c>
       <x:c r="E308" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8030,13 +8030,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B309" t="str">
-        <x:v>5d231f72-8f1a-4630-ac61-8a6dc64f1d99</x:v>
+        <x:v>92018c9a-6ab3-4490-898e-10f648f93d5d</x:v>
       </x:c>
       <x:c r="C309" t="str">
-        <x:v>CourseMath0101 - Sec8701MATH</x:v>
+        <x:v>CourseMath0505 - Sec8705MATH</x:v>
       </x:c>
       <x:c r="D309" t="str">
-        <x:v>46151726-c3f7-4ad9-8ead-02d8c04f7b8f</x:v>
+        <x:v>f5ff3b41-4f9e-4998-836b-ae580ad4acea</x:v>
       </x:c>
       <x:c r="E309" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8056,13 +8056,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B310" t="str">
-        <x:v>061194ca-54eb-4cde-8587-1f80334d7d32</x:v>
+        <x:v>fc631a7f-da7f-44f4-a8ec-e2bdc82161cf</x:v>
       </x:c>
       <x:c r="C310" t="str">
-        <x:v>CourseMath0101 - Sec8801MATH</x:v>
+        <x:v>CourseMath0505 - Sec8805MATH</x:v>
       </x:c>
       <x:c r="D310" t="str">
-        <x:v>f3c5b50c-d10d-4858-805a-0646fa3e80da</x:v>
+        <x:v>44b713d9-47fa-4b02-a38a-81e708d9c69c</x:v>
       </x:c>
       <x:c r="E310" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8082,13 +8082,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B311" t="str">
-        <x:v>8eb35c5e-0478-46a0-97af-ff04ea2c4502</x:v>
+        <x:v>e7c57f6e-6559-42cb-948f-8d1917658536</x:v>
       </x:c>
       <x:c r="C311" t="str">
-        <x:v>CourseMath0101 - Sec8901MATH</x:v>
+        <x:v>CourseMath0505 - Sec8905MATH</x:v>
       </x:c>
       <x:c r="D311" t="str">
-        <x:v>40cf82ee-10cd-4f26-a58c-f3223cec2eda</x:v>
+        <x:v>74675d07-9d0f-4a8e-bb30-45c52f42b359</x:v>
       </x:c>
       <x:c r="E311" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8108,13 +8108,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B312" t="str">
-        <x:v>28f8101c-123a-47c5-9932-e1ddd5bab56b</x:v>
+        <x:v>755546d3-8754-41de-adc7-5fbb596b1003</x:v>
       </x:c>
       <x:c r="C312" t="str">
-        <x:v>CourseMath0101 - Sec9001MATH</x:v>
+        <x:v>CourseMath0505 - Sec9005MATH</x:v>
       </x:c>
       <x:c r="D312" t="str">
-        <x:v>0037c83a-4623-4a8d-b545-7f3dfd99fe2f</x:v>
+        <x:v>03dfee88-f035-4413-b80d-8edb0d5dba9f</x:v>
       </x:c>
       <x:c r="E312" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8134,13 +8134,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B313" t="str">
-        <x:v>874f4dd9-a843-4a09-b8b6-c25378503b87</x:v>
+        <x:v>7803462f-a61e-4fcc-959b-385de5e93684</x:v>
       </x:c>
       <x:c r="C313" t="str">
-        <x:v>CourseMath0101 - Sec9101MATH</x:v>
+        <x:v>CourseMath0505 - Sec9105MATH</x:v>
       </x:c>
       <x:c r="D313" t="str">
-        <x:v>2e6928e4-1682-41ae-8a72-bfc5c55bab97</x:v>
+        <x:v>4f4a1228-b8a0-4e51-b12d-f1d923715887</x:v>
       </x:c>
       <x:c r="E313" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8160,13 +8160,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B314" t="str">
-        <x:v>93ac44d1-f532-4c24-8589-5c10e9097222</x:v>
+        <x:v>9ae1eab8-a832-44f8-a73e-8cca5298c7b7</x:v>
       </x:c>
       <x:c r="C314" t="str">
-        <x:v>CourseMath0101 - Sec9201MATH</x:v>
+        <x:v>CourseMath0505 - Sec9205MATH</x:v>
       </x:c>
       <x:c r="D314" t="str">
-        <x:v>625925f0-57e6-49ed-87e8-6e65155fa1e9</x:v>
+        <x:v>90b6c45e-4123-4b03-aed6-b8a2ad811101</x:v>
       </x:c>
       <x:c r="E314" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8186,13 +8186,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B315" t="str">
-        <x:v>98cc5e41-134f-48c0-9f92-a87e0b432883</x:v>
+        <x:v>63476f2e-28fe-4722-92b6-10930ad02316</x:v>
       </x:c>
       <x:c r="C315" t="str">
-        <x:v>CourseMath0101 - Sec9301MATH</x:v>
+        <x:v>CourseMath0505 - Sec9305MATH</x:v>
       </x:c>
       <x:c r="D315" t="str">
-        <x:v>701a933f-8ace-4f46-916e-4bb5e35b607a</x:v>
+        <x:v>762c6588-0b9c-4297-82e5-0a9a3d810ead</x:v>
       </x:c>
       <x:c r="E315" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8212,13 +8212,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B316" t="str">
-        <x:v>5e2052bc-a2a0-4fc4-9e01-3cb47301d763</x:v>
+        <x:v>0cd00003-52f4-42d6-849a-f9f66c150db3</x:v>
       </x:c>
       <x:c r="C316" t="str">
-        <x:v>CourseMath0101 - Sec9401MATH</x:v>
+        <x:v>CourseMath0505 - Sec9405MATH</x:v>
       </x:c>
       <x:c r="D316" t="str">
-        <x:v>31ccfd64-c4b0-4d42-a0e4-5ad459356151</x:v>
+        <x:v>5c30aad3-bcdc-48c1-82c3-3ecc751ddb24</x:v>
       </x:c>
       <x:c r="E316" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8238,13 +8238,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B317" t="str">
-        <x:v>6c15f0ab-9b04-461a-9103-8943bc5ad88c</x:v>
+        <x:v>77c1a3e9-8df2-47d4-a30d-448bd9d4d76b</x:v>
       </x:c>
       <x:c r="C317" t="str">
-        <x:v>CourseMath0101 - Sec9501MATH</x:v>
+        <x:v>CourseMath0505 - Sec9505MATH</x:v>
       </x:c>
       <x:c r="D317" t="str">
-        <x:v>736c29de-fb77-4d11-97d7-84583c758f63</x:v>
+        <x:v>a4915b5c-e5d7-4930-86b0-8b88b9ed1862</x:v>
       </x:c>
       <x:c r="E317" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8264,13 +8264,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B318" t="str">
-        <x:v>ee6af029-9d67-4ecc-bb3d-808dfa2f540c</x:v>
+        <x:v>6b3db7d2-a1ea-4b4f-aa63-611e97c87243</x:v>
       </x:c>
       <x:c r="C318" t="str">
-        <x:v>CourseMath0101 - Sec9601MATH</x:v>
+        <x:v>CourseMath0505 - Sec9605MATH</x:v>
       </x:c>
       <x:c r="D318" t="str">
-        <x:v>7ada04b7-55ba-4534-bdb4-9b70df51a8d3</x:v>
+        <x:v>7dd74ac0-0102-4799-9e52-fc3e5bbf91e1</x:v>
       </x:c>
       <x:c r="E318" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8290,13 +8290,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B319" t="str">
-        <x:v>0acaa923-2e83-41f4-ab0c-b8f54ddbe4b3</x:v>
+        <x:v>1c601446-f0a8-4ffd-90b1-87b91b67861c</x:v>
       </x:c>
       <x:c r="C319" t="str">
-        <x:v>CourseMath0101 - Sec9701MATH</x:v>
+        <x:v>CourseMath0505 - Sec9705MATH</x:v>
       </x:c>
       <x:c r="D319" t="str">
-        <x:v>c5fe22cd-0cdf-46b6-88cf-ae6d0cff383d</x:v>
+        <x:v>f663a638-383f-4806-baee-a3cd886035d8</x:v>
       </x:c>
       <x:c r="E319" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8316,13 +8316,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B320" t="str">
-        <x:v>ae2fe13c-e258-49f9-b1f3-66b413162733</x:v>
+        <x:v>279fd74f-3a8c-48b4-8d0b-034065693923</x:v>
       </x:c>
       <x:c r="C320" t="str">
-        <x:v>CourseMath0101 - Sec9801MATH</x:v>
+        <x:v>CourseMath0505 - Sec9805MATH</x:v>
       </x:c>
       <x:c r="D320" t="str">
-        <x:v>341a0dd7-f64c-4900-bc9b-14a1fecc4a1d</x:v>
+        <x:v>3e9bcb08-8fab-43d3-9d96-3604aae8c60f</x:v>
       </x:c>
       <x:c r="E320" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8342,13 +8342,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B321" t="str">
-        <x:v>e4fef7a8-34c1-42c1-91a8-262a1afa11f3</x:v>
+        <x:v>5842da23-b7cd-4db9-ba2c-560aa0d0df33</x:v>
       </x:c>
       <x:c r="C321" t="str">
-        <x:v>CourseMath0101 - Sec9901MATH</x:v>
+        <x:v>CourseMath0505 - Sec9905MATH</x:v>
       </x:c>
       <x:c r="D321" t="str">
-        <x:v>5342cfbb-ac61-4661-9297-fd4532295e13</x:v>
+        <x:v>2102318c-732a-4758-bed4-f8eef2afc663</x:v>
       </x:c>
       <x:c r="E321" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8368,13 +8368,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B322" t="str">
-        <x:v>9cb1e048-ef2c-4978-ac38-c130b35ced81</x:v>
+        <x:v>2c782ae6-f92e-449c-9138-414bf5cbb034</x:v>
       </x:c>
       <x:c r="C322" t="str">
-        <x:v>CourseMath0101 - TEMsec100grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec100grd05L</x:v>
       </x:c>
       <x:c r="D322" t="str">
-        <x:v>aec9b581-90e3-4fb8-b8e1-a881e95b2cef</x:v>
+        <x:v>8bb942fd-8963-4163-85c0-e4c2d251546e</x:v>
       </x:c>
       <x:c r="E322" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8394,13 +8394,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B323" t="str">
-        <x:v>61d9f60f-60f5-40d8-9f61-48c676eb442f</x:v>
+        <x:v>9ab5047a-65ff-4961-a6dc-c705ff635a43</x:v>
       </x:c>
       <x:c r="C323" t="str">
-        <x:v>CourseMath0101 - TEMSec41grd01L</x:v>
+        <x:v>CourseMath0505 - TEMSec41grd05L</x:v>
       </x:c>
       <x:c r="D323" t="str">
-        <x:v>9892aa4b-f900-4a8e-8a01-5413e3eef836</x:v>
+        <x:v>cb401127-c8db-4ade-a707-cd930b6a3be6</x:v>
       </x:c>
       <x:c r="E323" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8420,13 +8420,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B324" t="str">
-        <x:v>730d59a4-a32c-4ad3-a4f4-41e609e2d033</x:v>
+        <x:v>3c7f6ae6-83aa-4661-858f-f007dcc80c7b</x:v>
       </x:c>
       <x:c r="C324" t="str">
-        <x:v>CourseMath0101 - TEMsec42grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec42grd05L</x:v>
       </x:c>
       <x:c r="D324" t="str">
-        <x:v>6360b161-0ff0-4266-a3d5-c4e0c5bbaf5d</x:v>
+        <x:v>02145243-2765-4471-9c4e-7385947f3179</x:v>
       </x:c>
       <x:c r="E324" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8446,13 +8446,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B325" t="str">
-        <x:v>08b44c72-42f4-4bfb-a2de-a76cc601590e</x:v>
+        <x:v>7549ab79-a85f-449b-8c02-d1cd48fcc9b7</x:v>
       </x:c>
       <x:c r="C325" t="str">
-        <x:v>CourseMath0101 - TEMsec43grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec43grd05L</x:v>
       </x:c>
       <x:c r="D325" t="str">
-        <x:v>94f40571-ada9-49e1-ae19-83dd1135438e</x:v>
+        <x:v>8c94dd23-f0cf-4359-9804-be713f02cec7</x:v>
       </x:c>
       <x:c r="E325" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8472,13 +8472,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B326" t="str">
-        <x:v>822c1caa-8afb-4d05-ae09-06105e8adea3</x:v>
+        <x:v>2c40b370-4198-41cc-b30f-2c8707486550</x:v>
       </x:c>
       <x:c r="C326" t="str">
-        <x:v>CourseMath0101 - TEMsec44grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec44grd05L</x:v>
       </x:c>
       <x:c r="D326" t="str">
-        <x:v>29306534-2a0f-44db-b25f-5f975115bb52</x:v>
+        <x:v>026dd1f8-9fd6-4891-b9c9-406538eab783</x:v>
       </x:c>
       <x:c r="E326" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8498,13 +8498,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B327" t="str">
-        <x:v>77131a50-d257-4207-a585-050f374d2d78</x:v>
+        <x:v>691dfe75-3582-45ca-b983-40ca64baada8</x:v>
       </x:c>
       <x:c r="C327" t="str">
-        <x:v>CourseMath0101 - TEMsec45grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec45grd05L</x:v>
       </x:c>
       <x:c r="D327" t="str">
-        <x:v>89f3d07b-e706-4351-ab62-ed31b2a6f350</x:v>
+        <x:v>3dc749a7-3949-4ca4-b2e2-89df753dea87</x:v>
       </x:c>
       <x:c r="E327" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8524,13 +8524,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B328" t="str">
-        <x:v>e59c072f-096d-4cfc-8105-ee52016deee5</x:v>
+        <x:v>fb41e353-0d31-4f2f-b216-9746d6a14979</x:v>
       </x:c>
       <x:c r="C328" t="str">
-        <x:v>CourseMath0101 - TEMsec46grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec46grd05L</x:v>
       </x:c>
       <x:c r="D328" t="str">
-        <x:v>6985d2b4-8ff4-43e5-bd60-0384ed80d4b1</x:v>
+        <x:v>ad039e98-7077-47dc-9dac-df2b94951137</x:v>
       </x:c>
       <x:c r="E328" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8550,13 +8550,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B329" t="str">
-        <x:v>53c0ff21-259e-4337-bd59-db7738cd75d4</x:v>
+        <x:v>45d8ee9b-e263-4117-9437-262ea675edc3</x:v>
       </x:c>
       <x:c r="C329" t="str">
-        <x:v>CourseMath0101 - TEMsec47grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec47grd05L</x:v>
       </x:c>
       <x:c r="D329" t="str">
-        <x:v>d5140a6f-51fe-4c28-bb74-150663e34ebd</x:v>
+        <x:v>149a95ad-2c38-4a55-957a-bf8633c4251f</x:v>
       </x:c>
       <x:c r="E329" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8576,13 +8576,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B330" t="str">
-        <x:v>706e9a95-adf6-4292-9755-4fbc37f6f0d4</x:v>
+        <x:v>5d9ca52c-73cb-4239-a465-06e1fcf89d0b</x:v>
       </x:c>
       <x:c r="C330" t="str">
-        <x:v>CourseMath0101 - TEMsec48grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec48grd05L</x:v>
       </x:c>
       <x:c r="D330" t="str">
-        <x:v>411727f6-b8fa-4aa2-aff3-d59f8f2aaf40</x:v>
+        <x:v>87eca55b-b155-47d8-9892-3f7f79fa8ab6</x:v>
       </x:c>
       <x:c r="E330" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8602,13 +8602,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B331" t="str">
-        <x:v>2b73b27e-2148-4e43-a704-bc54898aecb9</x:v>
+        <x:v>1554cd9e-8421-4511-88db-12b39332690f</x:v>
       </x:c>
       <x:c r="C331" t="str">
-        <x:v>CourseMath0101 - TEMsec49grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec49grd05L</x:v>
       </x:c>
       <x:c r="D331" t="str">
-        <x:v>54c84539-cc8d-470a-9676-f84a9e96d64c</x:v>
+        <x:v>7d80c98e-87fb-4f8f-b74e-da208995379b</x:v>
       </x:c>
       <x:c r="E331" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8628,13 +8628,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B332" t="str">
-        <x:v>03d61f24-796b-43ba-a3dc-48a178154c80</x:v>
+        <x:v>1d95efbd-e4b5-4520-82a6-44c0b7c9d23a</x:v>
       </x:c>
       <x:c r="C332" t="str">
-        <x:v>CourseMath0101 - TEMsec50grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec50grd05L</x:v>
       </x:c>
       <x:c r="D332" t="str">
-        <x:v>fdee50c2-0b88-4010-9a60-195ecc84e67c</x:v>
+        <x:v>e8be276f-a195-4866-9e53-db13dd74487e</x:v>
       </x:c>
       <x:c r="E332" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8654,13 +8654,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B333" t="str">
-        <x:v>908ebc26-902a-44e1-af7f-be171537c923</x:v>
+        <x:v>4cb4f72f-75ee-45fb-9cd4-540f1641cc52</x:v>
       </x:c>
       <x:c r="C333" t="str">
-        <x:v>CourseMath0101 - TEMsec51grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec51grd05L</x:v>
       </x:c>
       <x:c r="D333" t="str">
-        <x:v>3de06aca-8436-44d6-bfd8-0c83347acdd7</x:v>
+        <x:v>46b06b20-c6f1-4aaf-a8ac-4fed2a56f76b</x:v>
       </x:c>
       <x:c r="E333" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8680,13 +8680,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B334" t="str">
-        <x:v>aa2a13fd-a90a-4d46-aa78-8599b7c8147e</x:v>
+        <x:v>a65cf486-37d6-4b07-bac6-fbbe1dd6e56e</x:v>
       </x:c>
       <x:c r="C334" t="str">
-        <x:v>CourseMath0101 - TEMsec52grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec52grd05L</x:v>
       </x:c>
       <x:c r="D334" t="str">
-        <x:v>51729266-743b-40bd-bc50-cf036e554827</x:v>
+        <x:v>0189850a-2bfc-4e46-b916-ba01283ad862</x:v>
       </x:c>
       <x:c r="E334" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8706,13 +8706,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B335" t="str">
-        <x:v>b3506df5-bdf5-467c-9ec0-021615ab2b04</x:v>
+        <x:v>281e68f8-9a57-4ef3-9685-f2300603713e</x:v>
       </x:c>
       <x:c r="C335" t="str">
-        <x:v>CourseMath0101 - TEMsec53grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec53grd05L</x:v>
       </x:c>
       <x:c r="D335" t="str">
-        <x:v>bb8fab3f-9591-4580-9c0c-ee87f01349ab</x:v>
+        <x:v>0422317b-73ff-487e-80ed-0f80f2dd5c32</x:v>
       </x:c>
       <x:c r="E335" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8732,13 +8732,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B336" t="str">
-        <x:v>a34edbf0-4e0d-4e97-ad74-1e32e57526b1</x:v>
+        <x:v>da61a1ec-65ab-4819-8e27-13d8454dec08</x:v>
       </x:c>
       <x:c r="C336" t="str">
-        <x:v>CourseMath0101 - TEMsec54grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec54grd05L</x:v>
       </x:c>
       <x:c r="D336" t="str">
-        <x:v>c7ca74fa-a6f0-4cab-bdca-cc7530150936</x:v>
+        <x:v>20b14816-87fa-448d-957b-b0e4d3893345</x:v>
       </x:c>
       <x:c r="E336" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8758,13 +8758,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B337" t="str">
-        <x:v>08dd6c02-50f3-4684-ab41-f8227ed3038b</x:v>
+        <x:v>4717722b-51ae-4ba5-938e-fe44bd8aaf12</x:v>
       </x:c>
       <x:c r="C337" t="str">
-        <x:v>CourseMath0101 - TEMsec55grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec55grd05L</x:v>
       </x:c>
       <x:c r="D337" t="str">
-        <x:v>fc39e551-0e4d-457c-bb6f-6f2057166a8a</x:v>
+        <x:v>b78f7868-0c28-4161-919f-2034af169de5</x:v>
       </x:c>
       <x:c r="E337" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8784,13 +8784,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B338" t="str">
-        <x:v>d4443fc7-0006-4976-a66b-3c3d664b1142</x:v>
+        <x:v>ea2ae80b-b019-4c95-8692-88e7d897aca0</x:v>
       </x:c>
       <x:c r="C338" t="str">
-        <x:v>CourseMath0101 - TEMsec56grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec56grd05L</x:v>
       </x:c>
       <x:c r="D338" t="str">
-        <x:v>f2f9dd70-2f23-47c0-ac9e-5591ffb6921e</x:v>
+        <x:v>61a0c791-f05d-4481-b5e9-94d57d918ce6</x:v>
       </x:c>
       <x:c r="E338" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8810,13 +8810,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B339" t="str">
-        <x:v>79ae5e99-d584-456d-8f1c-ac3f49df1810</x:v>
+        <x:v>9b5b351a-7cda-4eac-941b-714726c70293</x:v>
       </x:c>
       <x:c r="C339" t="str">
-        <x:v>CourseMath0101 - TEMsec57grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec57grd05L</x:v>
       </x:c>
       <x:c r="D339" t="str">
-        <x:v>a2fd3c59-3310-4e22-95e3-4cd1b8d55940</x:v>
+        <x:v>14463b64-be54-4b82-b5e3-ffe67d972808</x:v>
       </x:c>
       <x:c r="E339" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8836,13 +8836,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B340" t="str">
-        <x:v>2916174f-4142-47f9-8082-66566444f75c</x:v>
+        <x:v>4921b134-122d-47ee-bacb-8d92b0c4117a</x:v>
       </x:c>
       <x:c r="C340" t="str">
-        <x:v>CourseMath0101 - TEMsec58grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec58grd05L</x:v>
       </x:c>
       <x:c r="D340" t="str">
-        <x:v>657aedcb-7387-433b-83c1-bdd2b83c9757</x:v>
+        <x:v>289a6e7b-2aa0-4500-b6e0-acba99ebbdba</x:v>
       </x:c>
       <x:c r="E340" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8862,13 +8862,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B341" t="str">
-        <x:v>8c85307b-7e40-4675-8b3d-ce9bb47e8f1c</x:v>
+        <x:v>92ad33c7-5dcc-4aae-85a5-b564df20057d</x:v>
       </x:c>
       <x:c r="C341" t="str">
-        <x:v>CourseMath0101 - TEMsec59grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec59grd05L</x:v>
       </x:c>
       <x:c r="D341" t="str">
-        <x:v>2db41322-9bdd-44ca-bd1b-0cecf349cae5</x:v>
+        <x:v>fc9c6879-9189-4a48-9692-956b323ee633</x:v>
       </x:c>
       <x:c r="E341" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8888,13 +8888,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B342" t="str">
-        <x:v>b9c8f821-5710-4113-a6fc-ac141adee01c</x:v>
+        <x:v>dd2668c2-5d23-4e19-a4b0-fd1d0f603dee</x:v>
       </x:c>
       <x:c r="C342" t="str">
-        <x:v>CourseMath0101 - TEMsec60grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec60grd05L</x:v>
       </x:c>
       <x:c r="D342" t="str">
-        <x:v>5fe7c599-6feb-4d02-9af3-919750ca5466</x:v>
+        <x:v>2f55c3bd-9ff1-4090-a7e6-43ccf182d526</x:v>
       </x:c>
       <x:c r="E342" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8914,13 +8914,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B343" t="str">
-        <x:v>4833359f-914f-4b20-b2f3-eecbd6a17c2e</x:v>
+        <x:v>ea73ef60-d0fe-4b5f-a63c-96f082eba12c</x:v>
       </x:c>
       <x:c r="C343" t="str">
-        <x:v>CourseMath0101 - TEMsec61grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec61grd05L</x:v>
       </x:c>
       <x:c r="D343" t="str">
-        <x:v>ee3d03e6-a525-41f9-a441-873a8fcc2f46</x:v>
+        <x:v>1f9b8454-0cf9-48a3-955f-42ace29c4061</x:v>
       </x:c>
       <x:c r="E343" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8940,13 +8940,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B344" t="str">
-        <x:v>08eb0f54-54d5-49a2-a1a8-f68238e118f0</x:v>
+        <x:v>db2e64f3-56c2-44cb-ad02-b8bebc12499b</x:v>
       </x:c>
       <x:c r="C344" t="str">
-        <x:v>CourseMath0101 - TEMsec62grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec62grd05L</x:v>
       </x:c>
       <x:c r="D344" t="str">
-        <x:v>f9a66139-c6c0-4102-aa75-bd4f5aeb7519</x:v>
+        <x:v>a87c5463-6cce-421b-a9da-014681335948</x:v>
       </x:c>
       <x:c r="E344" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8966,13 +8966,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B345" t="str">
-        <x:v>322ccdf5-b061-4a30-a74e-5573c9d6c7f5</x:v>
+        <x:v>7943780c-7ccd-4037-bb8a-3b19cd8f691a</x:v>
       </x:c>
       <x:c r="C345" t="str">
-        <x:v>CourseMath0101 - TEMsec63grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec63grd05L</x:v>
       </x:c>
       <x:c r="D345" t="str">
-        <x:v>67ad4585-548a-4909-a4cc-76655f63431d</x:v>
+        <x:v>5f755322-98a8-48ce-9ad8-ffa21b08a430</x:v>
       </x:c>
       <x:c r="E345" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -8992,13 +8992,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B346" t="str">
-        <x:v>0293da28-ed19-4039-a269-bd81eff8cf96</x:v>
+        <x:v>a12d1c75-f6d6-44e0-81cd-b090dbc5b4a6</x:v>
       </x:c>
       <x:c r="C346" t="str">
-        <x:v>CourseMath0101 - TEMsec64grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec64grd05L</x:v>
       </x:c>
       <x:c r="D346" t="str">
-        <x:v>83fc5dbc-cea9-4c94-be00-f44cbf412e1c</x:v>
+        <x:v>f3e8dc62-0f6d-409b-90ce-4cdf6662a973</x:v>
       </x:c>
       <x:c r="E346" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9018,13 +9018,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B347" t="str">
-        <x:v>ba38bd72-41b7-4aea-839d-a878b3c94b70</x:v>
+        <x:v>0d151e31-59c3-4503-84be-81c8af26441c</x:v>
       </x:c>
       <x:c r="C347" t="str">
-        <x:v>CourseMath0101 - TEMsec65grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec65grd05L</x:v>
       </x:c>
       <x:c r="D347" t="str">
-        <x:v>0589c60e-ba26-4e4b-83f8-0081c23f9bbb</x:v>
+        <x:v>e5e8ab4c-a05f-47a6-b20d-4873f044e14c</x:v>
       </x:c>
       <x:c r="E347" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9044,13 +9044,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B348" t="str">
-        <x:v>26b567a2-00f4-44e7-b23b-5181288f6a1f</x:v>
+        <x:v>d4b90a64-8945-4ac5-9b59-91cc015e66db</x:v>
       </x:c>
       <x:c r="C348" t="str">
-        <x:v>CourseMath0101 - TEMsec66grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec66grd05L</x:v>
       </x:c>
       <x:c r="D348" t="str">
-        <x:v>1bbd1f64-b383-4644-9e16-80522823caf4</x:v>
+        <x:v>db52370f-db5b-4610-baa1-66a2083fd0a1</x:v>
       </x:c>
       <x:c r="E348" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9070,13 +9070,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B349" t="str">
-        <x:v>ce17fd3f-118c-40cb-9562-dba5e696153f</x:v>
+        <x:v>de4d8bd9-675d-4974-8ea2-d87b785e8d1f</x:v>
       </x:c>
       <x:c r="C349" t="str">
-        <x:v>CourseMath0101 - TEMsec67grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec67grd05L</x:v>
       </x:c>
       <x:c r="D349" t="str">
-        <x:v>edf80a86-cf83-406c-8f67-b5c1ffc49916</x:v>
+        <x:v>6505538b-3a57-4f0d-a3c5-b8e1aede6add</x:v>
       </x:c>
       <x:c r="E349" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9096,13 +9096,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B350" t="str">
-        <x:v>5dd5f71b-5b8c-4234-a467-945d3a6fc3b6</x:v>
+        <x:v>90103a4e-c8ca-47b3-927e-788abc2f8b2d</x:v>
       </x:c>
       <x:c r="C350" t="str">
-        <x:v>CourseMath0101 - TEMsec68grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec68grd05L</x:v>
       </x:c>
       <x:c r="D350" t="str">
-        <x:v>a8ea576c-9620-4bc0-be23-39393c7d8e71</x:v>
+        <x:v>914170b5-5ba6-4c89-954f-8538bfbaaca9</x:v>
       </x:c>
       <x:c r="E350" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9122,13 +9122,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B351" t="str">
-        <x:v>c4291c53-3ea2-433f-95a0-0444beb83a50</x:v>
+        <x:v>e4900267-724f-492f-bef9-07ad380161ca</x:v>
       </x:c>
       <x:c r="C351" t="str">
-        <x:v>CourseMath0101 - TEMsec69grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec69grd05L</x:v>
       </x:c>
       <x:c r="D351" t="str">
-        <x:v>85ef4fff-7e99-4e81-a143-c054b52f247d</x:v>
+        <x:v>8c38f96c-aebd-4640-8b16-d580a9f4d7ee</x:v>
       </x:c>
       <x:c r="E351" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9148,13 +9148,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B352" t="str">
-        <x:v>2406cfb5-b13b-4f93-858c-cf29d6b117d8</x:v>
+        <x:v>d3138cb2-b29d-4586-a15d-1eca2b9285b7</x:v>
       </x:c>
       <x:c r="C352" t="str">
-        <x:v>CourseMath0101 - TEMsec70grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec70grd05L</x:v>
       </x:c>
       <x:c r="D352" t="str">
-        <x:v>d0b21245-1c14-4931-8054-90ddbc3daf11</x:v>
+        <x:v>2f23f50d-57ad-4ba7-8332-cee271c76372</x:v>
       </x:c>
       <x:c r="E352" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9174,13 +9174,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B353" t="str">
-        <x:v>4e1342c6-1655-42eb-b646-8324ffe7c716</x:v>
+        <x:v>a0b9f28e-31bf-44fd-8f5c-6b90dfad2891</x:v>
       </x:c>
       <x:c r="C353" t="str">
-        <x:v>CourseMath0101 - TEMsec71grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec71grd05L</x:v>
       </x:c>
       <x:c r="D353" t="str">
-        <x:v>18a204c8-4aaf-452c-8df2-f306f29bf8f3</x:v>
+        <x:v>d4afff93-7c99-4b36-8eef-d95fc17ca1b3</x:v>
       </x:c>
       <x:c r="E353" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9200,13 +9200,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B354" t="str">
-        <x:v>48372716-88cb-4fdc-98e9-c479154bdc91</x:v>
+        <x:v>c6f1f561-26fb-4dca-902b-5d07b25ba5cb</x:v>
       </x:c>
       <x:c r="C354" t="str">
-        <x:v>CourseMath0101 - TEMsec72grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec72grd05L</x:v>
       </x:c>
       <x:c r="D354" t="str">
-        <x:v>59f4354d-60b5-4068-912f-cf5fb940d8c0</x:v>
+        <x:v>5d594b5c-f15e-41d7-96ff-312730c07bdd</x:v>
       </x:c>
       <x:c r="E354" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9226,13 +9226,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B355" t="str">
-        <x:v>110556fd-3a19-42fc-af7b-a0332fd4308e</x:v>
+        <x:v>b8c87e71-3be4-480d-83f3-2a73cc075e55</x:v>
       </x:c>
       <x:c r="C355" t="str">
-        <x:v>CourseMath0101 - TEMsec73grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec73grd05L</x:v>
       </x:c>
       <x:c r="D355" t="str">
-        <x:v>590d35a2-a233-4beb-bfd8-801fa6ac64f7</x:v>
+        <x:v>e2eb5027-fe9a-4b80-9947-d31c30964f79</x:v>
       </x:c>
       <x:c r="E355" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9252,13 +9252,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B356" t="str">
-        <x:v>e561108e-225e-42cf-b48c-f347a9945515</x:v>
+        <x:v>e6b8ebcf-043a-463e-b0f6-c0249200c2d0</x:v>
       </x:c>
       <x:c r="C356" t="str">
-        <x:v>CourseMath0101 - TEMsec74grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec74grd05L</x:v>
       </x:c>
       <x:c r="D356" t="str">
-        <x:v>ecab8b38-2f06-4372-96a9-fa1da80c6973</x:v>
+        <x:v>75e73257-bb51-466d-a65c-8ce6f4f21d80</x:v>
       </x:c>
       <x:c r="E356" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9278,13 +9278,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B357" t="str">
-        <x:v>c813e1eb-0f41-4625-a07f-9653639a6483</x:v>
+        <x:v>44c91dac-dd16-4763-8868-8af45fe0c7ca</x:v>
       </x:c>
       <x:c r="C357" t="str">
-        <x:v>CourseMath0101 - TEMsec75grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec75grd05L</x:v>
       </x:c>
       <x:c r="D357" t="str">
-        <x:v>4e103ec4-0f96-43a5-8526-18f748ba0dfb</x:v>
+        <x:v>b4a455f2-d602-4c0e-be16-d06a44ab4352</x:v>
       </x:c>
       <x:c r="E357" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9304,13 +9304,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B358" t="str">
-        <x:v>40beef7f-5c48-469d-9410-f647f7ea895d</x:v>
+        <x:v>d1a791e3-c621-42c0-a10e-dccd5eb583d9</x:v>
       </x:c>
       <x:c r="C358" t="str">
-        <x:v>CourseMath0101 - TEMsec76grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec76grd05L</x:v>
       </x:c>
       <x:c r="D358" t="str">
-        <x:v>96728b03-2110-4faa-8d59-04dcbddae40c</x:v>
+        <x:v>e7dceb20-1848-4f3a-ac69-9803caf3506a</x:v>
       </x:c>
       <x:c r="E358" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9330,13 +9330,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B359" t="str">
-        <x:v>e2e77450-2c49-4b77-bafd-4d63a9918917</x:v>
+        <x:v>a4a3869e-0847-48b1-a1a6-ee31454673c1</x:v>
       </x:c>
       <x:c r="C359" t="str">
-        <x:v>CourseMath0101 - TEMsec77grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec77grd05L</x:v>
       </x:c>
       <x:c r="D359" t="str">
-        <x:v>1f7f3ba8-e3b7-4418-b3d8-cee99acc47f9</x:v>
+        <x:v>d4efd058-c55f-4b29-88e6-d3783b1274f7</x:v>
       </x:c>
       <x:c r="E359" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9356,13 +9356,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B360" t="str">
-        <x:v>f79818bf-8899-4220-9ebc-f33332e0bcb7</x:v>
+        <x:v>8b1195d1-936c-4ebf-a095-b95c94532848</x:v>
       </x:c>
       <x:c r="C360" t="str">
-        <x:v>CourseMath0101 - TEMsec78grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec78grd05L</x:v>
       </x:c>
       <x:c r="D360" t="str">
-        <x:v>4dad2675-119b-4f5e-a8b0-6cc6c110a80f</x:v>
+        <x:v>8da940b8-b7df-418f-a855-c024c5beeac8</x:v>
       </x:c>
       <x:c r="E360" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9382,13 +9382,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B361" t="str">
-        <x:v>36d6b92d-2659-46fe-9649-f631f7e36dde</x:v>
+        <x:v>0ef3153f-faa0-4c93-acc8-59ff2aafeff3</x:v>
       </x:c>
       <x:c r="C361" t="str">
-        <x:v>CourseMath0101 - TEMsec79grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec79grd05L</x:v>
       </x:c>
       <x:c r="D361" t="str">
-        <x:v>674f6ca1-4161-4ecc-b2c0-fd3bfda24362</x:v>
+        <x:v>e18f150e-4b20-4caf-9554-008e1b3878ea</x:v>
       </x:c>
       <x:c r="E361" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9408,13 +9408,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B362" t="str">
-        <x:v>5216e5d7-3004-4a21-968d-3e8010e69ec5</x:v>
+        <x:v>0e6b9159-63bb-4e9a-bf28-33ab5c7f683c</x:v>
       </x:c>
       <x:c r="C362" t="str">
-        <x:v>CourseMath0101 - TEMsec80grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec80grd05L</x:v>
       </x:c>
       <x:c r="D362" t="str">
-        <x:v>2547077b-44f2-461b-aaf8-96c6a8166eab</x:v>
+        <x:v>36d29c1c-b0ed-4f96-9cbb-af72d4a56821</x:v>
       </x:c>
       <x:c r="E362" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9434,13 +9434,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B363" t="str">
-        <x:v>b0f09dd9-e376-4fde-9d62-439d9f4cccb7</x:v>
+        <x:v>0ce48c46-0dd7-4380-a063-61ee510d7de1</x:v>
       </x:c>
       <x:c r="C363" t="str">
-        <x:v>CourseMath0101 - TEMsec81grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec81grd05L</x:v>
       </x:c>
       <x:c r="D363" t="str">
-        <x:v>7d1fcde3-a095-49ea-ae12-b209a766a34f</x:v>
+        <x:v>249d4237-9f58-46e1-944a-6676395f94be</x:v>
       </x:c>
       <x:c r="E363" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9460,13 +9460,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B364" t="str">
-        <x:v>a7a9a606-448e-4d54-b077-e8d4eeb9618f</x:v>
+        <x:v>5056a60a-09a7-4fe3-b259-39bb8515f9fa</x:v>
       </x:c>
       <x:c r="C364" t="str">
-        <x:v>CourseMath0101 - TEMsec82grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec82grd05L</x:v>
       </x:c>
       <x:c r="D364" t="str">
-        <x:v>e52ac86f-9c5a-48d6-9424-a570d204cb2f</x:v>
+        <x:v>0222711f-5f77-4fd6-95ad-69a7b2342550</x:v>
       </x:c>
       <x:c r="E364" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9486,13 +9486,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B365" t="str">
-        <x:v>c537c08e-188e-4788-9f04-4c3c8b53d7a0</x:v>
+        <x:v>12851b07-97d5-4659-babf-c28922e47e51</x:v>
       </x:c>
       <x:c r="C365" t="str">
-        <x:v>CourseMath0101 - TEMsec83grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec83grd05L</x:v>
       </x:c>
       <x:c r="D365" t="str">
-        <x:v>52b795ad-25d9-461c-b4d0-8ad2222182b9</x:v>
+        <x:v>5e5c973e-f66b-4cc2-a850-2038afe65abb</x:v>
       </x:c>
       <x:c r="E365" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9512,13 +9512,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B366" t="str">
-        <x:v>2692b665-9280-40b8-9846-85ea4d63d9d4</x:v>
+        <x:v>eed35a67-3d04-4254-aa6b-48d362b29ab4</x:v>
       </x:c>
       <x:c r="C366" t="str">
-        <x:v>CourseMath0101 - TEMsec84grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec84grd05L</x:v>
       </x:c>
       <x:c r="D366" t="str">
-        <x:v>846b9d95-ac28-457f-a49b-329584b489bb</x:v>
+        <x:v>615c2790-8c9b-4c8b-88aa-63b5a31be87f</x:v>
       </x:c>
       <x:c r="E366" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9538,13 +9538,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B367" t="str">
-        <x:v>698ebcfa-8394-4275-aadd-82f0e7abfe2f</x:v>
+        <x:v>03c97ca4-3df6-4a4e-956e-9f8ea0c86e3b</x:v>
       </x:c>
       <x:c r="C367" t="str">
-        <x:v>CourseMath0101 - TEMsec85grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec85grd05L</x:v>
       </x:c>
       <x:c r="D367" t="str">
-        <x:v>d78d5e95-faef-44ac-8561-fa760396f503</x:v>
+        <x:v>55679dc3-df29-4899-bc8b-b86d87d28420</x:v>
       </x:c>
       <x:c r="E367" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9564,13 +9564,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B368" t="str">
-        <x:v>87fa533b-5887-483d-8cad-cd372a04ab2a</x:v>
+        <x:v>bc96c2f7-4fb9-4fb9-bd0a-0fb85980f0bc</x:v>
       </x:c>
       <x:c r="C368" t="str">
-        <x:v>CourseMath0101 - TEMsec86grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec86grd05L</x:v>
       </x:c>
       <x:c r="D368" t="str">
-        <x:v>10cda52f-8e7c-42e4-a2b9-6785ce9e12d2</x:v>
+        <x:v>bfdedcef-b151-4542-8d52-4eac788a0add</x:v>
       </x:c>
       <x:c r="E368" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9590,13 +9590,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B369" t="str">
-        <x:v>5d231f72-8f1a-4630-ac61-8a6dc64f1d99</x:v>
+        <x:v>92018c9a-6ab3-4490-898e-10f648f93d5d</x:v>
       </x:c>
       <x:c r="C369" t="str">
-        <x:v>CourseMath0101 - TEMsec87grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec87grd05L</x:v>
       </x:c>
       <x:c r="D369" t="str">
-        <x:v>46151726-c3f7-4ad9-8ead-02d8c04f7b8f</x:v>
+        <x:v>f5ff3b41-4f9e-4998-836b-ae580ad4acea</x:v>
       </x:c>
       <x:c r="E369" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9616,13 +9616,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B370" t="str">
-        <x:v>061194ca-54eb-4cde-8587-1f80334d7d32</x:v>
+        <x:v>fc631a7f-da7f-44f4-a8ec-e2bdc82161cf</x:v>
       </x:c>
       <x:c r="C370" t="str">
-        <x:v>CourseMath0101 - TEMsec88grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec88grd05L</x:v>
       </x:c>
       <x:c r="D370" t="str">
-        <x:v>f3c5b50c-d10d-4858-805a-0646fa3e80da</x:v>
+        <x:v>44b713d9-47fa-4b02-a38a-81e708d9c69c</x:v>
       </x:c>
       <x:c r="E370" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9642,13 +9642,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B371" t="str">
-        <x:v>8eb35c5e-0478-46a0-97af-ff04ea2c4502</x:v>
+        <x:v>e7c57f6e-6559-42cb-948f-8d1917658536</x:v>
       </x:c>
       <x:c r="C371" t="str">
-        <x:v>CourseMath0101 - TEMsec89grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec89grd05L</x:v>
       </x:c>
       <x:c r="D371" t="str">
-        <x:v>40cf82ee-10cd-4f26-a58c-f3223cec2eda</x:v>
+        <x:v>74675d07-9d0f-4a8e-bb30-45c52f42b359</x:v>
       </x:c>
       <x:c r="E371" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9668,13 +9668,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B372" t="str">
-        <x:v>28f8101c-123a-47c5-9932-e1ddd5bab56b</x:v>
+        <x:v>755546d3-8754-41de-adc7-5fbb596b1003</x:v>
       </x:c>
       <x:c r="C372" t="str">
-        <x:v>CourseMath0101 - TEMsec90grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec90grd05L</x:v>
       </x:c>
       <x:c r="D372" t="str">
-        <x:v>0037c83a-4623-4a8d-b545-7f3dfd99fe2f</x:v>
+        <x:v>03dfee88-f035-4413-b80d-8edb0d5dba9f</x:v>
       </x:c>
       <x:c r="E372" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9694,13 +9694,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B373" t="str">
-        <x:v>874f4dd9-a843-4a09-b8b6-c25378503b87</x:v>
+        <x:v>7803462f-a61e-4fcc-959b-385de5e93684</x:v>
       </x:c>
       <x:c r="C373" t="str">
-        <x:v>CourseMath0101 - TEMsec91grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec91grd05L</x:v>
       </x:c>
       <x:c r="D373" t="str">
-        <x:v>2e6928e4-1682-41ae-8a72-bfc5c55bab97</x:v>
+        <x:v>4f4a1228-b8a0-4e51-b12d-f1d923715887</x:v>
       </x:c>
       <x:c r="E373" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9720,13 +9720,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B374" t="str">
-        <x:v>93ac44d1-f532-4c24-8589-5c10e9097222</x:v>
+        <x:v>9ae1eab8-a832-44f8-a73e-8cca5298c7b7</x:v>
       </x:c>
       <x:c r="C374" t="str">
-        <x:v>CourseMath0101 - TEMsec92grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec92grd05L</x:v>
       </x:c>
       <x:c r="D374" t="str">
-        <x:v>625925f0-57e6-49ed-87e8-6e65155fa1e9</x:v>
+        <x:v>90b6c45e-4123-4b03-aed6-b8a2ad811101</x:v>
       </x:c>
       <x:c r="E374" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9746,13 +9746,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B375" t="str">
-        <x:v>98cc5e41-134f-48c0-9f92-a87e0b432883</x:v>
+        <x:v>63476f2e-28fe-4722-92b6-10930ad02316</x:v>
       </x:c>
       <x:c r="C375" t="str">
-        <x:v>CourseMath0101 - TEMsec93grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec93grd05L</x:v>
       </x:c>
       <x:c r="D375" t="str">
-        <x:v>701a933f-8ace-4f46-916e-4bb5e35b607a</x:v>
+        <x:v>762c6588-0b9c-4297-82e5-0a9a3d810ead</x:v>
       </x:c>
       <x:c r="E375" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9772,13 +9772,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B376" t="str">
-        <x:v>5e2052bc-a2a0-4fc4-9e01-3cb47301d763</x:v>
+        <x:v>0cd00003-52f4-42d6-849a-f9f66c150db3</x:v>
       </x:c>
       <x:c r="C376" t="str">
-        <x:v>CourseMath0101 - TEMsec94grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec94grd05L</x:v>
       </x:c>
       <x:c r="D376" t="str">
-        <x:v>31ccfd64-c4b0-4d42-a0e4-5ad459356151</x:v>
+        <x:v>5c30aad3-bcdc-48c1-82c3-3ecc751ddb24</x:v>
       </x:c>
       <x:c r="E376" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9798,13 +9798,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B377" t="str">
-        <x:v>6c15f0ab-9b04-461a-9103-8943bc5ad88c</x:v>
+        <x:v>77c1a3e9-8df2-47d4-a30d-448bd9d4d76b</x:v>
       </x:c>
       <x:c r="C377" t="str">
-        <x:v>CourseMath0101 - TEMsec95grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec95grd05L</x:v>
       </x:c>
       <x:c r="D377" t="str">
-        <x:v>736c29de-fb77-4d11-97d7-84583c758f63</x:v>
+        <x:v>a4915b5c-e5d7-4930-86b0-8b88b9ed1862</x:v>
       </x:c>
       <x:c r="E377" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9824,13 +9824,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B378" t="str">
-        <x:v>ee6af029-9d67-4ecc-bb3d-808dfa2f540c</x:v>
+        <x:v>6b3db7d2-a1ea-4b4f-aa63-611e97c87243</x:v>
       </x:c>
       <x:c r="C378" t="str">
-        <x:v>CourseMath0101 - TEMsec96grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec96grd05L</x:v>
       </x:c>
       <x:c r="D378" t="str">
-        <x:v>7ada04b7-55ba-4534-bdb4-9b70df51a8d3</x:v>
+        <x:v>7dd74ac0-0102-4799-9e52-fc3e5bbf91e1</x:v>
       </x:c>
       <x:c r="E378" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9850,13 +9850,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B379" t="str">
-        <x:v>0acaa923-2e83-41f4-ab0c-b8f54ddbe4b3</x:v>
+        <x:v>1c601446-f0a8-4ffd-90b1-87b91b67861c</x:v>
       </x:c>
       <x:c r="C379" t="str">
-        <x:v>CourseMath0101 - TEMsec97grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec97grd05L</x:v>
       </x:c>
       <x:c r="D379" t="str">
-        <x:v>c5fe22cd-0cdf-46b6-88cf-ae6d0cff383d</x:v>
+        <x:v>f663a638-383f-4806-baee-a3cd886035d8</x:v>
       </x:c>
       <x:c r="E379" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9876,13 +9876,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B380" t="str">
-        <x:v>ae2fe13c-e258-49f9-b1f3-66b413162733</x:v>
+        <x:v>279fd74f-3a8c-48b4-8d0b-034065693923</x:v>
       </x:c>
       <x:c r="C380" t="str">
-        <x:v>CourseMath0101 - TEMsec98grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec98grd05L</x:v>
       </x:c>
       <x:c r="D380" t="str">
-        <x:v>341a0dd7-f64c-4900-bc9b-14a1fecc4a1d</x:v>
+        <x:v>3e9bcb08-8fab-43d3-9d96-3604aae8c60f</x:v>
       </x:c>
       <x:c r="E380" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
@@ -9902,13 +9902,13 @@
         <x:v>update</x:v>
       </x:c>
       <x:c r="B381" t="str">
-        <x:v>e4fef7a8-34c1-42c1-91a8-262a1afa11f3</x:v>
+        <x:v>5842da23-b7cd-4db9-ba2c-560aa0d0df33</x:v>
       </x:c>
       <x:c r="C381" t="str">
-        <x:v>CourseMath0101 - TEMsec99grd01L</x:v>
+        <x:v>CourseMath0505 - TEMsec99grd05L</x:v>
       </x:c>
       <x:c r="D381" t="str">
-        <x:v>5342cfbb-ac61-4661-9297-fd4532295e13</x:v>
+        <x:v>2102318c-732a-4758-bed4-f8eef2afc663</x:v>
       </x:c>
       <x:c r="E381" t="str">
         <x:v>3f02bd15-8514-4d72-9d37-f60532f01e5e</x:v>
